--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\CIG_Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF89B1A-1808-4BDB-848C-B9FF1EC6FBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BA80A-A884-4335-9D38-6E43AC92212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -800,7 +800,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,9 +868,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="40" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1287,7 +1284,7 @@
   <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="21.6" customHeight="1"/>
@@ -1297,10 +1294,10 @@
     <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="25" customWidth="1"/>
     <col min="10" max="16384" width="8.42578125" style="11"/>
   </cols>
   <sheetData>
@@ -1321,16 +1318,16 @@
       <c r="E2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>188</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1347,20 +1344,23 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="22" t="str">
+        <f>VLOOKUP(E2,Product!A2:B$58,1)</f>
+        <v>FAN</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>50</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="32">
         <v>36000</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="35">
         <v>0.24586033776323771</v>
       </c>
-      <c r="I3" s="26" t="str" cm="1">
+      <c r="I3" s="25" t="str" cm="1">
         <f t="array" ref="I3:I202">TEXT(A3:A202, "dd/mm/yyyy")</f>
         <v>15/01/2020</v>
       </c>
@@ -1379,20 +1379,23 @@
       <c r="C4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="22" t="str">
+        <f>VLOOKUP(E3,Product!A3:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>100</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <v>88000</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <v>5.0950141892985655E-2</v>
       </c>
-      <c r="I4" s="26" t="str">
+      <c r="I4" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J4" s="11" t="str">
@@ -1409,20 +1412,23 @@
       <c r="C5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="22" t="str">
+        <f>VLOOKUP(E4,Product!A4:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>50</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <v>204000</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <v>0.3577273171595573</v>
       </c>
-      <c r="I5" s="26" t="str">
+      <c r="I5" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J5" s="11" t="str">
@@ -1439,20 +1445,23 @@
       <c r="C6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="22" t="e">
+        <f>VLOOKUP(E5,Product!A5:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>20</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>50000</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>0.11281718553593023</v>
       </c>
-      <c r="I6" s="26" t="str">
+      <c r="I6" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J6" s="11" t="str">
@@ -1469,20 +1478,23 @@
       <c r="C7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="22" t="str">
+        <f>VLOOKUP(E6,Product!A6:B$58,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>500</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <v>47000</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>0.17731268751287124</v>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J7" s="11" t="str">
@@ -1499,20 +1511,23 @@
       <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="22" t="str">
+        <f>VLOOKUP(E7,Product!A7:B$58,1)</f>
+        <v>FAN</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>500</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <v>74000</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>0.11509393797640724</v>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J8" s="11" t="str">
@@ -1529,20 +1544,23 @@
       <c r="C9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="22" t="str">
+        <f>VLOOKUP(E8,Product!A8:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>1500</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <v>89600</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>0.44964323345314583</v>
       </c>
-      <c r="I9" s="26" t="str">
+      <c r="I9" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J9" s="11" t="str">
@@ -1559,20 +1577,23 @@
       <c r="C10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="22" t="str">
+        <f>VLOOKUP(E9,Product!A9:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>1000</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <v>40000</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>0.36665016376974779</v>
       </c>
-      <c r="I10" s="26" t="str">
+      <c r="I10" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J10" s="11" t="str">
@@ -1589,20 +1610,23 @@
       <c r="C11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="22" t="str">
+        <f>VLOOKUP(E10,Product!A10:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>3600</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="32">
         <v>25500</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <v>0.12932127452188724</v>
       </c>
-      <c r="I11" s="26" t="str">
+      <c r="I11" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J11" s="11" t="str">
@@ -1619,20 +1643,23 @@
       <c r="C12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="22" t="str">
+        <f>VLOOKUP(E11,Product!A11:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>1350</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <v>57600</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="35">
         <v>9.1081896176469807E-2</v>
       </c>
-      <c r="I12" s="26" t="str">
+      <c r="I12" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J12" s="11" t="str">
@@ -1649,20 +1676,23 @@
       <c r="C13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="22" t="str">
+        <f>VLOOKUP(E12,Product!A12:B$58,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="29">
         <v>900</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <v>55000</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <v>0.18140906616982336</v>
       </c>
-      <c r="I13" s="26" t="str">
+      <c r="I13" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J13" s="11" t="str">
@@ -1679,20 +1709,23 @@
       <c r="C14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="22" t="e">
+        <f>VLOOKUP(E13,Product!A13:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>750</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <v>174000</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="35">
         <v>0.19553340766591171</v>
       </c>
-      <c r="I14" s="26" t="str">
+      <c r="I14" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J14" s="11" t="str">
@@ -1709,20 +1742,23 @@
       <c r="C15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="22" t="str">
+        <f>VLOOKUP(E14,Product!A14:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>500</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <v>41500</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="35">
         <v>0.22202364295959987</v>
       </c>
-      <c r="I15" s="26" t="str">
+      <c r="I15" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J15" s="11" t="str">
@@ -1739,20 +1775,23 @@
       <c r="C16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="22" t="str">
+        <f>VLOOKUP(E15,Product!A15:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <v>2000</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <v>58800</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="35">
         <v>0.36500913147659486</v>
       </c>
-      <c r="I16" s="26" t="str">
+      <c r="I16" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J16" s="11" t="str">
@@ -1769,20 +1808,23 @@
       <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="22" t="str">
+        <f>VLOOKUP(E16,Product!A16:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>480</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <v>52500</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="35">
         <v>0.23917664586542517</v>
       </c>
-      <c r="I17" s="26" t="str">
+      <c r="I17" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J17" s="11" t="str">
@@ -1799,20 +1841,23 @@
       <c r="C18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="22" t="str">
+        <f>VLOOKUP(E17,Product!A17:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <v>100</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <v>211200</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="35">
         <v>0.21317524463881424</v>
       </c>
-      <c r="I18" s="26" t="str">
+      <c r="I18" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J18" s="11" t="str">
@@ -1829,20 +1874,23 @@
       <c r="C19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="22" t="e">
+        <f>VLOOKUP(E18,Product!A18:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <v>300</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <v>46800</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>0.44217288352941103</v>
       </c>
-      <c r="I19" s="26" t="str">
+      <c r="I19" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J19" s="11" t="str">
@@ -1859,20 +1907,23 @@
       <c r="C20" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="22" t="str">
+        <f>VLOOKUP(E19,Product!A19:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <v>3300</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="32">
         <v>235200</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <v>0.36500913147659486</v>
       </c>
-      <c r="I20" s="26" t="str">
+      <c r="I20" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J20" s="11" t="str">
@@ -1889,20 +1940,23 @@
       <c r="C21" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="22" t="str">
+        <f>VLOOKUP(E20,Product!A20:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>600</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <v>52000</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="35">
         <v>0.29257663092963754</v>
       </c>
-      <c r="I21" s="26" t="str">
+      <c r="I21" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J21" s="11" t="str">
@@ -1919,20 +1973,23 @@
       <c r="C22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="22" t="str">
+        <f>VLOOKUP(E21,Product!A21:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="29">
         <v>3600</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="32">
         <v>36000</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I22" s="26" t="str">
+      <c r="I22" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J22" s="11" t="str">
@@ -1949,20 +2006,23 @@
       <c r="C23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="22" t="str">
+        <f>VLOOKUP(E22,Product!A22:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="29">
         <v>180</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="32">
         <v>450000</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="35">
         <v>0.18305456769106282</v>
       </c>
-      <c r="I23" s="26" t="str">
+      <c r="I23" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J23" s="11" t="str">
@@ -1979,20 +2039,23 @@
       <c r="C24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="22" t="e">
+        <f>VLOOKUP(E23,Product!A23:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="29">
         <v>100</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <v>58000</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="35">
         <v>0.16463061298174139</v>
       </c>
-      <c r="I24" s="26" t="str">
+      <c r="I24" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J24" s="11" t="str">
@@ -2009,20 +2072,23 @@
       <c r="C25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="22" t="e">
+        <f>VLOOKUP(E24,Product!A24:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="29">
         <v>2</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="32">
         <v>148800</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="35">
         <v>0.3081070824124203</v>
       </c>
-      <c r="I25" s="26" t="str">
+      <c r="I25" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J25" s="11" t="str">
@@ -2039,20 +2105,23 @@
       <c r="C26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="22" t="e">
+        <f>VLOOKUP(E25,Product!A25:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="29">
         <v>3</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <v>162000</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="35">
         <v>0.16782941398822984</v>
       </c>
-      <c r="I26" s="26" t="str">
+      <c r="I26" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J26" s="11" t="str">
@@ -2069,20 +2138,23 @@
       <c r="C27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="22" t="str">
+        <f>VLOOKUP(E26,Product!A26:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="29">
         <v>1200</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="32">
         <v>1020000</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="35">
         <v>0.14301194112085203</v>
       </c>
-      <c r="I27" s="26" t="str">
+      <c r="I27" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J27" s="11" t="str">
@@ -2099,20 +2171,23 @@
       <c r="C28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="22" t="str">
+        <f>VLOOKUP(E27,Product!A27:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="29">
         <v>1000</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="32">
         <v>90000</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <v>0.1830545676910629</v>
       </c>
-      <c r="I28" s="26" t="str">
+      <c r="I28" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J28" s="11" t="str">
@@ -2129,20 +2204,23 @@
       <c r="C29" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="22" t="e">
+        <f>VLOOKUP(E28,Product!A28:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="29">
         <v>3000</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="32">
         <v>28000</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="35">
         <v>0.24777139079613694</v>
       </c>
-      <c r="I29" s="26" t="str">
+      <c r="I29" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J29" s="11" t="str">
@@ -2159,20 +2237,23 @@
       <c r="C30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="22" t="e">
+        <f>VLOOKUP(E29,Product!A29:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="29">
         <v>100</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="32">
         <v>36000</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I30" s="26" t="str">
+      <c r="I30" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J30" s="11" t="str">
@@ -2189,20 +2270,23 @@
       <c r="C31" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="22" t="str">
+        <f>VLOOKUP(E30,Product!A30:B$58,1)</f>
+        <v>FAN</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="29">
         <v>15</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="32">
         <v>29000</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="35">
         <v>0.33392505029188618</v>
       </c>
-      <c r="I31" s="26" t="str">
+      <c r="I31" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J31" s="11" t="str">
@@ -2219,20 +2303,23 @@
       <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="22" t="str">
+        <f>VLOOKUP(E31,Product!A31:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="29">
         <v>5</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="32">
         <v>600000</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="35">
         <v>0.472888229864947</v>
       </c>
-      <c r="I32" s="26" t="str">
+      <c r="I32" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J32" s="11" t="str">
@@ -2249,20 +2336,23 @@
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="22" t="str">
+        <f>VLOOKUP(E32,Product!A32:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="29">
         <v>5</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="32">
         <v>98000</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <v>8.3282842383602354E-2</v>
       </c>
-      <c r="I33" s="26" t="str">
+      <c r="I33" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J33" s="11" t="str">
@@ -2279,20 +2369,23 @@
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="22"/>
+      <c r="D34" s="22" t="str">
+        <f>VLOOKUP(E33,Product!A33:B$58,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="29">
         <v>15</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="32">
         <v>467500</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="35">
         <v>0.1412048473378982</v>
       </c>
-      <c r="I34" s="26" t="str">
+      <c r="I34" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J34" s="11" t="str">
@@ -2309,20 +2402,23 @@
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="22" t="str">
+        <f>VLOOKUP(E34,Product!A34:B$58,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="29">
         <v>6</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="32">
         <v>1924000</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="35">
         <v>0.13840226440071446</v>
       </c>
-      <c r="I35" s="26" t="str">
+      <c r="I35" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J35" s="11" t="str">
@@ -2339,20 +2435,23 @@
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="22"/>
+      <c r="D36" s="22" t="str">
+        <f>VLOOKUP(E35,Product!A35:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="29">
         <v>6</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="32">
         <v>1850000</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="35">
         <v>0.11467217994326893</v>
       </c>
-      <c r="I36" s="26" t="str">
+      <c r="I36" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J36" s="11" t="str">
@@ -2369,20 +2468,23 @@
       <c r="C37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D37" s="22" t="e">
+        <f>VLOOKUP(E36,Product!A36:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="29">
         <v>15</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="32">
         <v>900000</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="35">
         <v>0.47288822986494705</v>
       </c>
-      <c r="I37" s="26" t="str">
+      <c r="I37" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J37" s="11" t="str">
@@ -2399,20 +2501,23 @@
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="22"/>
+      <c r="D38" s="22" t="e">
+        <f>VLOOKUP(E37,Product!A37:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="29">
         <v>15</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="32">
         <v>725000</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="35">
         <v>0.33392505029188618</v>
       </c>
-      <c r="I38" s="26" t="str">
+      <c r="I38" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J38" s="11" t="str">
@@ -2429,20 +2534,23 @@
       <c r="C39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="22"/>
+      <c r="D39" s="22" t="e">
+        <f>VLOOKUP(E38,Product!A38:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="29">
         <v>15</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="32">
         <v>825000</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="35">
         <v>2.0073333581864691E-2</v>
       </c>
-      <c r="I39" s="26" t="str">
+      <c r="I39" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J39" s="11" t="str">
@@ -2459,20 +2567,23 @@
       <c r="C40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="22"/>
+      <c r="D40" s="22" t="e">
+        <f>VLOOKUP(E39,Product!A39:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="29">
         <v>2</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="32">
         <v>1800000</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I40" s="26" t="str">
+      <c r="I40" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J40" s="11" t="str">
@@ -2489,20 +2600,23 @@
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="22" t="str">
+        <f>VLOOKUP(E40,Product!A40:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="29">
         <v>2</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="32">
         <v>576000</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41" s="35">
         <v>9.1081896176469723E-2</v>
       </c>
-      <c r="I41" s="26" t="str">
+      <c r="I41" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J41" s="11" t="str">
@@ -2519,20 +2633,23 @@
       <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="22" t="str">
+        <f>VLOOKUP(E41,Product!A41:B$58,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="29">
         <v>2</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="32">
         <v>490000</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="35">
         <v>0.13989639010409899</v>
       </c>
-      <c r="I42" s="26" t="str">
+      <c r="I42" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J42" s="11" t="str">
@@ -2549,20 +2666,23 @@
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="22"/>
+      <c r="D43" s="22" t="str">
+        <f>VLOOKUP(E42,Product!A42:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="29">
         <v>2</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="32">
         <v>570000</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="35">
         <v>0.14015044829721046</v>
       </c>
-      <c r="I43" s="26" t="str">
+      <c r="I43" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J43" s="11" t="str">
@@ -2579,20 +2699,23 @@
       <c r="C44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="22"/>
+      <c r="D44" s="22" t="str">
+        <f>VLOOKUP(E43,Product!A43:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="29">
         <v>2</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="32">
         <v>1176000</v>
       </c>
-      <c r="H44" s="36">
+      <c r="H44" s="35">
         <v>0.36500913147659481</v>
       </c>
-      <c r="I44" s="26" t="str">
+      <c r="I44" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J44" s="11" t="str">
@@ -2609,20 +2732,23 @@
       <c r="C45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="22" t="str">
+        <f>VLOOKUP(E44,Product!A44:B$58,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="29">
         <v>2</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="32">
         <v>108000</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="35">
         <v>0.16782941398822984</v>
       </c>
-      <c r="I45" s="26" t="str">
+      <c r="I45" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J45" s="11" t="str">
@@ -2639,20 +2765,23 @@
       <c r="C46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="22"/>
+      <c r="D46" s="22" t="e">
+        <f>VLOOKUP(E45,Product!A45:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="29">
         <v>100</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="32">
         <v>112000</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="35">
         <v>0.23869782934156247</v>
       </c>
-      <c r="I46" s="26" t="str">
+      <c r="I46" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J46" s="11" t="str">
@@ -2669,20 +2798,23 @@
       <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="22" t="str">
+        <f>VLOOKUP(E46,Product!A46:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="29">
         <v>15</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="32">
         <v>70000</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="35">
         <v>4.9173899822270023E-2</v>
       </c>
-      <c r="I47" s="26" t="str">
+      <c r="I47" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J47" s="11" t="str">
@@ -2699,20 +2831,23 @@
       <c r="C48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="22"/>
+      <c r="D48" s="22" t="e">
+        <f>VLOOKUP(E47,Product!A47:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="29">
         <v>15</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="32">
         <v>80000</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="35">
         <v>0.3555684053743785</v>
       </c>
-      <c r="I48" s="26" t="str">
+      <c r="I48" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J48" s="11" t="str">
@@ -2729,20 +2864,23 @@
       <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="22" t="str">
+        <f>VLOOKUP(E48,Product!A48:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="29">
         <v>15</v>
       </c>
-      <c r="G49" s="33">
+      <c r="G49" s="32">
         <v>92000</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="35">
         <v>0.14725426767619459</v>
       </c>
-      <c r="I49" s="26" t="str">
+      <c r="I49" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J49" s="11" t="str">
@@ -2759,20 +2897,23 @@
       <c r="C50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="22"/>
+      <c r="D50" s="22" t="str">
+        <f>VLOOKUP(E49,Product!A49:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="29">
         <v>10</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G50" s="32">
         <v>58800</v>
       </c>
-      <c r="H50" s="36">
+      <c r="H50" s="35">
         <v>0.36500913147659486</v>
       </c>
-      <c r="I50" s="26" t="str">
+      <c r="I50" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J50" s="11" t="str">
@@ -2789,20 +2930,23 @@
       <c r="C51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="22"/>
+      <c r="D51" s="22" t="str">
+        <f>VLOOKUP(E50,Product!A50:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="29">
         <v>10</v>
       </c>
-      <c r="G51" s="33">
+      <c r="G51" s="32">
         <v>206000</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="35">
         <v>0.20883345854564744</v>
       </c>
-      <c r="I51" s="26" t="str">
+      <c r="I51" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J51" s="11" t="str">
@@ -2819,20 +2963,23 @@
       <c r="C52" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="22"/>
+      <c r="D52" s="22" t="str">
+        <f>VLOOKUP(E51,Product!A51:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="29">
         <v>10</v>
       </c>
-      <c r="G52" s="33">
+      <c r="G52" s="32">
         <v>51000</v>
       </c>
-      <c r="H52" s="36">
+      <c r="H52" s="35">
         <v>0.12932127452188724</v>
       </c>
-      <c r="I52" s="26" t="str">
+      <c r="I52" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J52" s="11" t="str">
@@ -2849,20 +2996,23 @@
       <c r="C53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="22"/>
+      <c r="D53" s="22" t="str">
+        <f>VLOOKUP(E52,Product!A52:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="29">
         <v>3</v>
       </c>
-      <c r="G53" s="33">
+      <c r="G53" s="32">
         <v>290000</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53" s="35">
         <v>0.33392505029188602</v>
       </c>
-      <c r="I53" s="26" t="str">
+      <c r="I53" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J53" s="11" t="str">
@@ -2879,20 +3029,23 @@
       <c r="C54" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="22"/>
+      <c r="D54" s="22" t="str">
+        <f>VLOOKUP(E53,Product!A53:B$58,1)</f>
+        <v>Camping lanterns</v>
+      </c>
       <c r="E54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="29">
         <v>10</v>
       </c>
-      <c r="G54" s="33">
+      <c r="G54" s="32">
         <v>55800</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H54" s="35">
         <v>0.14594046364445828</v>
       </c>
-      <c r="I54" s="26" t="str">
+      <c r="I54" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J54" s="11" t="str">
@@ -2909,20 +3062,23 @@
       <c r="C55" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D55" s="22"/>
+      <c r="D55" s="22" t="str">
+        <f>VLOOKUP(E54,Product!A54:B$58,1)</f>
+        <v>LED bulbs</v>
+      </c>
       <c r="E55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F55" s="29">
         <v>3</v>
       </c>
-      <c r="G55" s="33">
+      <c r="G55" s="32">
         <v>57500</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55" s="35">
         <v>2.1856709657115607E-2</v>
       </c>
-      <c r="I55" s="26" t="str">
+      <c r="I55" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J55" s="11" t="str">
@@ -2939,20 +3095,23 @@
       <c r="C56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="D56" s="22" t="e">
+        <f>VLOOKUP(E55,Product!A55:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="29">
         <v>3</v>
       </c>
-      <c r="G56" s="33">
+      <c r="G56" s="32">
         <v>55000</v>
       </c>
-      <c r="H56" s="36">
+      <c r="H56" s="35">
         <v>0.18140906616982336</v>
       </c>
-      <c r="I56" s="26" t="str">
+      <c r="I56" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J56" s="11" t="str">
@@ -2969,20 +3128,23 @@
       <c r="C57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="22"/>
+      <c r="D57" s="22" t="e">
+        <f>VLOOKUP(E56,Product!A56:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="29">
         <v>10</v>
       </c>
-      <c r="G57" s="33">
+      <c r="G57" s="32">
         <v>1530000</v>
       </c>
-      <c r="H57" s="36">
+      <c r="H57" s="35">
         <v>0.14301194112085189</v>
       </c>
-      <c r="I57" s="26" t="str">
+      <c r="I57" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J57" s="11" t="str">
@@ -2999,20 +3161,23 @@
       <c r="C58" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="22"/>
+      <c r="D58" s="22" t="e">
+        <f>VLOOKUP(E57,Product!A57:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="29">
         <v>10</v>
       </c>
-      <c r="G58" s="33">
+      <c r="G58" s="32">
         <v>1070000</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H58" s="35">
         <v>0.17826014483807762</v>
       </c>
-      <c r="I58" s="26" t="str">
+      <c r="I58" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J58" s="11" t="str">
@@ -3029,20 +3194,23 @@
       <c r="C59" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="22"/>
+      <c r="D59" s="22" t="e">
+        <f>VLOOKUP(E58,Product!A58:B$58,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E59" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F59" s="29">
         <v>2</v>
       </c>
-      <c r="G59" s="33">
+      <c r="G59" s="32">
         <v>320000</v>
       </c>
-      <c r="H59" s="36">
+      <c r="H59" s="35">
         <v>0.14812214335876023</v>
       </c>
-      <c r="I59" s="26" t="str">
+      <c r="I59" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J59" s="11" t="str">
@@ -3059,20 +3227,23 @@
       <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="22"/>
+      <c r="D60" s="22" t="str">
+        <f>VLOOKUP(E59,Product!A$58:B59,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="29">
         <v>2</v>
       </c>
-      <c r="G60" s="33">
+      <c r="G60" s="32">
         <v>-15550</v>
       </c>
-      <c r="H60" s="36">
+      <c r="H60" s="35">
         <v>0.34098872410514924</v>
       </c>
-      <c r="I60" s="26" t="str">
+      <c r="I60" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J60" s="11" t="str">
@@ -3089,20 +3260,23 @@
       <c r="C61" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D61" s="22"/>
+      <c r="D61" s="22" t="e">
+        <f>VLOOKUP(E60,Product!A$58:B60,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="29">
         <v>2</v>
       </c>
-      <c r="G61" s="33">
+      <c r="G61" s="32">
         <v>10850</v>
       </c>
-      <c r="H61" s="36">
+      <c r="H61" s="35">
         <v>0.3283213974126088</v>
       </c>
-      <c r="I61" s="26" t="str">
+      <c r="I61" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J61" s="11" t="str">
@@ -3119,20 +3293,23 @@
       <c r="C62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="22"/>
+      <c r="D62" s="22" t="e">
+        <f>VLOOKUP(E61,Product!A$58:B61,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="29">
         <v>2</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="32">
         <v>3300000</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="35">
         <v>3.6689202105383706E-2</v>
       </c>
-      <c r="I62" s="26" t="str">
+      <c r="I62" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J62" s="11" t="str">
@@ -3149,20 +3326,23 @@
       <c r="C63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="22"/>
+      <c r="D63" s="22" t="e">
+        <f>VLOOKUP(E62,Product!A$58:B62,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="29">
         <v>2</v>
       </c>
-      <c r="G63" s="33">
+      <c r="G63" s="32">
         <v>1080000</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="35">
         <v>0.16782941398822984</v>
       </c>
-      <c r="I63" s="26" t="str">
+      <c r="I63" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J63" s="11" t="str">
@@ -3179,20 +3359,23 @@
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="22"/>
+      <c r="D64" s="22" t="e">
+        <f>VLOOKUP(E63,Product!A$58:B63,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="29">
         <v>2</v>
       </c>
-      <c r="G64" s="33">
+      <c r="G64" s="32">
         <v>180000</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I64" s="26" t="str">
+      <c r="I64" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J64" s="11" t="str">
@@ -3209,20 +3392,23 @@
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="22"/>
+      <c r="D65" s="22" t="str">
+        <f>VLOOKUP(E64,Product!A$58:B64,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F65" s="30">
+      <c r="F65" s="29">
         <v>900</v>
       </c>
-      <c r="G65" s="33">
+      <c r="G65" s="32">
         <v>300000</v>
       </c>
-      <c r="H65" s="36">
+      <c r="H65" s="35">
         <v>0.472888229864947</v>
       </c>
-      <c r="I65" s="26" t="str">
+      <c r="I65" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J65" s="11" t="str">
@@ -3239,20 +3425,23 @@
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="22"/>
+      <c r="D66" s="22" t="e">
+        <f>VLOOKUP(E65,Product!A$58:B65,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F66" s="29">
         <v>250</v>
       </c>
-      <c r="G66" s="33">
+      <c r="G66" s="32">
         <v>294000</v>
       </c>
-      <c r="H66" s="36">
+      <c r="H66" s="35">
         <v>0.36500913147659481</v>
       </c>
-      <c r="I66" s="26" t="str">
+      <c r="I66" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J66" s="11" t="str">
@@ -3269,20 +3458,23 @@
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="22"/>
+      <c r="D67" s="22" t="str">
+        <f>VLOOKUP(E66,Product!A$58:B66,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="30">
+      <c r="F67" s="29">
         <v>150</v>
       </c>
-      <c r="G67" s="33">
+      <c r="G67" s="32">
         <v>290000</v>
       </c>
-      <c r="H67" s="36">
+      <c r="H67" s="35">
         <v>0.33392505029188602</v>
       </c>
-      <c r="I67" s="26" t="str">
+      <c r="I67" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J67" s="11" t="str">
@@ -3299,20 +3491,23 @@
       <c r="C68" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="22"/>
+      <c r="D68" s="22" t="e">
+        <f>VLOOKUP(E67,Product!A$58:B67,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="29">
         <v>1200</v>
       </c>
-      <c r="G68" s="33">
+      <c r="G68" s="32">
         <v>29000</v>
       </c>
-      <c r="H68" s="36">
+      <c r="H68" s="35">
         <v>0.33392505029188618</v>
       </c>
-      <c r="I68" s="26" t="str">
+      <c r="I68" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J68" s="11" t="str">
@@ -3329,20 +3524,23 @@
       <c r="C69" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D69" s="22"/>
+      <c r="D69" s="22" t="e">
+        <f>VLOOKUP(E68,Product!A$58:B68,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F69" s="30">
+      <c r="F69" s="29">
         <v>1300</v>
       </c>
-      <c r="G69" s="33">
+      <c r="G69" s="32">
         <v>72000</v>
       </c>
-      <c r="H69" s="36">
+      <c r="H69" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I69" s="26" t="str">
+      <c r="I69" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J69" s="11" t="str">
@@ -3359,20 +3557,23 @@
       <c r="C70" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="22"/>
+      <c r="D70" s="22" t="str">
+        <f>VLOOKUP(E69,Product!A$58:B69,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="29">
         <v>100</v>
       </c>
-      <c r="G70" s="33">
+      <c r="G70" s="32">
         <v>51000</v>
       </c>
-      <c r="H70" s="36">
+      <c r="H70" s="35">
         <v>0.14301194112085175</v>
       </c>
-      <c r="I70" s="26" t="str">
+      <c r="I70" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J70" s="11" t="str">
@@ -3389,20 +3590,23 @@
       <c r="C71" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="22"/>
+      <c r="D71" s="22" t="e">
+        <f>VLOOKUP(E70,Product!A$58:B70,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E71" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="29">
         <v>40</v>
       </c>
-      <c r="G71" s="33">
+      <c r="G71" s="32">
         <v>1450000</v>
       </c>
-      <c r="H71" s="36">
+      <c r="H71" s="35">
         <v>0.33392505029188618</v>
       </c>
-      <c r="I71" s="26" t="str">
+      <c r="I71" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J71" s="11" t="str">
@@ -3419,20 +3623,23 @@
       <c r="C72" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D72" s="22"/>
+      <c r="D72" s="22" t="e">
+        <f>VLOOKUP(E71,Product!A$58:B71,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F72" s="29">
         <v>500</v>
       </c>
-      <c r="G72" s="33">
+      <c r="G72" s="32">
         <v>742500</v>
       </c>
-      <c r="H72" s="36">
+      <c r="H72" s="35">
         <v>6.6604398966407075E-2</v>
       </c>
-      <c r="I72" s="26" t="str">
+      <c r="I72" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J72" s="11" t="str">
@@ -3449,20 +3656,23 @@
       <c r="C73" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="22"/>
+      <c r="D73" s="22" t="e">
+        <f>VLOOKUP(E72,Product!A$58:B72,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E73" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F73" s="30">
+      <c r="F73" s="29">
         <v>240</v>
       </c>
-      <c r="G73" s="33">
+      <c r="G73" s="32">
         <v>460800</v>
       </c>
-      <c r="H73" s="36">
+      <c r="H73" s="35">
         <v>9.1081896176469807E-2</v>
       </c>
-      <c r="I73" s="26" t="str">
+      <c r="I73" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J73" s="11" t="str">
@@ -3479,20 +3689,23 @@
       <c r="C74" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D74" s="22"/>
+      <c r="D74" s="22" t="str">
+        <f>VLOOKUP(E73,Product!A$58:B73,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E74" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F74" s="30">
+      <c r="F74" s="29">
         <v>1500</v>
       </c>
-      <c r="G74" s="33">
+      <c r="G74" s="32">
         <v>424000</v>
       </c>
-      <c r="H74" s="36">
+      <c r="H74" s="35">
         <v>0.27666875120976947</v>
       </c>
-      <c r="I74" s="26" t="str">
+      <c r="I74" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J74" s="11" t="str">
@@ -3509,20 +3722,23 @@
       <c r="C75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D75" s="22"/>
+      <c r="D75" s="22" t="str">
+        <f>VLOOKUP(E74,Product!A$58:B74,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="29">
         <v>1000</v>
       </c>
-      <c r="G75" s="33">
+      <c r="G75" s="32">
         <v>1764000</v>
       </c>
-      <c r="H75" s="36">
+      <c r="H75" s="35">
         <v>0.36500913147659486</v>
       </c>
-      <c r="I75" s="26" t="str">
+      <c r="I75" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J75" s="11" t="str">
@@ -3539,20 +3755,23 @@
       <c r="C76" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="22"/>
+      <c r="D76" s="22" t="str">
+        <f>VLOOKUP(E75,Product!A$58:B75,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E76" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="30">
+      <c r="F76" s="29">
         <v>300</v>
       </c>
-      <c r="G76" s="33">
+      <c r="G76" s="32">
         <v>425000</v>
       </c>
-      <c r="H76" s="36">
+      <c r="H76" s="35">
         <v>9.6561361100882703E-2</v>
       </c>
-      <c r="I76" s="26" t="str">
+      <c r="I76" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J76" s="11" t="str">
@@ -3569,20 +3788,23 @@
       <c r="C77" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="22"/>
+      <c r="D77" s="22" t="str">
+        <f>VLOOKUP(E76,Product!A$58:B76,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E77" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F77" s="30">
+      <c r="F77" s="29">
         <v>960</v>
       </c>
-      <c r="G77" s="33">
+      <c r="G77" s="32">
         <v>20000</v>
       </c>
-      <c r="H77" s="36">
+      <c r="H77" s="35">
         <v>0.16709143501762808</v>
       </c>
-      <c r="I77" s="26" t="str">
+      <c r="I77" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J77" s="11" t="str">
@@ -3599,20 +3821,23 @@
       <c r="C78" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D78" s="22"/>
+      <c r="D78" s="22" t="e">
+        <f>VLOOKUP(E77,Product!A$58:B77,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="30">
+      <c r="F78" s="29">
         <v>100</v>
       </c>
-      <c r="G78" s="33">
+      <c r="G78" s="32">
         <v>750000</v>
       </c>
-      <c r="H78" s="36">
+      <c r="H78" s="35">
         <v>0.11467217994326902</v>
       </c>
-      <c r="I78" s="26" t="str">
+      <c r="I78" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J78" s="11" t="str">
@@ -3629,20 +3854,23 @@
       <c r="C79" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D79" s="22"/>
+      <c r="D79" s="22" t="e">
+        <f>VLOOKUP(E78,Product!A$58:B78,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F79" s="30">
+      <c r="F79" s="29">
         <v>150</v>
       </c>
-      <c r="G79" s="33">
+      <c r="G79" s="32">
         <v>576000</v>
       </c>
-      <c r="H79" s="36">
+      <c r="H79" s="35">
         <v>9.1081896176469723E-2</v>
       </c>
-      <c r="I79" s="26" t="str">
+      <c r="I79" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J79" s="11" t="str">
@@ -3659,20 +3887,23 @@
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="22"/>
+      <c r="D80" s="22" t="str">
+        <f>VLOOKUP(E79,Product!A$58:B79,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="30">
+      <c r="F80" s="29">
         <v>500</v>
       </c>
-      <c r="G80" s="33">
+      <c r="G80" s="32">
         <v>1000000</v>
       </c>
-      <c r="H80" s="36">
+      <c r="H80" s="35">
         <v>0.11467217994326902</v>
       </c>
-      <c r="I80" s="26" t="str">
+      <c r="I80" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J80" s="11" t="str">
@@ -3689,20 +3920,23 @@
       <c r="C81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="22"/>
+      <c r="D81" s="22" t="e">
+        <f>VLOOKUP(E80,Product!A$58:B80,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="30">
+      <c r="F81" s="29">
         <v>6000</v>
       </c>
-      <c r="G81" s="33">
+      <c r="G81" s="32">
         <v>520000</v>
       </c>
-      <c r="H81" s="36">
+      <c r="H81" s="35">
         <v>0.1384022644007144</v>
       </c>
-      <c r="I81" s="26" t="str">
+      <c r="I81" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J81" s="11" t="str">
@@ -3719,20 +3953,23 @@
       <c r="C82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="22"/>
+      <c r="D82" s="22" t="e">
+        <f>VLOOKUP(E81,Product!A$58:B81,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E82" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F82" s="30">
+      <c r="F82" s="29">
         <v>1000</v>
       </c>
-      <c r="G82" s="33">
+      <c r="G82" s="32">
         <v>600000</v>
       </c>
-      <c r="H82" s="36">
+      <c r="H82" s="35">
         <v>0.472888229864947</v>
       </c>
-      <c r="I82" s="26" t="str">
+      <c r="I82" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J82" s="11" t="str">
@@ -3749,20 +3986,23 @@
       <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="22"/>
+      <c r="D83" s="22" t="e">
+        <f>VLOOKUP(E82,Product!A$58:B82,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="30">
+      <c r="F83" s="29">
         <v>150</v>
       </c>
-      <c r="G83" s="33">
+      <c r="G83" s="32">
         <v>234000</v>
       </c>
-      <c r="H83" s="36">
+      <c r="H83" s="35">
         <v>0.44217288352941109</v>
       </c>
-      <c r="I83" s="26" t="str">
+      <c r="I83" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J83" s="11" t="str">
@@ -3779,20 +4019,23 @@
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="22"/>
+      <c r="D84" s="22" t="str">
+        <f>VLOOKUP(E83,Product!A$58:B83,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F84" s="30">
+      <c r="F84" s="29">
         <v>2</v>
       </c>
-      <c r="G84" s="33">
+      <c r="G84" s="32">
         <v>1176000</v>
       </c>
-      <c r="H84" s="36">
+      <c r="H84" s="35">
         <v>0.36500913147659481</v>
       </c>
-      <c r="I84" s="26" t="str">
+      <c r="I84" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J84" s="11" t="str">
@@ -3809,20 +4052,23 @@
       <c r="C85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="22"/>
+      <c r="D85" s="22" t="str">
+        <f>VLOOKUP(E84,Product!A$58:B84,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="30">
+      <c r="F85" s="29">
         <v>4</v>
       </c>
-      <c r="G85" s="33">
+      <c r="G85" s="32">
         <v>424000</v>
       </c>
-      <c r="H85" s="36">
+      <c r="H85" s="35">
         <v>0.27666875120976947</v>
       </c>
-      <c r="I85" s="26" t="str">
+      <c r="I85" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J85" s="11" t="str">
@@ -3839,20 +4085,23 @@
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="22"/>
+      <c r="D86" s="22" t="str">
+        <f>VLOOKUP(E85,Product!A$58:B85,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F86" s="30">
+      <c r="F86" s="29">
         <v>100</v>
       </c>
-      <c r="G86" s="33">
+      <c r="G86" s="32">
         <v>980000</v>
       </c>
-      <c r="H86" s="36">
+      <c r="H86" s="35">
         <v>0.13989639010409899</v>
       </c>
-      <c r="I86" s="26" t="str">
+      <c r="I86" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J86" s="11" t="str">
@@ -3869,20 +4118,23 @@
       <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="22"/>
+      <c r="D87" s="22" t="str">
+        <f>VLOOKUP(E86,Product!A$58:B86,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F87" s="30">
+      <c r="F87" s="29">
         <v>120</v>
       </c>
-      <c r="G87" s="33">
+      <c r="G87" s="32">
         <v>290000</v>
       </c>
-      <c r="H87" s="36">
+      <c r="H87" s="35">
         <v>0.33392505029188602</v>
       </c>
-      <c r="I87" s="26" t="str">
+      <c r="I87" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J87" s="11" t="str">
@@ -3899,20 +4151,23 @@
       <c r="C88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="22"/>
+      <c r="D88" s="22" t="e">
+        <f>VLOOKUP(E87,Product!A$58:B87,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E88" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="30">
+      <c r="F88" s="29">
         <v>144</v>
       </c>
-      <c r="G88" s="33">
+      <c r="G88" s="32">
         <v>630000</v>
       </c>
-      <c r="H88" s="36">
+      <c r="H88" s="35">
         <v>9.8116217688028015E-2</v>
       </c>
-      <c r="I88" s="26" t="str">
+      <c r="I88" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J88" s="11" t="str">
@@ -3929,20 +4184,23 @@
       <c r="C89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="22"/>
+      <c r="D89" s="22" t="str">
+        <f>VLOOKUP(E88,Product!A$58:B88,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E89" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F89" s="30">
+      <c r="F89" s="29">
         <v>120</v>
       </c>
-      <c r="G89" s="33">
+      <c r="G89" s="32">
         <v>425000</v>
       </c>
-      <c r="H89" s="36">
+      <c r="H89" s="35">
         <v>9.6561361100882703E-2</v>
       </c>
-      <c r="I89" s="26" t="str">
+      <c r="I89" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J89" s="11" t="str">
@@ -3959,20 +4217,23 @@
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="22"/>
+      <c r="D90" s="22" t="str">
+        <f>VLOOKUP(E89,Product!A$58:B89,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E90" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F90" s="30">
+      <c r="F90" s="29">
         <v>200</v>
       </c>
-      <c r="G90" s="33">
+      <c r="G90" s="32">
         <v>425000</v>
       </c>
-      <c r="H90" s="36">
+      <c r="H90" s="35">
         <v>0.14120484733789834</v>
       </c>
-      <c r="I90" s="26" t="str">
+      <c r="I90" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J90" s="11" t="str">
@@ -3989,20 +4250,23 @@
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="22"/>
+      <c r="D91" s="22" t="str">
+        <f>VLOOKUP(E90,Product!A$58:B90,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F91" s="30">
+      <c r="F91" s="29">
         <v>60</v>
       </c>
-      <c r="G91" s="33">
+      <c r="G91" s="32">
         <v>576000</v>
       </c>
-      <c r="H91" s="36">
+      <c r="H91" s="35">
         <v>9.1081896176469723E-2</v>
       </c>
-      <c r="I91" s="26" t="str">
+      <c r="I91" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J91" s="11" t="str">
@@ -4019,20 +4283,23 @@
       <c r="C92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="22"/>
+      <c r="D92" s="22" t="str">
+        <f>VLOOKUP(E91,Product!A$58:B91,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E92" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F92" s="30">
+      <c r="F92" s="29">
         <v>72</v>
       </c>
-      <c r="G92" s="33">
+      <c r="G92" s="32">
         <v>252000</v>
       </c>
-      <c r="H92" s="36">
+      <c r="H92" s="35">
         <v>1.1153639137107161E-2</v>
       </c>
-      <c r="I92" s="26" t="str">
+      <c r="I92" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J92" s="11" t="str">
@@ -4049,20 +4316,23 @@
       <c r="C93" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D93" s="22"/>
+      <c r="D93" s="22" t="e">
+        <f>VLOOKUP(E92,Product!A$58:B92,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E93" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F93" s="30">
+      <c r="F93" s="29">
         <v>2</v>
       </c>
-      <c r="G93" s="33">
+      <c r="G93" s="32">
         <v>45000</v>
       </c>
-      <c r="H93" s="36">
+      <c r="H93" s="35">
         <v>0.34844453449590967</v>
       </c>
-      <c r="I93" s="26" t="str">
+      <c r="I93" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J93" s="11" t="str">
@@ -4079,20 +4349,23 @@
       <c r="C94" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D94" s="22"/>
+      <c r="D94" s="22" t="e">
+        <f>VLOOKUP(E93,Product!A$58:B93,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E94" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="30">
+      <c r="F94" s="29">
         <v>160</v>
       </c>
-      <c r="G94" s="33">
+      <c r="G94" s="32">
         <v>42000</v>
       </c>
-      <c r="H94" s="36">
+      <c r="H94" s="35">
         <v>0.36311294451137294</v>
       </c>
-      <c r="I94" s="26" t="str">
+      <c r="I94" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J94" s="11" t="str">
@@ -4109,20 +4382,23 @@
       <c r="C95" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D95" s="22"/>
+      <c r="D95" s="22" t="e">
+        <f>VLOOKUP(E94,Product!A$58:B94,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E95" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F95" s="30">
+      <c r="F95" s="29">
         <v>40</v>
       </c>
-      <c r="G95" s="33">
+      <c r="G95" s="32">
         <v>29000</v>
       </c>
-      <c r="H95" s="36">
+      <c r="H95" s="35">
         <v>0.28232640674482457</v>
       </c>
-      <c r="I95" s="26" t="str">
+      <c r="I95" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J95" s="11" t="str">
@@ -4139,20 +4415,23 @@
       <c r="C96" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D96" s="22"/>
+      <c r="D96" s="22" t="e">
+        <f>VLOOKUP(E95,Product!A$58:B95,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E96" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F96" s="30">
+      <c r="F96" s="29">
         <v>32</v>
       </c>
-      <c r="G96" s="33">
+      <c r="G96" s="32">
         <v>10500</v>
       </c>
-      <c r="H96" s="36">
+      <c r="H96" s="35">
         <v>0.23795193292436662</v>
       </c>
-      <c r="I96" s="26" t="str">
+      <c r="I96" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J96" s="11" t="str">
@@ -4169,20 +4448,23 @@
       <c r="C97" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D97" s="22"/>
+      <c r="D97" s="22" t="str">
+        <f>VLOOKUP(E96,Product!A$58:B96,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E97" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F97" s="30">
+      <c r="F97" s="29">
         <v>45</v>
       </c>
-      <c r="G97" s="33">
+      <c r="G97" s="32">
         <v>9900</v>
       </c>
-      <c r="H97" s="36">
+      <c r="H97" s="35">
         <v>0.49975239106417202</v>
       </c>
-      <c r="I97" s="26" t="str">
+      <c r="I97" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J97" s="11" t="str">
@@ -4199,20 +4481,23 @@
       <c r="C98" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="22"/>
+      <c r="D98" s="22" t="str">
+        <f>VLOOKUP(E97,Product!A$58:B97,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="30">
+      <c r="F98" s="29">
         <v>40</v>
       </c>
-      <c r="G98" s="33">
+      <c r="G98" s="32">
         <v>6300</v>
       </c>
-      <c r="H98" s="36">
+      <c r="H98" s="35">
         <v>0.39506041046585572</v>
       </c>
-      <c r="I98" s="26" t="str">
+      <c r="I98" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J98" s="11" t="str">
@@ -4229,20 +4514,23 @@
       <c r="C99" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="22"/>
+      <c r="D99" s="22" t="str">
+        <f>VLOOKUP(E98,Product!A$58:B98,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E99" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="30">
+      <c r="F99" s="29">
         <v>100</v>
       </c>
-      <c r="G99" s="33">
+      <c r="G99" s="32">
         <v>8500</v>
       </c>
-      <c r="H99" s="36">
+      <c r="H99" s="35">
         <v>0.35772731715955736</v>
       </c>
-      <c r="I99" s="26" t="str">
+      <c r="I99" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J99" s="11" t="str">
@@ -4259,20 +4547,23 @@
       <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D100" s="22"/>
+      <c r="D100" s="22" t="e">
+        <f>VLOOKUP(E99,Product!A$58:B99,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F100" s="30">
+      <c r="F100" s="29">
         <v>36</v>
       </c>
-      <c r="G100" s="33">
+      <c r="G100" s="32">
         <v>9000</v>
       </c>
-      <c r="H100" s="36">
+      <c r="H100" s="35">
         <v>0.41254547307588563</v>
       </c>
-      <c r="I100" s="26" t="str">
+      <c r="I100" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J100" s="11" t="str">
@@ -4289,20 +4580,23 @@
       <c r="C101" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D101" s="22"/>
+      <c r="D101" s="22" t="e">
+        <f>VLOOKUP(E100,Product!A$58:B100,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E101" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F101" s="30">
+      <c r="F101" s="29">
         <v>25</v>
       </c>
-      <c r="G101" s="33">
+      <c r="G101" s="32">
         <v>11000</v>
       </c>
-      <c r="H101" s="36">
+      <c r="H101" s="35">
         <v>0.39933568736947805</v>
       </c>
-      <c r="I101" s="26" t="str">
+      <c r="I101" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J101" s="11" t="str">
@@ -4319,20 +4613,23 @@
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="22"/>
+      <c r="D102" s="22" t="str">
+        <f>VLOOKUP(E101,Product!A$58:B101,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E102" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F102" s="30">
+      <c r="F102" s="29">
         <v>10</v>
       </c>
-      <c r="G102" s="33">
+      <c r="G102" s="32">
         <v>56000</v>
       </c>
-      <c r="H102" s="36">
+      <c r="H102" s="35">
         <v>4.9173899822269732E-2</v>
       </c>
-      <c r="I102" s="26" t="str">
+      <c r="I102" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J102" s="11" t="str">
@@ -4349,20 +4646,23 @@
       <c r="C103" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D103" s="22"/>
+      <c r="D103" s="22" t="e">
+        <f>VLOOKUP(E102,Product!A$58:B102,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E103" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F103" s="30">
+      <c r="F103" s="29">
         <v>5</v>
       </c>
-      <c r="G103" s="33">
+      <c r="G103" s="32">
         <v>36000</v>
       </c>
-      <c r="H103" s="36">
+      <c r="H103" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I103" s="26" t="str">
+      <c r="I103" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J103" s="11" t="str">
@@ -4379,20 +4679,23 @@
       <c r="C104" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D104" s="22"/>
+      <c r="D104" s="22" t="str">
+        <f>VLOOKUP(E103,Product!A$58:B103,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E104" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F104" s="30">
+      <c r="F104" s="29">
         <v>5</v>
       </c>
-      <c r="G104" s="33">
+      <c r="G104" s="32">
         <v>2080000</v>
       </c>
-      <c r="H104" s="36">
+      <c r="H104" s="35">
         <v>0.1384022644007144</v>
       </c>
-      <c r="I104" s="26" t="str">
+      <c r="I104" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J104" s="11" t="str">
@@ -4409,20 +4712,23 @@
       <c r="C105" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D105" s="22"/>
+      <c r="D105" s="22" t="e">
+        <f>VLOOKUP(E104,Product!A$58:B104,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="30">
+      <c r="F105" s="29">
         <v>10</v>
       </c>
-      <c r="G105" s="33">
+      <c r="G105" s="32">
         <v>2000000</v>
       </c>
-      <c r="H105" s="36">
+      <c r="H105" s="35">
         <v>0.11467217994326902</v>
       </c>
-      <c r="I105" s="26" t="str">
+      <c r="I105" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J105" s="11" t="str">
@@ -4439,20 +4745,23 @@
       <c r="C106" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D106" s="22"/>
+      <c r="D106" s="22" t="e">
+        <f>VLOOKUP(E105,Product!A$58:B105,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E106" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F106" s="30">
+      <c r="F106" s="29">
         <v>5</v>
       </c>
-      <c r="G106" s="33">
+      <c r="G106" s="32">
         <v>120000</v>
       </c>
-      <c r="H106" s="36">
+      <c r="H106" s="35">
         <v>0.472888229864947</v>
       </c>
-      <c r="I106" s="26" t="str">
+      <c r="I106" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J106" s="11" t="str">
@@ -4469,20 +4778,23 @@
       <c r="C107" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D107" s="22"/>
+      <c r="D107" s="22" t="e">
+        <f>VLOOKUP(E106,Product!A$58:B106,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E107" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F107" s="30">
+      <c r="F107" s="29">
         <v>5</v>
       </c>
-      <c r="G107" s="33">
+      <c r="G107" s="32">
         <v>580000</v>
       </c>
-      <c r="H107" s="36">
+      <c r="H107" s="35">
         <v>0.33392505029188602</v>
       </c>
-      <c r="I107" s="26" t="str">
+      <c r="I107" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J107" s="11" t="str">
@@ -4499,20 +4811,23 @@
       <c r="C108" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="22"/>
+      <c r="D108" s="22" t="e">
+        <f>VLOOKUP(E107,Product!A$58:B107,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="30">
+      <c r="F108" s="29">
         <v>10</v>
       </c>
-      <c r="G108" s="33">
+      <c r="G108" s="32">
         <v>825000</v>
       </c>
-      <c r="H108" s="36">
+      <c r="H108" s="35">
         <v>2.0073333581864691E-2</v>
       </c>
-      <c r="I108" s="26" t="str">
+      <c r="I108" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J108" s="11" t="str">
@@ -4529,20 +4844,23 @@
       <c r="C109" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="22"/>
+      <c r="D109" s="22" t="e">
+        <f>VLOOKUP(E108,Product!A$58:B108,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E109" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F109" s="30">
+      <c r="F109" s="29">
         <v>10</v>
       </c>
-      <c r="G109" s="33">
+      <c r="G109" s="32">
         <v>1152000</v>
       </c>
-      <c r="H109" s="36">
+      <c r="H109" s="35">
         <v>9.1081896176469723E-2</v>
       </c>
-      <c r="I109" s="26" t="str">
+      <c r="I109" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J109" s="11" t="str">
@@ -4559,20 +4877,23 @@
       <c r="C110" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D110" s="22"/>
+      <c r="D110" s="22" t="str">
+        <f>VLOOKUP(E109,Product!A$58:B109,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F110" s="30">
+      <c r="F110" s="29">
         <v>10</v>
       </c>
-      <c r="G110" s="33">
+      <c r="G110" s="32">
         <v>980000</v>
       </c>
-      <c r="H110" s="36">
+      <c r="H110" s="35">
         <v>0.13989639010409899</v>
       </c>
-      <c r="I110" s="26" t="str">
+      <c r="I110" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J110" s="11" t="str">
@@ -4589,20 +4910,23 @@
       <c r="C111" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D111" s="22"/>
+      <c r="D111" s="22" t="str">
+        <f>VLOOKUP(E110,Product!A$58:B110,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F111" s="30">
+      <c r="F111" s="29">
         <v>2</v>
       </c>
-      <c r="G111" s="33">
+      <c r="G111" s="32">
         <v>588000</v>
       </c>
-      <c r="H111" s="36">
+      <c r="H111" s="35">
         <v>0.36500913147659481</v>
       </c>
-      <c r="I111" s="26" t="str">
+      <c r="I111" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J111" s="11" t="str">
@@ -4619,20 +4943,23 @@
       <c r="C112" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D112" s="22"/>
+      <c r="D112" s="22" t="str">
+        <f>VLOOKUP(E111,Product!A$58:B111,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E112" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F112" s="30">
+      <c r="F112" s="29">
         <v>2</v>
       </c>
-      <c r="G112" s="33">
+      <c r="G112" s="32">
         <v>850000</v>
       </c>
-      <c r="H112" s="36">
+      <c r="H112" s="35">
         <v>0.14120484733789834</v>
       </c>
-      <c r="I112" s="26" t="str">
+      <c r="I112" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J112" s="11" t="str">
@@ -4649,20 +4976,23 @@
       <c r="C113" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D113" s="22"/>
+      <c r="D113" s="22" t="str">
+        <f>VLOOKUP(E112,Product!A$58:B112,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E113" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F113" s="30">
+      <c r="F113" s="29">
         <v>2</v>
       </c>
-      <c r="G113" s="33">
+      <c r="G113" s="32">
         <v>850000</v>
       </c>
-      <c r="H113" s="36">
+      <c r="H113" s="35">
         <v>9.6561361100882703E-2</v>
       </c>
-      <c r="I113" s="26" t="str">
+      <c r="I113" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J113" s="11" t="str">
@@ -4679,20 +5009,23 @@
       <c r="C114" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D114" s="22"/>
+      <c r="D114" s="22" t="str">
+        <f>VLOOKUP(E113,Product!A$58:B113,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E114" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F114" s="30">
+      <c r="F114" s="29">
         <v>2</v>
       </c>
-      <c r="G114" s="33">
+      <c r="G114" s="32">
         <v>3780000</v>
       </c>
-      <c r="H114" s="36">
+      <c r="H114" s="35">
         <v>9.8116217688027946E-2</v>
       </c>
-      <c r="I114" s="26" t="str">
+      <c r="I114" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J114" s="11" t="str">
@@ -4709,20 +5042,23 @@
       <c r="C115" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D115" s="22"/>
+      <c r="D115" s="22" t="str">
+        <f>VLOOKUP(E114,Product!A$58:B114,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F115" s="30">
+      <c r="F115" s="29">
         <v>2</v>
       </c>
-      <c r="G115" s="33">
+      <c r="G115" s="32">
         <v>900000</v>
       </c>
-      <c r="H115" s="36">
+      <c r="H115" s="35">
         <v>0.19742429278083154</v>
       </c>
-      <c r="I115" s="26" t="str">
+      <c r="I115" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J115" s="11" t="str">
@@ -4739,20 +5075,23 @@
       <c r="C116" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D116" s="22"/>
+      <c r="D116" s="22" t="e">
+        <f>VLOOKUP(E115,Product!A$58:B115,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E116" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F116" s="30">
+      <c r="F116" s="29">
         <v>2</v>
       </c>
-      <c r="G116" s="33">
+      <c r="G116" s="32">
         <v>234000</v>
       </c>
-      <c r="H116" s="36">
+      <c r="H116" s="35">
         <v>0.44217288352941109</v>
       </c>
-      <c r="I116" s="26" t="str">
+      <c r="I116" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J116" s="11" t="str">
@@ -4769,20 +5108,23 @@
       <c r="C117" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D117" s="22"/>
+      <c r="D117" s="22" t="str">
+        <f>VLOOKUP(E116,Product!A$58:B116,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E117" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F117" s="30">
+      <c r="F117" s="29">
         <v>2</v>
       </c>
-      <c r="G117" s="33">
+      <c r="G117" s="32">
         <v>720000</v>
       </c>
-      <c r="H117" s="36">
+      <c r="H117" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I117" s="26" t="str">
+      <c r="I117" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J117" s="11" t="str">
@@ -4799,20 +5141,23 @@
       <c r="C118" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D118" s="22"/>
+      <c r="D118" s="22" t="str">
+        <f>VLOOKUP(E117,Product!A$58:B117,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E118" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F118" s="30">
+      <c r="F118" s="29">
         <v>10</v>
       </c>
-      <c r="G118" s="33">
+      <c r="G118" s="32">
         <v>848000</v>
       </c>
-      <c r="H118" s="36">
+      <c r="H118" s="35">
         <v>0.27666875120976947</v>
       </c>
-      <c r="I118" s="26" t="str">
+      <c r="I118" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J118" s="11" t="str">
@@ -4829,20 +5174,23 @@
       <c r="C119" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D119" s="22"/>
+      <c r="D119" s="22" t="str">
+        <f>VLOOKUP(E118,Product!A$58:B118,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E119" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F119" s="30">
+      <c r="F119" s="29">
         <v>10</v>
       </c>
-      <c r="G119" s="33">
+      <c r="G119" s="32">
         <v>9000</v>
       </c>
-      <c r="H119" s="36">
+      <c r="H119" s="35">
         <v>0.24586033776323771</v>
       </c>
-      <c r="I119" s="26" t="str">
+      <c r="I119" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J119" s="11" t="str">
@@ -4859,20 +5207,23 @@
       <c r="C120" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D120" s="22"/>
+      <c r="D120" s="22" t="e">
+        <f>VLOOKUP(E119,Product!A$58:B119,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F120" s="30">
+      <c r="F120" s="29">
         <v>10</v>
       </c>
-      <c r="G120" s="33">
+      <c r="G120" s="32">
         <v>151200</v>
       </c>
-      <c r="H120" s="36">
+      <c r="H120" s="35">
         <v>1.1153639137107201E-2</v>
       </c>
-      <c r="I120" s="26" t="str">
+      <c r="I120" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J120" s="11" t="str">
@@ -4889,20 +5240,23 @@
       <c r="C121" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D121" s="22"/>
+      <c r="D121" s="22" t="e">
+        <f>VLOOKUP(E120,Product!A$58:B120,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E121" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F121" s="30">
+      <c r="F121" s="29">
         <v>20</v>
       </c>
-      <c r="G121" s="33">
+      <c r="G121" s="32">
         <v>16000</v>
       </c>
-      <c r="H121" s="36">
+      <c r="H121" s="35">
         <v>0.54083271549838796</v>
       </c>
-      <c r="I121" s="26" t="str">
+      <c r="I121" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J121" s="11" t="str">
@@ -4919,20 +5273,23 @@
       <c r="C122" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D122" s="22"/>
+      <c r="D122" s="22" t="e">
+        <f>VLOOKUP(E121,Product!A$58:B121,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F122" s="30">
+      <c r="F122" s="29">
         <v>10</v>
       </c>
-      <c r="G122" s="33">
+      <c r="G122" s="32">
         <v>18000</v>
       </c>
-      <c r="H122" s="36">
+      <c r="H122" s="35">
         <v>0.41254547307588563</v>
       </c>
-      <c r="I122" s="26" t="str">
+      <c r="I122" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J122" s="11" t="str">
@@ -4949,20 +5306,23 @@
       <c r="C123" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D123" s="22"/>
+      <c r="D123" s="22" t="e">
+        <f>VLOOKUP(E122,Product!A$58:B122,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F123" s="30">
+      <c r="F123" s="29">
         <v>20</v>
       </c>
-      <c r="G123" s="33">
+      <c r="G123" s="32">
         <v>16000</v>
       </c>
-      <c r="H123" s="36">
+      <c r="H123" s="35">
         <v>0.46210213954412144</v>
       </c>
-      <c r="I123" s="26" t="str">
+      <c r="I123" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J123" s="11" t="str">
@@ -4979,20 +5339,23 @@
       <c r="C124" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D124" s="22"/>
+      <c r="D124" s="22" t="str">
+        <f>VLOOKUP(E123,Product!A$58:B123,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E124" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F124" s="30">
+      <c r="F124" s="29">
         <v>3</v>
       </c>
-      <c r="G124" s="33">
+      <c r="G124" s="32">
         <v>11500</v>
       </c>
-      <c r="H124" s="36">
+      <c r="H124" s="35">
         <v>0.36619937524296603</v>
       </c>
-      <c r="I124" s="26" t="str">
+      <c r="I124" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J124" s="11" t="str">
@@ -5009,20 +5372,23 @@
       <c r="C125" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D125" s="22"/>
+      <c r="D125" s="22" t="str">
+        <f>VLOOKUP(E124,Product!A$58:B124,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E125" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F125" s="30">
+      <c r="F125" s="29">
         <v>3</v>
       </c>
-      <c r="G125" s="33">
+      <c r="G125" s="32">
         <v>19800</v>
       </c>
-      <c r="H125" s="36">
+      <c r="H125" s="35">
         <v>0.33163947812485262</v>
       </c>
-      <c r="I125" s="26" t="str">
+      <c r="I125" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J125" s="11" t="str">
@@ -5039,20 +5405,23 @@
       <c r="C126" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D126" s="22"/>
+      <c r="D126" s="22" t="e">
+        <f>VLOOKUP(E125,Product!A$58:B125,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E126" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F126" s="30">
+      <c r="F126" s="29">
         <v>10</v>
       </c>
-      <c r="G126" s="33">
+      <c r="G126" s="32">
         <v>39200</v>
       </c>
-      <c r="H126" s="36">
+      <c r="H126" s="35">
         <v>0.34229608547933438</v>
       </c>
-      <c r="I126" s="26" t="str">
+      <c r="I126" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J126" s="11" t="str">
@@ -5069,20 +5438,23 @@
       <c r="C127" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D127" s="22"/>
+      <c r="D127" s="22" t="e">
+        <f>VLOOKUP(E126,Product!A$58:B126,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E127" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F127" s="30">
+      <c r="F127" s="29">
         <v>4</v>
       </c>
-      <c r="G127" s="33">
+      <c r="G127" s="32">
         <v>52600</v>
       </c>
-      <c r="H127" s="36">
+      <c r="H127" s="35">
         <v>0.37950781915695914</v>
       </c>
-      <c r="I127" s="26" t="str">
+      <c r="I127" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J127" s="11" t="str">
@@ -5099,20 +5471,23 @@
       <c r="C128" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D128" s="22"/>
+      <c r="D128" s="22" t="e">
+        <f>VLOOKUP(E127,Product!A$58:B127,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E128" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F128" s="30">
+      <c r="F128" s="29">
         <v>4</v>
       </c>
-      <c r="G128" s="33">
+      <c r="G128" s="32">
         <v>29000</v>
       </c>
-      <c r="H128" s="36">
+      <c r="H128" s="35">
         <v>0.28232640674482457</v>
       </c>
-      <c r="I128" s="26" t="str">
+      <c r="I128" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J128" s="11" t="str">
@@ -5129,20 +5504,23 @@
       <c r="C129" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D129" s="22"/>
+      <c r="D129" s="22" t="e">
+        <f>VLOOKUP(E128,Product!A$58:B128,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E129" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F129" s="30">
+      <c r="F129" s="29">
         <v>20</v>
       </c>
-      <c r="G129" s="33">
+      <c r="G129" s="32">
         <v>38000</v>
       </c>
-      <c r="H129" s="36">
+      <c r="H129" s="35">
         <v>0.27977249050421493</v>
       </c>
-      <c r="I129" s="26" t="str">
+      <c r="I129" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J129" s="11" t="str">
@@ -5159,20 +5537,23 @@
       <c r="C130" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D130" s="22"/>
+      <c r="D130" s="22" t="e">
+        <f>VLOOKUP(E129,Product!A$58:B129,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E130" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F130" s="30">
+      <c r="F130" s="29">
         <v>10</v>
       </c>
-      <c r="G130" s="33">
+      <c r="G130" s="32">
         <v>17500</v>
       </c>
-      <c r="H130" s="36">
+      <c r="H130" s="35">
         <v>0.42944196635175552</v>
       </c>
-      <c r="I130" s="26" t="str">
+      <c r="I130" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J130" s="11" t="str">
@@ -5189,20 +5570,23 @@
       <c r="C131" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D131" s="22"/>
+      <c r="D131" s="22" t="str">
+        <f>VLOOKUP(E130,Product!A$58:B130,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E131" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F131" s="30">
+      <c r="F131" s="29">
         <v>10</v>
       </c>
-      <c r="G131" s="33">
+      <c r="G131" s="32">
         <v>21000</v>
       </c>
-      <c r="H131" s="36">
+      <c r="H131" s="35">
         <v>0.45829327743697235</v>
       </c>
-      <c r="I131" s="26" t="str">
+      <c r="I131" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J131" s="11" t="str">
@@ -5219,20 +5603,23 @@
       <c r="C132" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D132" s="22"/>
+      <c r="D132" s="22" t="str">
+        <f>VLOOKUP(E131,Product!A$58:B131,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E132" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F132" s="30">
+      <c r="F132" s="29">
         <v>3</v>
       </c>
-      <c r="G132" s="33">
+      <c r="G132" s="32">
         <v>25500</v>
       </c>
-      <c r="H132" s="36">
+      <c r="H132" s="35">
         <v>0.89352031140121035</v>
       </c>
-      <c r="I132" s="26" t="str">
+      <c r="I132" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J132" s="11" t="str">
@@ -5249,20 +5636,23 @@
       <c r="C133" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D133" s="22"/>
+      <c r="D133" s="22" t="str">
+        <f>VLOOKUP(E132,Product!A$58:B132,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E133" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F133" s="30">
+      <c r="F133" s="29">
         <v>3</v>
       </c>
-      <c r="G133" s="33">
+      <c r="G133" s="32">
         <v>26500</v>
       </c>
-      <c r="H133" s="36">
+      <c r="H133" s="35">
         <v>0.88989110846287256</v>
       </c>
-      <c r="I133" s="26" t="str">
+      <c r="I133" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J133" s="11" t="str">
@@ -5279,20 +5669,23 @@
       <c r="C134" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D134" s="22"/>
+      <c r="D134" s="22" t="str">
+        <f>VLOOKUP(E133,Product!A$58:B133,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E134" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F134" s="30">
+      <c r="F134" s="29">
         <v>2</v>
       </c>
-      <c r="G134" s="33">
+      <c r="G134" s="32">
         <v>528000</v>
       </c>
-      <c r="H134" s="36">
+      <c r="H134" s="35">
         <v>0.32464571575562162</v>
       </c>
-      <c r="I134" s="26" t="str">
+      <c r="I134" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J134" s="11" t="str">
@@ -5309,20 +5702,23 @@
       <c r="C135" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D135" s="22"/>
+      <c r="D135" s="22" t="e">
+        <f>VLOOKUP(E134,Product!A$58:B134,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F135" s="30">
+      <c r="F135" s="29">
         <v>2</v>
       </c>
-      <c r="G135" s="33">
+      <c r="G135" s="32">
         <v>562500</v>
       </c>
-      <c r="H135" s="36">
+      <c r="H135" s="35">
         <v>0.1546907386164755</v>
       </c>
-      <c r="I135" s="26" t="str">
+      <c r="I135" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J135" s="11" t="str">
@@ -5339,20 +5735,23 @@
       <c r="C136" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D136" s="22"/>
+      <c r="D136" s="22" t="str">
+        <f>VLOOKUP(E135,Product!A$58:B135,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E136" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F136" s="30">
+      <c r="F136" s="29">
         <v>3</v>
       </c>
-      <c r="G136" s="33">
+      <c r="G136" s="32">
         <v>561600</v>
       </c>
-      <c r="H136" s="36">
+      <c r="H136" s="35">
         <v>7.5781575340082327E-2</v>
       </c>
-      <c r="I136" s="26" t="str">
+      <c r="I136" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J136" s="11" t="str">
@@ -5369,20 +5768,23 @@
       <c r="C137" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D137" s="22"/>
+      <c r="D137" s="22" t="str">
+        <f>VLOOKUP(E136,Product!A$58:B136,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E137" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F137" s="30">
+      <c r="F137" s="29">
         <v>3</v>
       </c>
-      <c r="G137" s="33">
+      <c r="G137" s="32">
         <v>486500</v>
       </c>
-      <c r="H137" s="36">
+      <c r="H137" s="35">
         <v>0.20540896939706901</v>
       </c>
-      <c r="I137" s="26" t="str">
+      <c r="I137" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J137" s="11" t="str">
@@ -5399,20 +5801,23 @@
       <c r="C138" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D138" s="22"/>
+      <c r="D138" s="22" t="e">
+        <f>VLOOKUP(E137,Product!A$58:B137,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F138" s="30">
+      <c r="F138" s="29">
         <v>20</v>
       </c>
-      <c r="G138" s="33">
+      <c r="G138" s="32">
         <v>42000</v>
       </c>
-      <c r="H138" s="36">
+      <c r="H138" s="35">
         <v>8.4701322526138892E-2</v>
       </c>
-      <c r="I138" s="26" t="str">
+      <c r="I138" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J138" s="11" t="str">
@@ -5429,20 +5834,23 @@
       <c r="C139" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D139" s="22"/>
+      <c r="D139" s="22" t="e">
+        <f>VLOOKUP(E138,Product!A$58:B138,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E139" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F139" s="30">
+      <c r="F139" s="29">
         <v>10</v>
       </c>
-      <c r="G139" s="33">
+      <c r="G139" s="32">
         <v>51600</v>
       </c>
-      <c r="H139" s="36">
+      <c r="H139" s="35">
         <v>0.21613902922354303</v>
       </c>
-      <c r="I139" s="26" t="str">
+      <c r="I139" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J139" s="11" t="str">
@@ -5459,20 +5867,23 @@
       <c r="C140" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D140" s="22"/>
+      <c r="D140" s="22" t="str">
+        <f>VLOOKUP(E139,Product!A$58:B139,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E140" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F140" s="30">
+      <c r="F140" s="29">
         <v>20</v>
       </c>
-      <c r="G140" s="33">
+      <c r="G140" s="32">
         <v>53200</v>
       </c>
-      <c r="H140" s="36">
+      <c r="H140" s="35">
         <v>0.13476501201767449</v>
       </c>
-      <c r="I140" s="26" t="str">
+      <c r="I140" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J140" s="11" t="str">
@@ -5489,20 +5900,23 @@
       <c r="C141" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D141" s="22"/>
+      <c r="D141" s="22" t="e">
+        <f>VLOOKUP(E140,Product!A$58:B140,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E141" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F141" s="30">
+      <c r="F141" s="29">
         <v>10</v>
       </c>
-      <c r="G141" s="33">
+      <c r="G141" s="32">
         <v>207000</v>
       </c>
-      <c r="H141" s="36">
+      <c r="H141" s="35">
         <v>0.18269257502396211</v>
       </c>
-      <c r="I141" s="26" t="str">
+      <c r="I141" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J141" s="11" t="str">
@@ -5519,20 +5933,23 @@
       <c r="C142" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D142" s="22"/>
+      <c r="D142" s="22" t="e">
+        <f>VLOOKUP(E141,Product!A$58:B141,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E142" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F142" s="30">
+      <c r="F142" s="29">
         <v>4</v>
       </c>
-      <c r="G142" s="33">
+      <c r="G142" s="32">
         <v>950000</v>
       </c>
-      <c r="H142" s="36">
+      <c r="H142" s="35">
         <v>0.12526326453462977</v>
       </c>
-      <c r="I142" s="26" t="str">
+      <c r="I142" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J142" s="11" t="str">
@@ -5549,20 +5966,23 @@
       <c r="C143" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D143" s="22"/>
+      <c r="D143" s="22" t="e">
+        <f>VLOOKUP(E142,Product!A$58:B142,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E143" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F143" s="30">
+      <c r="F143" s="29">
         <v>4</v>
       </c>
-      <c r="G143" s="33">
+      <c r="G143" s="32">
         <v>450000</v>
       </c>
-      <c r="H143" s="36">
+      <c r="H143" s="35">
         <v>0.19742429278083154</v>
       </c>
-      <c r="I143" s="26" t="str">
+      <c r="I143" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J143" s="11" t="str">
@@ -5579,20 +5999,23 @@
       <c r="C144" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D144" s="22"/>
+      <c r="D144" s="22" t="e">
+        <f>VLOOKUP(E143,Product!A$58:B143,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E144" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F144" s="30">
+      <c r="F144" s="29">
         <v>10</v>
       </c>
-      <c r="G144" s="33">
+      <c r="G144" s="32">
         <v>12814000</v>
       </c>
-      <c r="H144" s="36">
+      <c r="H144" s="35">
         <v>5.9147478106702484E-2</v>
       </c>
-      <c r="I144" s="26" t="str">
+      <c r="I144" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J144" s="11" t="str">
@@ -5609,20 +6032,23 @@
       <c r="C145" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D145" s="22"/>
+      <c r="D145" s="22" t="str">
+        <f>VLOOKUP(E144,Product!A$58:B144,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E145" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F145" s="30">
+      <c r="F145" s="29">
         <v>10</v>
       </c>
-      <c r="G145" s="33">
+      <c r="G145" s="32">
         <v>720000</v>
       </c>
-      <c r="H145" s="36">
+      <c r="H145" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I145" s="26" t="str">
+      <c r="I145" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J145" s="11" t="str">
@@ -5639,20 +6065,23 @@
       <c r="C146" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D146" s="22"/>
+      <c r="D146" s="22" t="str">
+        <f>VLOOKUP(E145,Product!A$58:B145,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E146" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F146" s="30">
+      <c r="F146" s="29">
         <v>10</v>
       </c>
-      <c r="G146" s="33">
+      <c r="G146" s="32">
         <v>467500</v>
       </c>
-      <c r="H146" s="36">
+      <c r="H146" s="35">
         <v>0.12932127452188713</v>
       </c>
-      <c r="I146" s="26" t="str">
+      <c r="I146" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J146" s="11" t="str">
@@ -5669,20 +6098,23 @@
       <c r="C147" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D147" s="22"/>
+      <c r="D147" s="22" t="e">
+        <f>VLOOKUP(E146,Product!A$58:B146,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E147" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F147" s="30">
+      <c r="F147" s="29">
         <v>4</v>
       </c>
-      <c r="G147" s="33">
+      <c r="G147" s="32">
         <v>2800000</v>
       </c>
-      <c r="H147" s="36">
+      <c r="H147" s="35">
         <v>4.9173899822269752E-2</v>
       </c>
-      <c r="I147" s="26" t="str">
+      <c r="I147" s="25" t="str">
         <v>18/01/2020</v>
       </c>
       <c r="J147" s="11" t="str">
@@ -5699,20 +6131,23 @@
       <c r="C148" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D148" s="22"/>
+      <c r="D148" s="22" t="e">
+        <f>VLOOKUP(E147,Product!A$58:B147,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E148" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F148" s="30">
+      <c r="F148" s="29">
         <v>2</v>
       </c>
-      <c r="G148" s="33">
+      <c r="G148" s="32">
         <v>100800</v>
       </c>
-      <c r="H148" s="36">
+      <c r="H148" s="35">
         <v>1.1153639137107096E-2</v>
       </c>
-      <c r="I148" s="26" t="str">
+      <c r="I148" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J148" s="11" t="str">
@@ -5729,20 +6164,23 @@
       <c r="C149" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D149" s="22"/>
+      <c r="D149" s="22" t="e">
+        <f>VLOOKUP(E148,Product!A$58:B148,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E149" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F149" s="30">
+      <c r="F149" s="29">
         <v>2</v>
       </c>
-      <c r="G149" s="33">
+      <c r="G149" s="32">
         <v>112000</v>
       </c>
-      <c r="H149" s="36">
+      <c r="H149" s="35">
         <v>0.23869782934156247</v>
       </c>
-      <c r="I149" s="26" t="str">
+      <c r="I149" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J149" s="11" t="str">
@@ -5759,20 +6197,23 @@
       <c r="C150" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D150" s="22"/>
+      <c r="D150" s="22" t="e">
+        <f>VLOOKUP(E149,Product!A$58:B149,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E150" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F150" s="30">
+      <c r="F150" s="29">
         <v>3</v>
       </c>
-      <c r="G150" s="33">
+      <c r="G150" s="32">
         <v>248000</v>
       </c>
-      <c r="H150" s="36">
+      <c r="H150" s="35">
         <v>0.30810708241242046</v>
       </c>
-      <c r="I150" s="26" t="str">
+      <c r="I150" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J150" s="11" t="str">
@@ -5789,20 +6230,23 @@
       <c r="C151" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D151" s="23"/>
+      <c r="D151" s="22" t="e">
+        <f>VLOOKUP(E150,Product!A$58:B150,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E151" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F151" s="30">
+      <c r="F151" s="29">
         <v>2</v>
       </c>
-      <c r="G151" s="33">
+      <c r="G151" s="32">
         <v>374500</v>
       </c>
-      <c r="H151" s="36">
+      <c r="H151" s="35">
         <v>5.3252328435402056E-2</v>
       </c>
-      <c r="I151" s="26" t="str">
+      <c r="I151" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J151" s="11" t="str">
@@ -5819,20 +6263,23 @@
       <c r="C152" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D152" s="23"/>
+      <c r="D152" s="22" t="str">
+        <f>VLOOKUP(E151,Product!A$58:B151,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E152" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F152" s="30">
+      <c r="F152" s="29">
         <v>6</v>
       </c>
-      <c r="G152" s="33">
+      <c r="G152" s="32">
         <v>550000</v>
       </c>
-      <c r="H152" s="36">
+      <c r="H152" s="35">
         <v>2.0073333581864923E-2</v>
       </c>
-      <c r="I152" s="26" t="str">
+      <c r="I152" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J152" s="11" t="str">
@@ -5849,20 +6296,23 @@
       <c r="C153" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D153" s="23"/>
+      <c r="D153" s="22" t="e">
+        <f>VLOOKUP(E152,Product!A$58:B152,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E153" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F153" s="30">
+      <c r="F153" s="29">
         <v>5</v>
       </c>
-      <c r="G153" s="33">
+      <c r="G153" s="32">
         <v>212500</v>
       </c>
-      <c r="H153" s="36">
+      <c r="H153" s="35">
         <v>9.6561361100882703E-2</v>
       </c>
-      <c r="I153" s="26" t="str">
+      <c r="I153" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J153" s="11" t="str">
@@ -5879,20 +6329,23 @@
       <c r="C154" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D154" s="23"/>
+      <c r="D154" s="22" t="str">
+        <f>VLOOKUP(E153,Product!A$58:B153,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E154" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F154" s="30">
+      <c r="F154" s="29">
         <v>5</v>
       </c>
-      <c r="G154" s="33">
+      <c r="G154" s="32">
         <v>850000</v>
       </c>
-      <c r="H154" s="36">
+      <c r="H154" s="35">
         <v>0.14120484733789834</v>
       </c>
-      <c r="I154" s="26" t="str">
+      <c r="I154" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J154" s="11" t="str">
@@ -5909,20 +6362,23 @@
       <c r="C155" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D155" s="22"/>
+      <c r="D155" s="22" t="str">
+        <f>VLOOKUP(E154,Product!A$58:B154,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E155" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F155" s="30">
+      <c r="F155" s="29">
         <v>5</v>
       </c>
-      <c r="G155" s="33">
+      <c r="G155" s="32">
         <v>21200</v>
       </c>
-      <c r="H155" s="36">
+      <c r="H155" s="35">
         <v>0.27415103896971532</v>
       </c>
-      <c r="I155" s="26" t="str">
+      <c r="I155" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J155" s="11" t="str">
@@ -5939,20 +6395,23 @@
       <c r="C156" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D156" s="22"/>
+      <c r="D156" s="22" t="e">
+        <f>VLOOKUP(E155,Product!A$58:B155,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E156" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F156" s="30">
+      <c r="F156" s="29">
         <v>5</v>
       </c>
-      <c r="G156" s="33">
+      <c r="G156" s="32">
         <v>49600</v>
       </c>
-      <c r="H156" s="36">
+      <c r="H156" s="35">
         <v>0.3081070824124203</v>
       </c>
-      <c r="I156" s="26" t="str">
+      <c r="I156" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J156" s="11" t="str">
@@ -5969,20 +6428,23 @@
       <c r="C157" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D157" s="22"/>
+      <c r="D157" s="22" t="e">
+        <f>VLOOKUP(E156,Product!A$58:B156,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E157" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F157" s="30">
+      <c r="F157" s="29">
         <v>5</v>
       </c>
-      <c r="G157" s="33">
+      <c r="G157" s="32">
         <v>47950</v>
       </c>
-      <c r="H157" s="36">
+      <c r="H157" s="35">
         <v>1.0736018377858744E-2</v>
       </c>
-      <c r="I157" s="26" t="str">
+      <c r="I157" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J157" s="11" t="str">
@@ -5999,20 +6461,23 @@
       <c r="C158" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D158" s="22"/>
+      <c r="D158" s="22" t="str">
+        <f>VLOOKUP(E157,Product!A$58:B157,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E158" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F158" s="30">
+      <c r="F158" s="29">
         <v>10</v>
       </c>
-      <c r="G158" s="33">
+      <c r="G158" s="32">
         <v>810000</v>
       </c>
-      <c r="H158" s="36">
+      <c r="H158" s="35">
         <v>0.16782941398822984</v>
       </c>
-      <c r="I158" s="26" t="str">
+      <c r="I158" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J158" s="11" t="str">
@@ -6029,20 +6494,23 @@
       <c r="C159" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D159" s="22"/>
+      <c r="D159" s="22" t="e">
+        <f>VLOOKUP(E158,Product!A$58:B158,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E159" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F159" s="30">
+      <c r="F159" s="29">
         <v>40</v>
       </c>
-      <c r="G159" s="33">
+      <c r="G159" s="32">
         <v>470000</v>
       </c>
-      <c r="H159" s="36">
+      <c r="H159" s="35">
         <v>0.19749035674127474</v>
       </c>
-      <c r="I159" s="26" t="str">
+      <c r="I159" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J159" s="11" t="str">
@@ -6059,20 +6527,23 @@
       <c r="C160" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D160" s="22"/>
+      <c r="D160" s="22" t="e">
+        <f>VLOOKUP(E159,Product!A$58:B159,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E160" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F160" s="30">
+      <c r="F160" s="29">
         <v>4000</v>
       </c>
-      <c r="G160" s="33">
+      <c r="G160" s="32">
         <v>330000</v>
       </c>
-      <c r="H160" s="36">
+      <c r="H160" s="35">
         <v>3.6689202105383512E-2</v>
       </c>
-      <c r="I160" s="26" t="str">
+      <c r="I160" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J160" s="11" t="str">
@@ -6089,20 +6560,23 @@
       <c r="C161" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D161" s="22"/>
+      <c r="D161" s="22" t="e">
+        <f>VLOOKUP(E160,Product!A$58:B160,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E161" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F161" s="30">
+      <c r="F161" s="29">
         <v>10</v>
       </c>
-      <c r="G161" s="33">
+      <c r="G161" s="32">
         <v>36000</v>
       </c>
-      <c r="H161" s="36">
+      <c r="H161" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I161" s="26" t="str">
+      <c r="I161" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J161" s="11" t="str">
@@ -6119,20 +6593,23 @@
       <c r="C162" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D162" s="22"/>
+      <c r="D162" s="22" t="str">
+        <f>VLOOKUP(E161,Product!A$58:B161,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E162" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F162" s="30">
+      <c r="F162" s="29">
         <v>10</v>
       </c>
-      <c r="G162" s="33">
+      <c r="G162" s="32">
         <v>255000</v>
       </c>
-      <c r="H162" s="36">
+      <c r="H162" s="35">
         <v>0.14120484733789854</v>
       </c>
-      <c r="I162" s="26" t="str">
+      <c r="I162" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J162" s="11" t="str">
@@ -6149,20 +6626,23 @@
       <c r="C163" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D163" s="23"/>
+      <c r="D163" s="22" t="str">
+        <f>VLOOKUP(E162,Product!A$58:B162,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E163" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F163" s="30">
+      <c r="F163" s="29">
         <v>10</v>
       </c>
-      <c r="G163" s="33">
+      <c r="G163" s="32">
         <v>720000</v>
       </c>
-      <c r="H163" s="36">
+      <c r="H163" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I163" s="26" t="str">
+      <c r="I163" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J163" s="11" t="str">
@@ -6179,20 +6659,23 @@
       <c r="C164" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D164" s="22"/>
+      <c r="D164" s="22" t="str">
+        <f>VLOOKUP(E163,Product!A$58:B163,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E164" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F164" s="30">
+      <c r="F164" s="29">
         <v>1000</v>
       </c>
-      <c r="G164" s="33">
+      <c r="G164" s="32">
         <v>96000</v>
       </c>
-      <c r="H164" s="36">
+      <c r="H164" s="35">
         <v>0.18695801684044067</v>
       </c>
-      <c r="I164" s="26" t="str">
+      <c r="I164" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J164" s="11" t="str">
@@ -6209,20 +6692,23 @@
       <c r="C165" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D165" s="22"/>
+      <c r="D165" s="22" t="str">
+        <f>VLOOKUP(E164,Product!A$58:B164,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E165" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F165" s="30">
+      <c r="F165" s="29">
         <v>1500</v>
       </c>
-      <c r="G165" s="33">
+      <c r="G165" s="32">
         <v>84000</v>
       </c>
-      <c r="H165" s="36">
+      <c r="H165" s="35">
         <v>8.4701322526138892E-2</v>
       </c>
-      <c r="I165" s="26" t="str">
+      <c r="I165" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J165" s="11" t="str">
@@ -6239,20 +6725,23 @@
       <c r="C166" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D166" s="22"/>
+      <c r="D166" s="22" t="e">
+        <f>VLOOKUP(E165,Product!A$58:B165,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E166" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F166" s="30">
+      <c r="F166" s="29">
         <v>10</v>
       </c>
-      <c r="G166" s="33">
+      <c r="G166" s="32">
         <v>570000</v>
       </c>
-      <c r="H166" s="36">
+      <c r="H166" s="35">
         <v>0.1252632645346298</v>
       </c>
-      <c r="I166" s="26" t="str">
+      <c r="I166" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J166" s="11" t="str">
@@ -6269,20 +6758,23 @@
       <c r="C167" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D167" s="22"/>
+      <c r="D167" s="22" t="e">
+        <f>VLOOKUP(E166,Product!A$58:B166,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E167" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F167" s="30">
+      <c r="F167" s="29">
         <v>10</v>
       </c>
-      <c r="G167" s="33">
+      <c r="G167" s="32">
         <v>449280</v>
       </c>
-      <c r="H167" s="36">
+      <c r="H167" s="35">
         <v>7.5781575340082272E-2</v>
       </c>
-      <c r="I167" s="26" t="str">
+      <c r="I167" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J167" s="11" t="str">
@@ -6299,20 +6791,23 @@
       <c r="C168" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D168" s="22"/>
+      <c r="D168" s="22" t="str">
+        <f>VLOOKUP(E167,Product!A$58:B167,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E168" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F168" s="30">
+      <c r="F168" s="29">
         <v>20</v>
       </c>
-      <c r="G168" s="33">
+      <c r="G168" s="32">
         <v>41500</v>
       </c>
-      <c r="H168" s="36">
+      <c r="H168" s="35">
         <v>0.22202364295959987</v>
       </c>
-      <c r="I168" s="26" t="str">
+      <c r="I168" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J168" s="11" t="str">
@@ -6329,20 +6824,23 @@
       <c r="C169" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D169" s="22"/>
+      <c r="D169" s="22" t="str">
+        <f>VLOOKUP(E168,Product!A$58:B168,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F169" s="30">
+      <c r="F169" s="29">
         <v>60</v>
       </c>
-      <c r="G169" s="33">
+      <c r="G169" s="32">
         <v>58800</v>
       </c>
-      <c r="H169" s="36">
+      <c r="H169" s="35">
         <v>0.36500913147659486</v>
       </c>
-      <c r="I169" s="26" t="str">
+      <c r="I169" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J169" s="11" t="str">
@@ -6359,20 +6857,23 @@
       <c r="C170" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D170" s="22"/>
+      <c r="D170" s="22" t="str">
+        <f>VLOOKUP(E169,Product!A$58:B169,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E170" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F170" s="30">
+      <c r="F170" s="29">
         <v>60</v>
       </c>
-      <c r="G170" s="33">
+      <c r="G170" s="32">
         <v>60000</v>
       </c>
-      <c r="H170" s="36">
+      <c r="H170" s="35">
         <v>0.472888229864947</v>
       </c>
-      <c r="I170" s="26" t="str">
+      <c r="I170" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J170" s="11" t="str">
@@ -6389,20 +6890,23 @@
       <c r="C171" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D171" s="22"/>
+      <c r="D171" s="22" t="e">
+        <f>VLOOKUP(E170,Product!A$58:B170,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E171" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F171" s="30">
+      <c r="F171" s="29">
         <v>15</v>
       </c>
-      <c r="G171" s="33">
+      <c r="G171" s="32">
         <v>60000</v>
       </c>
-      <c r="H171" s="36">
+      <c r="H171" s="35">
         <v>0.18712928152941102</v>
       </c>
-      <c r="I171" s="26" t="str">
+      <c r="I171" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J171" s="11" t="str">
@@ -6419,20 +6923,23 @@
       <c r="C172" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="22"/>
+      <c r="D172" s="22" t="str">
+        <f>VLOOKUP(E171,Product!A$58:B171,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E172" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F172" s="30">
+      <c r="F172" s="29">
         <v>16</v>
       </c>
-      <c r="G172" s="33">
+      <c r="G172" s="32">
         <v>25500</v>
       </c>
-      <c r="H172" s="36">
+      <c r="H172" s="35">
         <v>0.12932127452188724</v>
       </c>
-      <c r="I172" s="26" t="str">
+      <c r="I172" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J172" s="11" t="str">
@@ -6449,20 +6956,23 @@
       <c r="C173" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D173" s="22"/>
+      <c r="D173" s="22" t="e">
+        <f>VLOOKUP(E172,Product!A$58:B172,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E173" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F173" s="30">
+      <c r="F173" s="29">
         <v>60</v>
       </c>
-      <c r="G173" s="33">
+      <c r="G173" s="32">
         <v>2310000</v>
       </c>
-      <c r="H173" s="36">
+      <c r="H173" s="35">
         <v>3.6689202105383692E-2</v>
       </c>
-      <c r="I173" s="26" t="str">
+      <c r="I173" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J173" s="11" t="str">
@@ -6479,20 +6989,23 @@
       <c r="C174" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D174" s="22"/>
+      <c r="D174" s="22" t="e">
+        <f>VLOOKUP(E173,Product!A$58:B173,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E174" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F174" s="30">
+      <c r="F174" s="29">
         <v>3</v>
       </c>
-      <c r="G174" s="33">
+      <c r="G174" s="32">
         <v>540000</v>
       </c>
-      <c r="H174" s="36">
+      <c r="H174" s="35">
         <v>0.16782941398822984</v>
       </c>
-      <c r="I174" s="26" t="str">
+      <c r="I174" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J174" s="11" t="str">
@@ -6509,20 +7022,23 @@
       <c r="C175" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D175" s="22"/>
+      <c r="D175" s="22" t="e">
+        <f>VLOOKUP(E174,Product!A$58:B174,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E175" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F175" s="30">
+      <c r="F175" s="29">
         <v>6</v>
       </c>
-      <c r="G175" s="33">
+      <c r="G175" s="32">
         <v>255000</v>
       </c>
-      <c r="H175" s="36">
+      <c r="H175" s="35">
         <v>0.12932127452188713</v>
       </c>
-      <c r="I175" s="26" t="str">
+      <c r="I175" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J175" s="11" t="str">
@@ -6539,20 +7055,23 @@
       <c r="C176" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D176" s="22"/>
+      <c r="D176" s="22" t="e">
+        <f>VLOOKUP(E175,Product!A$58:B175,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E176" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F176" s="30">
+      <c r="F176" s="29">
         <v>6</v>
       </c>
-      <c r="G176" s="33">
+      <c r="G176" s="32">
         <v>49000</v>
       </c>
-      <c r="H176" s="36">
+      <c r="H176" s="35">
         <v>0.13989639010409899</v>
       </c>
-      <c r="I176" s="26" t="str">
+      <c r="I176" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J176" s="11" t="str">
@@ -6569,20 +7088,23 @@
       <c r="C177" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D177" s="22"/>
+      <c r="D177" s="22" t="str">
+        <f>VLOOKUP(E176,Product!A$58:B176,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E177" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F177" s="30">
+      <c r="F177" s="29">
         <v>6000</v>
       </c>
-      <c r="G177" s="33">
+      <c r="G177" s="32">
         <v>160000</v>
       </c>
-      <c r="H177" s="36">
+      <c r="H177" s="35">
         <v>0.14812214335876023</v>
       </c>
-      <c r="I177" s="26" t="str">
+      <c r="I177" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J177" s="11" t="str">
@@ -6599,20 +7121,23 @@
       <c r="C178" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D178" s="22"/>
+      <c r="D178" s="22" t="str">
+        <f>VLOOKUP(E177,Product!A$58:B177,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E178" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F178" s="30">
+      <c r="F178" s="29">
         <v>1000</v>
       </c>
-      <c r="G178" s="33">
+      <c r="G178" s="32">
         <v>47000</v>
       </c>
-      <c r="H178" s="36">
+      <c r="H178" s="35">
         <v>0.19749035674127446</v>
       </c>
-      <c r="I178" s="26" t="str">
+      <c r="I178" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J178" s="11" t="str">
@@ -6629,20 +7154,23 @@
       <c r="C179" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D179" s="22"/>
+      <c r="D179" s="22" t="e">
+        <f>VLOOKUP(E178,Product!A$58:B178,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E179" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F179" s="30">
+      <c r="F179" s="29">
         <v>200</v>
       </c>
-      <c r="G179" s="33">
+      <c r="G179" s="32">
         <v>117600</v>
       </c>
-      <c r="H179" s="36">
+      <c r="H179" s="35">
         <v>0.3422960854793346</v>
       </c>
-      <c r="I179" s="26" t="str">
+      <c r="I179" s="25" t="str">
         <v>29/01/2020</v>
       </c>
       <c r="J179" s="11" t="str">
@@ -6659,20 +7187,23 @@
       <c r="C180" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D180" s="22"/>
+      <c r="D180" s="22" t="e">
+        <f>VLOOKUP(E179,Product!A$58:B179,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E180" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F180" s="30">
+      <c r="F180" s="29">
         <v>600</v>
       </c>
-      <c r="G180" s="33">
+      <c r="G180" s="32">
         <v>140000</v>
       </c>
-      <c r="H180" s="36">
+      <c r="H180" s="35">
         <v>0.23869782934156256</v>
       </c>
-      <c r="I180" s="26" t="str">
+      <c r="I180" s="25" t="str">
         <v>29/01/2020</v>
       </c>
       <c r="J180" s="11" t="str">
@@ -6689,20 +7220,23 @@
       <c r="C181" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D181" s="22"/>
+      <c r="D181" s="22" t="e">
+        <f>VLOOKUP(E180,Product!A$58:B180,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E181" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F181" s="30">
+      <c r="F181" s="29">
         <v>6000</v>
       </c>
-      <c r="G181" s="33">
+      <c r="G181" s="32">
         <v>76500</v>
       </c>
-      <c r="H181" s="36">
+      <c r="H181" s="35">
         <v>0.12932127452188713</v>
       </c>
-      <c r="I181" s="26" t="str">
+      <c r="I181" s="25" t="str">
         <v>29/01/2020</v>
       </c>
       <c r="J181" s="11" t="str">
@@ -6719,20 +7253,23 @@
       <c r="C182" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D182" s="22"/>
+      <c r="D182" s="22" t="e">
+        <f>VLOOKUP(E181,Product!A$58:B181,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E182" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F182" s="30">
+      <c r="F182" s="29">
         <v>10</v>
       </c>
-      <c r="G182" s="33">
+      <c r="G182" s="32">
         <v>60000</v>
       </c>
-      <c r="H182" s="36">
+      <c r="H182" s="35">
         <v>0.472888229864947</v>
       </c>
-      <c r="I182" s="26" t="str">
+      <c r="I182" s="25" t="str">
         <v>29/01/2020</v>
       </c>
       <c r="J182" s="11" t="str">
@@ -6749,20 +7286,23 @@
       <c r="C183" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D183" s="22"/>
+      <c r="D183" s="22" t="e">
+        <f>VLOOKUP(E182,Product!A$58:B182,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F183" s="30">
+      <c r="F183" s="29">
         <v>10</v>
       </c>
-      <c r="G183" s="33">
+      <c r="G183" s="32">
         <v>58800</v>
       </c>
-      <c r="H183" s="36">
+      <c r="H183" s="35">
         <v>0.36500913147659486</v>
       </c>
-      <c r="I183" s="26" t="str">
+      <c r="I183" s="25" t="str">
         <v>29/01/2020</v>
       </c>
       <c r="J183" s="11" t="str">
@@ -6779,20 +7319,23 @@
       <c r="C184" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D184" s="22"/>
+      <c r="D184" s="22" t="str">
+        <f>VLOOKUP(E183,Product!A$58:B183,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E184" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F184" s="30">
+      <c r="F184" s="29">
         <v>15</v>
       </c>
-      <c r="G184" s="33">
+      <c r="G184" s="32">
         <v>72000</v>
       </c>
-      <c r="H184" s="36">
+      <c r="H184" s="35">
         <v>0.30406879941175929</v>
       </c>
-      <c r="I184" s="26" t="str">
+      <c r="I184" s="25" t="str">
         <v>29/01/2020</v>
       </c>
       <c r="J184" s="11" t="str">
@@ -6809,20 +7352,23 @@
       <c r="C185" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D185" s="22"/>
+      <c r="D185" s="22" t="str">
+        <f>VLOOKUP(E184,Product!A$58:B184,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E185" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F185" s="30">
+      <c r="F185" s="29">
         <v>2</v>
       </c>
-      <c r="G185" s="33">
+      <c r="G185" s="32">
         <v>1650000</v>
       </c>
-      <c r="H185" s="36">
+      <c r="H185" s="35">
         <v>3.6689202105383706E-2</v>
       </c>
-      <c r="I185" s="26" t="str">
+      <c r="I185" s="25" t="str">
         <v>29/01/2020</v>
       </c>
       <c r="J185" s="11" t="str">
@@ -6839,20 +7385,23 @@
       <c r="C186" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D186" s="22"/>
+      <c r="D186" s="22" t="e">
+        <f>VLOOKUP(E185,Product!A$58:B185,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E186" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F186" s="30">
+      <c r="F186" s="29">
         <v>10</v>
       </c>
-      <c r="G186" s="33">
+      <c r="G186" s="32">
         <v>82500</v>
       </c>
-      <c r="H186" s="36">
+      <c r="H186" s="35">
         <v>3.6689202105383512E-2</v>
       </c>
-      <c r="I186" s="26" t="str">
+      <c r="I186" s="25" t="str">
         <v>29/01/2020</v>
       </c>
       <c r="J186" s="11" t="str">
@@ -6869,20 +7418,23 @@
       <c r="C187" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D187" s="22"/>
+      <c r="D187" s="22" t="e">
+        <f>VLOOKUP(E186,Product!A$58:B186,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E187" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F187" s="30">
+      <c r="F187" s="29">
         <v>3</v>
       </c>
-      <c r="G187" s="33">
+      <c r="G187" s="32">
         <v>70000</v>
       </c>
-      <c r="H187" s="36">
+      <c r="H187" s="35">
         <v>4.9173899822270023E-2</v>
       </c>
-      <c r="I187" s="26" t="str">
+      <c r="I187" s="25" t="str">
         <v>29/01/2020</v>
       </c>
       <c r="J187" s="11" t="str">
@@ -6899,20 +7451,23 @@
       <c r="C188" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D188" s="22"/>
+      <c r="D188" s="22" t="e">
+        <f>VLOOKUP(E187,Product!A$58:B187,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E188" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F188" s="30">
+      <c r="F188" s="29">
         <v>3</v>
       </c>
-      <c r="G188" s="33">
+      <c r="G188" s="32">
         <v>45000</v>
       </c>
-      <c r="H188" s="36">
+      <c r="H188" s="35">
         <v>0.44175243502958367</v>
       </c>
-      <c r="I188" s="26" t="str">
+      <c r="I188" s="25" t="str">
         <v>29/01/2020</v>
       </c>
       <c r="J188" s="11" t="str">
@@ -6929,20 +7484,23 @@
       <c r="C189" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D189" s="22"/>
+      <c r="D189" s="22" t="str">
+        <f>VLOOKUP(E188,Product!A$58:B188,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E189" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F189" s="30">
+      <c r="F189" s="29">
         <v>10</v>
       </c>
-      <c r="G189" s="33">
+      <c r="G189" s="32">
         <v>-37050</v>
       </c>
-      <c r="H189" s="36">
+      <c r="H189" s="35">
         <v>0.36868076809453354</v>
       </c>
-      <c r="I189" s="26" t="str">
+      <c r="I189" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J189" s="11" t="str">
@@ -6959,20 +7517,23 @@
       <c r="C190" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D190" s="22"/>
+      <c r="D190" s="22" t="str">
+        <f>VLOOKUP(E189,Product!A$58:B189,1)</f>
+        <v>Emergency lights</v>
+      </c>
       <c r="E190" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F190" s="30">
+      <c r="F190" s="29">
         <v>10</v>
       </c>
-      <c r="G190" s="33">
+      <c r="G190" s="32">
         <v>50000</v>
       </c>
-      <c r="H190" s="36">
+      <c r="H190" s="35">
         <v>-3.8205362254396594E-2</v>
       </c>
-      <c r="I190" s="26" t="str">
+      <c r="I190" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J190" s="11" t="str">
@@ -6989,20 +7550,23 @@
       <c r="C191" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D191" s="22"/>
+      <c r="D191" s="22" t="e">
+        <f>VLOOKUP(E190,Product!A$58:B190,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E191" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F191" s="30">
+      <c r="F191" s="29">
         <v>10</v>
       </c>
-      <c r="G191" s="33">
+      <c r="G191" s="32">
         <v>50000</v>
       </c>
-      <c r="H191" s="36">
+      <c r="H191" s="35">
         <v>-3.8205362254396594E-2</v>
       </c>
-      <c r="I191" s="26" t="str">
+      <c r="I191" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J191" s="11" t="str">
@@ -7019,20 +7583,23 @@
       <c r="C192" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D192" s="22"/>
+      <c r="D192" s="22" t="e">
+        <f>VLOOKUP(E191,Product!A$58:B191,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E192" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F192" s="30">
+      <c r="F192" s="29">
         <v>2</v>
       </c>
-      <c r="G192" s="33">
+      <c r="G192" s="32">
         <v>150000</v>
       </c>
-      <c r="H192" s="36">
+      <c r="H192" s="35">
         <v>-3.8205362254396483E-2</v>
       </c>
-      <c r="I192" s="26" t="str">
+      <c r="I192" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J192" s="11" t="str">
@@ -7049,20 +7616,23 @@
       <c r="C193" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D193" s="22"/>
+      <c r="D193" s="22" t="e">
+        <f>VLOOKUP(E192,Product!A$58:B192,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E193" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F193" s="30">
+      <c r="F193" s="29">
         <v>2</v>
       </c>
-      <c r="G193" s="33">
+      <c r="G193" s="32">
         <v>250000</v>
       </c>
-      <c r="H193" s="36">
+      <c r="H193" s="35">
         <v>-3.8205362254396406E-2</v>
       </c>
-      <c r="I193" s="26" t="str">
+      <c r="I193" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J193" s="11" t="str">
@@ -7079,20 +7649,23 @@
       <c r="C194" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D194" s="22"/>
+      <c r="D194" s="22" t="e">
+        <f>VLOOKUP(E193,Product!A$58:B193,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E194" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F194" s="30">
+      <c r="F194" s="29">
         <v>2</v>
       </c>
-      <c r="G194" s="33">
+      <c r="G194" s="32">
         <v>500000</v>
       </c>
-      <c r="H194" s="36">
+      <c r="H194" s="35">
         <v>-3.8205362254396406E-2</v>
       </c>
-      <c r="I194" s="26" t="str">
+      <c r="I194" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J194" s="11" t="str">
@@ -7109,20 +7682,23 @@
       <c r="C195" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D195" s="22"/>
+      <c r="D195" s="22" t="e">
+        <f>VLOOKUP(E194,Product!A$58:B194,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E195" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F195" s="30">
+      <c r="F195" s="29">
         <v>2</v>
       </c>
-      <c r="G195" s="33">
+      <c r="G195" s="32">
         <v>56000</v>
       </c>
-      <c r="H195" s="36">
+      <c r="H195" s="35">
         <v>-1.9343557048497561E-2</v>
       </c>
-      <c r="I195" s="26" t="str">
+      <c r="I195" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J195" s="11" t="str">
@@ -7139,20 +7715,23 @@
       <c r="C196" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D196" s="22"/>
+      <c r="D196" s="22" t="e">
+        <f>VLOOKUP(E195,Product!A$58:B195,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E196" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F196" s="30">
+      <c r="F196" s="29">
         <v>2</v>
       </c>
-      <c r="G196" s="33">
+      <c r="G196" s="32">
         <v>560000</v>
       </c>
-      <c r="H196" s="36">
+      <c r="H196" s="35">
         <v>-1.9343557048497384E-2</v>
       </c>
-      <c r="I196" s="26" t="str">
+      <c r="I196" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J196" s="11" t="str">
@@ -7169,20 +7748,23 @@
       <c r="C197" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D197" s="22"/>
+      <c r="D197" s="22" t="e">
+        <f>VLOOKUP(E196,Product!A$58:B196,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E197" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F197" s="30">
+      <c r="F197" s="29">
         <v>2</v>
       </c>
-      <c r="G197" s="33">
+      <c r="G197" s="32">
         <v>560000</v>
       </c>
-      <c r="H197" s="36">
+      <c r="H197" s="35">
         <v>-1.9343557048497384E-2</v>
       </c>
-      <c r="I197" s="26" t="str">
+      <c r="I197" s="25" t="str">
         <v>15/01/2020</v>
       </c>
       <c r="J197" s="11" t="str">
@@ -7199,20 +7781,23 @@
       <c r="C198" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D198" s="23"/>
+      <c r="D198" s="22" t="e">
+        <f>VLOOKUP(E197,Product!A$58:B197,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E198" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F198" s="30">
+      <c r="F198" s="29">
         <v>10</v>
       </c>
-      <c r="G198" s="33">
+      <c r="G198" s="32">
         <v>560000</v>
       </c>
-      <c r="H198" s="36">
+      <c r="H198" s="35">
         <v>-1.9343557048497384E-2</v>
       </c>
-      <c r="I198" s="26" t="str">
+      <c r="I198" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J198" s="11" t="str">
@@ -7229,20 +7814,23 @@
       <c r="C199" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D199" s="22"/>
+      <c r="D199" s="22" t="e">
+        <f>VLOOKUP(E198,Product!A$58:B198,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E199" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F199" s="30">
+      <c r="F199" s="29">
         <v>10</v>
       </c>
-      <c r="G199" s="33">
+      <c r="G199" s="32">
         <v>42500</v>
       </c>
-      <c r="H199" s="36">
+      <c r="H199" s="35">
         <v>-1.5670088687356958E-2</v>
       </c>
-      <c r="I199" s="26" t="str">
+      <c r="I199" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J199" s="11" t="str">
@@ -7259,20 +7847,23 @@
       <c r="C200" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D200" s="22"/>
+      <c r="D200" s="22" t="e">
+        <f>VLOOKUP(E199,Product!A$58:B199,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E200" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F200" s="30">
+      <c r="F200" s="29">
         <v>5</v>
       </c>
-      <c r="G200" s="33">
+      <c r="G200" s="32">
         <v>42500</v>
       </c>
-      <c r="H200" s="36">
+      <c r="H200" s="35">
         <v>-1.5670088687356958E-2</v>
       </c>
-      <c r="I200" s="26" t="str">
+      <c r="I200" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J200" s="11" t="str">
@@ -7289,20 +7880,23 @@
       <c r="C201" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D201" s="22"/>
+      <c r="D201" s="22" t="e">
+        <f>VLOOKUP(E200,Product!A$58:B200,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E201" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F201" s="30">
+      <c r="F201" s="29">
         <v>10</v>
       </c>
-      <c r="G201" s="33">
+      <c r="G201" s="32">
         <v>42500</v>
       </c>
-      <c r="H201" s="36">
+      <c r="H201" s="35">
         <v>-1.5670088687356958E-2</v>
       </c>
-      <c r="I201" s="26" t="str">
+      <c r="I201" s="25" t="str">
         <v>22/01/2020</v>
       </c>
       <c r="J201" s="11" t="str">
@@ -7319,20 +7913,23 @@
       <c r="C202" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D202" s="22"/>
+      <c r="D202" s="22" t="e">
+        <f>VLOOKUP(E201,Product!A$58:B201,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E202" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F202" s="30">
+      <c r="F202" s="29">
         <v>2</v>
       </c>
-      <c r="G202" s="33">
+      <c r="G202" s="32">
         <v>212500</v>
       </c>
-      <c r="H202" s="36">
+      <c r="H202" s="35">
         <v>-1.5670088687356844E-2</v>
       </c>
-      <c r="I202" s="26" t="str">
+      <c r="I202" s="25" t="str">
         <v>13/01/2020</v>
       </c>
       <c r="J202" s="11" t="str">
@@ -7353,8 +7950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5F4222-9382-4987-8E47-108013447329}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7385,14 +7982,14 @@
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <f>SUMIFS(Sales!G3:G202,Sales!C3:C202,"DISCOVERY")</f>
         <v>92000</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <f>SUMIFS(Sales!G3:G202,Sales!E3:E202,"CFA00")</f>
         <v>45000</v>
       </c>
@@ -7407,8 +8004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E86A9D-9857-4BBF-88C2-89172DCB0BBC}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -8047,8 +8644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -8077,7 +8674,7 @@
       <c r="B2" s="18">
         <v>3106</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
@@ -8086,7 +8683,7 @@
       <c r="B3" s="18">
         <v>2417</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="9" t="s">
@@ -8095,7 +8692,7 @@
       <c r="B4" s="18">
         <v>1128</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="9" t="s">
@@ -8104,7 +8701,7 @@
       <c r="B5" s="18">
         <v>638</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
@@ -8113,7 +8710,7 @@
       <c r="B6" s="18">
         <v>6173</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="9" t="s">
@@ -8122,7 +8719,7 @@
       <c r="B7" s="18">
         <v>114</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
@@ -8131,7 +8728,7 @@
       <c r="B8" s="18">
         <v>282</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
@@ -8140,7 +8737,7 @@
       <c r="B9" s="18">
         <v>207</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
@@ -8149,7 +8746,7 @@
       <c r="B10" s="18">
         <v>2112</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
@@ -8158,7 +8755,7 @@
       <c r="B11" s="18">
         <v>905</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
@@ -8167,7 +8764,7 @@
       <c r="B12" s="18">
         <v>8414</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
@@ -8176,7 +8773,7 @@
       <c r="B13" s="18">
         <v>2045</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
@@ -8185,7 +8782,7 @@
       <c r="B14" s="18">
         <v>180</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
@@ -8194,7 +8791,7 @@
       <c r="B15" s="18">
         <v>81</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="24"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
@@ -8203,7 +8800,7 @@
       <c r="B16" s="18">
         <v>96</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
@@ -8212,7 +8809,7 @@
       <c r="B17" s="18">
         <v>13765</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
@@ -8221,7 +8818,7 @@
       <c r="B18" s="18">
         <v>6</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
@@ -8230,7 +8827,7 @@
       <c r="B19" s="18">
         <v>1481</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
@@ -8239,7 +8836,7 @@
       <c r="B20" s="18">
         <v>3277</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
@@ -8248,7 +8845,7 @@
       <c r="B21" s="18">
         <v>6867</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
@@ -8257,7 +8854,7 @@
       <c r="B22" s="18">
         <v>1041</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="9" t="s">
@@ -8266,7 +8863,7 @@
       <c r="B23" s="18">
         <v>281</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
@@ -8275,7 +8872,7 @@
       <c r="B24" s="18">
         <v>106</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="9" t="s">
@@ -8284,7 +8881,7 @@
       <c r="B25" s="18">
         <v>29827</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
@@ -8293,7 +8890,7 @@
       <c r="B26" s="18">
         <v>2751</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
@@ -8302,7 +8899,7 @@
       <c r="B27" s="18">
         <v>1106</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9" t="s">
@@ -8311,7 +8908,7 @@
       <c r="B28" s="18">
         <v>1972</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
@@ -8320,7 +8917,7 @@
       <c r="B29" s="18">
         <v>4479</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="24"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
@@ -8329,7 +8926,7 @@
       <c r="B30" s="18">
         <v>238949</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="24"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
@@ -8338,7 +8935,7 @@
       <c r="B31" s="18">
         <v>7132</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="9" t="s">
@@ -8347,7 +8944,7 @@
       <c r="B32" s="18">
         <v>4344</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="24"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="9" t="s">
@@ -8356,7 +8953,7 @@
       <c r="B33" s="18">
         <v>21769</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="24"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="9" t="s">
@@ -8365,7 +8962,7 @@
       <c r="B34" s="18">
         <v>67829</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="24"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
@@ -8374,7 +8971,7 @@
       <c r="B35" s="18">
         <v>5950</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="9" t="s">
@@ -8383,7 +8980,7 @@
       <c r="B36" s="18">
         <v>3007</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="24"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
@@ -8392,7 +8989,7 @@
       <c r="B37" s="18">
         <v>16885</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
@@ -8401,7 +8998,7 @@
       <c r="B38" s="18">
         <v>100</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
@@ -8410,7 +9007,7 @@
       <c r="B39" s="18">
         <v>40</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
@@ -8419,7 +9016,7 @@
       <c r="B40" s="18">
         <v>32</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="9" t="s">
@@ -8428,7 +9025,7 @@
       <c r="B41" s="18">
         <v>1386</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
@@ -8437,7 +9034,7 @@
       <c r="B42" s="18">
         <v>10157</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="9" t="s">
@@ -8446,7 +9043,7 @@
       <c r="B43" s="18">
         <v>5845</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="24"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
@@ -8455,7 +9052,7 @@
       <c r="B44" s="18">
         <v>75</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="24"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="9" t="s">
@@ -8464,7 +9061,7 @@
       <c r="B45" s="18">
         <v>2627</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="24"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9" t="s">
@@ -8473,7 +9070,7 @@
       <c r="B46" s="18">
         <v>162</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="24"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="9" t="s">
@@ -8482,7 +9079,7 @@
       <c r="B47" s="18">
         <v>17359</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="24"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="9" t="s">
@@ -8491,7 +9088,7 @@
       <c r="B48" s="18">
         <v>68223</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
@@ -8500,7 +9097,7 @@
       <c r="B49" s="18">
         <v>10435</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="9" t="s">
@@ -8509,7 +9106,7 @@
       <c r="B50" s="18">
         <v>5249</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
@@ -8518,7 +9115,7 @@
       <c r="B51" s="18">
         <v>5671</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="9" t="s">
@@ -8527,7 +9124,7 @@
       <c r="B52" s="18">
         <v>2779</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="24"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
@@ -8536,7 +9133,7 @@
       <c r="B53" s="18">
         <v>16479</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
@@ -8545,7 +9142,7 @@
       <c r="B54" s="18">
         <v>5542</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="24"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
@@ -8554,7 +9151,7 @@
       <c r="B55" s="18">
         <v>4045</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="24"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
@@ -8563,7 +9160,7 @@
       <c r="B56" s="18">
         <v>4373</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
@@ -8572,7 +9169,7 @@
       <c r="B57" s="18">
         <v>12394</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="24"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
@@ -8581,7 +9178,7 @@
       <c r="B58" s="18">
         <v>9272</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="24"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
@@ -8590,7 +9187,7 @@
       <c r="B59" s="18">
         <v>55</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="24"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
@@ -8599,7 +9196,7 @@
       <c r="B60" s="18">
         <v>20191</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
@@ -8608,7 +9205,7 @@
       <c r="B61" s="18">
         <v>40</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="24"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="9" t="s">
@@ -8617,7 +9214,7 @@
       <c r="B62" s="18">
         <v>2940</v>
       </c>
-      <c r="C62" s="25"/>
+      <c r="C62" s="24"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="9" t="s">
@@ -8626,7 +9223,7 @@
       <c r="B63" s="18">
         <v>139</v>
       </c>
-      <c r="C63" s="25"/>
+      <c r="C63" s="24"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
@@ -8635,7 +9232,7 @@
       <c r="B64" s="18">
         <v>4953</v>
       </c>
-      <c r="C64" s="25"/>
+      <c r="C64" s="24"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="9" t="s">
@@ -8644,7 +9241,7 @@
       <c r="B65" s="18">
         <v>248</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="24"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="9" t="s">
@@ -8653,7 +9250,7 @@
       <c r="B66" s="18">
         <v>21</v>
       </c>
-      <c r="C66" s="25"/>
+      <c r="C66" s="24"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="9" t="s">
@@ -8662,7 +9259,7 @@
       <c r="B67" s="18">
         <v>2134</v>
       </c>
-      <c r="C67" s="25"/>
+      <c r="C67" s="24"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
@@ -8671,7 +9268,7 @@
       <c r="B68" s="18">
         <v>12053</v>
       </c>
-      <c r="C68" s="25"/>
+      <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="9" t="s">
@@ -8680,7 +9277,7 @@
       <c r="B69" s="18">
         <v>7918</v>
       </c>
-      <c r="C69" s="25"/>
+      <c r="C69" s="24"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="9" t="s">
@@ -8689,7 +9286,7 @@
       <c r="B70" s="18">
         <v>9494</v>
       </c>
-      <c r="C70" s="25"/>
+      <c r="C70" s="24"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="9" t="s">
@@ -8698,7 +9295,7 @@
       <c r="B71" s="18">
         <v>77057</v>
       </c>
-      <c r="C71" s="25"/>
+      <c r="C71" s="24"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="9" t="s">
@@ -8707,7 +9304,7 @@
       <c r="B72" s="18">
         <v>5988</v>
       </c>
-      <c r="C72" s="25"/>
+      <c r="C72" s="24"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="9" t="s">
@@ -8716,7 +9313,7 @@
       <c r="B73" s="18">
         <v>1004</v>
       </c>
-      <c r="C73" s="25"/>
+      <c r="C73" s="24"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="9" t="s">
@@ -8725,7 +9322,7 @@
       <c r="B74" s="18">
         <v>1098</v>
       </c>
-      <c r="C74" s="25"/>
+      <c r="C74" s="24"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="9" t="s">
@@ -8734,7 +9331,7 @@
       <c r="B75" s="18">
         <v>5507</v>
       </c>
-      <c r="C75" s="25"/>
+      <c r="C75" s="24"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="9" t="s">
@@ -8743,7 +9340,7 @@
       <c r="B76" s="18">
         <v>3495</v>
       </c>
-      <c r="C76" s="25"/>
+      <c r="C76" s="24"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="9" t="s">
@@ -8752,7 +9349,7 @@
       <c r="B77" s="18">
         <v>33436</v>
       </c>
-      <c r="C77" s="25"/>
+      <c r="C77" s="24"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="9" t="s">
@@ -8761,7 +9358,7 @@
       <c r="B78" s="18">
         <v>7807</v>
       </c>
-      <c r="C78" s="25"/>
+      <c r="C78" s="24"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="9" t="s">
@@ -8770,7 +9367,7 @@
       <c r="B79" s="18">
         <v>1794</v>
       </c>
-      <c r="C79" s="25"/>
+      <c r="C79" s="24"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="9" t="s">
@@ -8779,7 +9376,7 @@
       <c r="B80" s="18">
         <v>1926</v>
       </c>
-      <c r="C80" s="25"/>
+      <c r="C80" s="24"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="9" t="s">
@@ -8788,7 +9385,7 @@
       <c r="B81" s="18">
         <v>2241</v>
       </c>
-      <c r="C81" s="25"/>
+      <c r="C81" s="24"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="9" t="s">
@@ -8797,7 +9394,7 @@
       <c r="B82" s="18">
         <v>27519</v>
       </c>
-      <c r="C82" s="25"/>
+      <c r="C82" s="24"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="9" t="s">
@@ -8806,7 +9403,7 @@
       <c r="B83" s="18">
         <v>7528</v>
       </c>
-      <c r="C83" s="25"/>
+      <c r="C83" s="24"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="9" t="s">
@@ -8815,7 +9412,7 @@
       <c r="B84" s="18">
         <v>57782</v>
       </c>
-      <c r="C84" s="25"/>
+      <c r="C84" s="24"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="9" t="s">
@@ -8824,7 +9421,7 @@
       <c r="B85" s="18">
         <v>6217</v>
       </c>
-      <c r="C85" s="25"/>
+      <c r="C85" s="24"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="9" t="s">
@@ -8833,7 +9430,7 @@
       <c r="B86" s="18">
         <v>10</v>
       </c>
-      <c r="C86" s="25"/>
+      <c r="C86" s="24"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="9" t="s">
@@ -8842,7 +9439,7 @@
       <c r="B87" s="18">
         <v>3566</v>
       </c>
-      <c r="C87" s="25"/>
+      <c r="C87" s="24"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="9" t="s">
@@ -8851,7 +9448,7 @@
       <c r="B88" s="18">
         <v>989</v>
       </c>
-      <c r="C88" s="25"/>
+      <c r="C88" s="24"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="9" t="s">
@@ -8860,7 +9457,7 @@
       <c r="B89" s="18">
         <v>2262</v>
       </c>
-      <c r="C89" s="25"/>
+      <c r="C89" s="24"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="9" t="s">
@@ -8869,7 +9466,7 @@
       <c r="B90" s="18">
         <v>1996</v>
       </c>
-      <c r="C90" s="25"/>
+      <c r="C90" s="24"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="9" t="s">
@@ -8878,7 +9475,7 @@
       <c r="B91" s="18">
         <v>6500</v>
       </c>
-      <c r="C91" s="25"/>
+      <c r="C91" s="24"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="9" t="s">
@@ -8887,7 +9484,7 @@
       <c r="B92" s="18">
         <v>6000</v>
       </c>
-      <c r="C92" s="25"/>
+      <c r="C92" s="24"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="9" t="s">
@@ -8896,7 +9493,7 @@
       <c r="B93" s="18">
         <v>1320</v>
       </c>
-      <c r="C93" s="25"/>
+      <c r="C93" s="24"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="9" t="s">
@@ -8905,7 +9502,7 @@
       <c r="B94" s="18">
         <v>7375</v>
       </c>
-      <c r="C94" s="25"/>
+      <c r="C94" s="24"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="9" t="s">
@@ -8914,7 +9511,7 @@
       <c r="B95" s="18">
         <v>2030</v>
       </c>
-      <c r="C95" s="25"/>
+      <c r="C95" s="24"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="9" t="s">
@@ -8923,7 +9520,7 @@
       <c r="B96" s="18">
         <v>1321</v>
       </c>
-      <c r="C96" s="25"/>
+      <c r="C96" s="24"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="9" t="s">
@@ -8932,7 +9529,7 @@
       <c r="B97" s="18">
         <v>848</v>
       </c>
-      <c r="C97" s="25"/>
+      <c r="C97" s="24"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="9" t="s">
@@ -8941,7 +9538,7 @@
       <c r="B98" s="18">
         <v>7349</v>
       </c>
-      <c r="C98" s="25"/>
+      <c r="C98" s="24"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="9" t="s">
@@ -8950,7 +9547,7 @@
       <c r="B99" s="18">
         <v>5183</v>
       </c>
-      <c r="C99" s="25"/>
+      <c r="C99" s="24"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="9" t="s">
@@ -8959,7 +9556,7 @@
       <c r="B100" s="18">
         <v>1780</v>
       </c>
-      <c r="C100" s="25"/>
+      <c r="C100" s="24"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="9" t="s">
@@ -8968,7 +9565,7 @@
       <c r="B101" s="18">
         <v>6608</v>
       </c>
-      <c r="C101" s="25"/>
+      <c r="C101" s="24"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="9" t="s">
@@ -8977,7 +9574,7 @@
       <c r="B102" s="18">
         <v>3460</v>
       </c>
-      <c r="C102" s="25"/>
+      <c r="C102" s="24"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="9" t="s">
@@ -8986,7 +9583,7 @@
       <c r="B103" s="18">
         <v>3981</v>
       </c>
-      <c r="C103" s="25"/>
+      <c r="C103" s="24"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="9" t="s">
@@ -8995,7 +9592,7 @@
       <c r="B104" s="18">
         <v>265</v>
       </c>
-      <c r="C104" s="25"/>
+      <c r="C104" s="24"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="9" t="s">
@@ -9004,7 +9601,7 @@
       <c r="B105" s="18">
         <v>4335</v>
       </c>
-      <c r="C105" s="25"/>
+      <c r="C105" s="24"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="9" t="s">
@@ -9013,7 +9610,7 @@
       <c r="B106" s="18">
         <v>80</v>
       </c>
-      <c r="C106" s="25"/>
+      <c r="C106" s="24"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="9" t="s">
@@ -9022,7 +9619,7 @@
       <c r="B107" s="18">
         <v>1778</v>
       </c>
-      <c r="C107" s="25"/>
+      <c r="C107" s="24"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="19"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\CIG_Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BA80A-A884-4335-9D38-6E43AC92212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3174FD0B-FF3F-412D-909C-90FD0DC72B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_0_200">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Inventory!$A$1:$B$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Product!$A$1:$B$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sales!$A$2:$H$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sales!$D$3:$D$202</definedName>
     <definedName name="a" localSheetId="0">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sales!#REF!</definedName>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="21.6" customHeight="1"/>
@@ -1345,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f>VLOOKUP(E2,Product!A2:B$58,1)</f>
+        <f>VLOOKUP(Product!A2,Product!A2:B58,1,TRUE)</f>
         <v>FAN</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1380,8 +1380,8 @@
         <v>101</v>
       </c>
       <c r="D4" s="22" t="str">
-        <f>VLOOKUP(E3,Product!A3:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A3,Product!A3:B59,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>80</v>
@@ -1413,8 +1413,8 @@
         <v>170</v>
       </c>
       <c r="D5" s="22" t="str">
-        <f>VLOOKUP(E4,Product!A4:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A4,Product!A4:B60,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -1445,9 +1445,9 @@
       <c r="C6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="22" t="e">
-        <f>VLOOKUP(E5,Product!A5:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D6" s="22" t="str">
+        <f>VLOOKUP(Product!A5,Product!A5:B61,1,TRUE)</f>
+        <v>flashlight</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
@@ -1479,8 +1479,8 @@
         <v>101</v>
       </c>
       <c r="D7" s="22" t="str">
-        <f>VLOOKUP(E6,Product!A6:B$58,1)</f>
-        <v>Emergency lights</v>
+        <f>VLOOKUP(Product!A6,Product!A6:B62,1,TRUE)</f>
+        <v>Camping lanterns</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -1512,7 +1512,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>VLOOKUP(E7,Product!A7:B$58,1)</f>
+        <f>VLOOKUP(Product!A7,Product!A7:B63,1,TRUE)</f>
         <v>FAN</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1545,8 +1545,8 @@
         <v>101</v>
       </c>
       <c r="D9" s="22" t="str">
-        <f>VLOOKUP(E8,Product!A8:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A8,Product!A8:B64,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>68</v>
@@ -1578,8 +1578,8 @@
         <v>101</v>
       </c>
       <c r="D10" s="22" t="str">
-        <f>VLOOKUP(E9,Product!A9:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A9,Product!A9:B65,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>68</v>
@@ -1611,8 +1611,8 @@
         <v>101</v>
       </c>
       <c r="D11" s="22" t="str">
-        <f>VLOOKUP(E10,Product!A10:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A10,Product!A10:B66,1,TRUE)</f>
+        <v>flashlight</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -1644,8 +1644,8 @@
         <v>101</v>
       </c>
       <c r="D12" s="22" t="str">
-        <f>VLOOKUP(E11,Product!A11:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A11,Product!A11:B67,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
@@ -1677,7 +1677,7 @@
         <v>102</v>
       </c>
       <c r="D13" s="22" t="str">
-        <f>VLOOKUP(E12,Product!A12:B$58,1)</f>
+        <f>VLOOKUP(Product!A12,Product!A12:B68,1,TRUE)</f>
         <v>Emergency lights</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1709,9 +1709,9 @@
       <c r="C14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="22" t="e">
-        <f>VLOOKUP(E13,Product!A13:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D14" s="22" t="str">
+        <f>VLOOKUP(Product!A13,Product!A13:B69,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
@@ -1743,8 +1743,8 @@
         <v>102</v>
       </c>
       <c r="D15" s="22" t="str">
-        <f>VLOOKUP(E14,Product!A14:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A14,Product!A14:B70,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>77</v>
@@ -1776,8 +1776,8 @@
         <v>102</v>
       </c>
       <c r="D16" s="22" t="str">
-        <f>VLOOKUP(E15,Product!A15:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A15,Product!A15:B71,1,TRUE)</f>
+        <v>Camping lanterns</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>33</v>
@@ -1809,8 +1809,8 @@
         <v>102</v>
       </c>
       <c r="D17" s="22" t="str">
-        <f>VLOOKUP(E16,Product!A16:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A16,Product!A16:B72,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
@@ -1842,8 +1842,8 @@
         <v>100</v>
       </c>
       <c r="D18" s="22" t="str">
-        <f>VLOOKUP(E17,Product!A17:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A17,Product!A17:B73,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
@@ -1874,9 +1874,9 @@
       <c r="C19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="22" t="e">
-        <f>VLOOKUP(E18,Product!A18:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D19" s="22" t="str">
+        <f>VLOOKUP(Product!A18,Product!A18:B74,1,TRUE)</f>
+        <v>Camping lanterns</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>82</v>
@@ -1908,8 +1908,8 @@
         <v>171</v>
       </c>
       <c r="D20" s="22" t="str">
-        <f>VLOOKUP(E19,Product!A19:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A19,Product!A19:B75,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -1941,8 +1941,8 @@
         <v>171</v>
       </c>
       <c r="D21" s="22" t="str">
-        <f>VLOOKUP(E20,Product!A20:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A20,Product!A20:B76,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -1974,8 +1974,8 @@
         <v>171</v>
       </c>
       <c r="D22" s="22" t="str">
-        <f>VLOOKUP(E21,Product!A21:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A21,Product!A21:B77,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
@@ -2007,8 +2007,8 @@
         <v>171</v>
       </c>
       <c r="D23" s="22" t="str">
-        <f>VLOOKUP(E22,Product!A22:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A22,Product!A22:B78,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
@@ -2039,9 +2039,9 @@
       <c r="C24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="22" t="e">
-        <f>VLOOKUP(E23,Product!A23:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D24" s="22" t="str">
+        <f>VLOOKUP(Product!A23,Product!A23:B79,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>36</v>
@@ -2072,9 +2072,9 @@
       <c r="C25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="22" t="e">
-        <f>VLOOKUP(E24,Product!A24:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D25" s="22" t="str">
+        <f>VLOOKUP(Product!A24,Product!A24:B80,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>74</v>
@@ -2105,9 +2105,9 @@
       <c r="C26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="22" t="e">
-        <f>VLOOKUP(E25,Product!A25:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D26" s="22" t="str">
+        <f>VLOOKUP(Product!A25,Product!A25:B81,1,TRUE)</f>
+        <v>Camping lanterns</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>59</v>
@@ -2139,8 +2139,8 @@
         <v>171</v>
       </c>
       <c r="D27" s="22" t="str">
-        <f>VLOOKUP(E26,Product!A26:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A26,Product!A26:B82,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
@@ -2172,8 +2172,8 @@
         <v>172</v>
       </c>
       <c r="D28" s="22" t="str">
-        <f>VLOOKUP(E27,Product!A27:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A27,Product!A27:B83,1,TRUE)</f>
+        <v>flashlight</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
@@ -2204,9 +2204,9 @@
       <c r="C29" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="22" t="e">
-        <f>VLOOKUP(E28,Product!A28:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D29" s="22" t="str">
+        <f>VLOOKUP(Product!A28,Product!A28:B84,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>71</v>
@@ -2237,9 +2237,9 @@
       <c r="C30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="22" t="e">
-        <f>VLOOKUP(E29,Product!A29:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D30" s="22" t="str">
+        <f>VLOOKUP(Product!A29,Product!A29:B85,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>24</v>
@@ -2271,8 +2271,8 @@
         <v>172</v>
       </c>
       <c r="D31" s="22" t="str">
-        <f>VLOOKUP(E30,Product!A30:B$58,1)</f>
-        <v>FAN</v>
+        <f>VLOOKUP(Product!A30,Product!A30:B86,1,TRUE)</f>
+        <v>Camping lanterns</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
@@ -2304,8 +2304,8 @@
         <v>0</v>
       </c>
       <c r="D32" s="22" t="str">
-        <f>VLOOKUP(E31,Product!A31:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A31,Product!A31:B87,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>32</v>
@@ -2337,8 +2337,8 @@
         <v>0</v>
       </c>
       <c r="D33" s="22" t="str">
-        <f>VLOOKUP(E32,Product!A32:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A32,Product!A32:B88,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>61</v>
@@ -2370,8 +2370,8 @@
         <v>0</v>
       </c>
       <c r="D34" s="22" t="str">
-        <f>VLOOKUP(E33,Product!A33:B$58,1)</f>
-        <v>Emergency lights</v>
+        <f>VLOOKUP(Product!A33,Product!A33:B89,1,TRUE)</f>
+        <v>battery</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>60</v>
@@ -2403,8 +2403,8 @@
         <v>0</v>
       </c>
       <c r="D35" s="22" t="str">
-        <f>VLOOKUP(E34,Product!A34:B$58,1)</f>
-        <v>Emergency lights</v>
+        <f>VLOOKUP(Product!A34,Product!A34:B90,1,TRUE)</f>
+        <v>Camping lanterns</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>22</v>
@@ -2436,8 +2436,8 @@
         <v>0</v>
       </c>
       <c r="D36" s="22" t="str">
-        <f>VLOOKUP(E35,Product!A35:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A35,Product!A35:B91,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
@@ -2468,9 +2468,9 @@
       <c r="C37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="22" t="e">
-        <f>VLOOKUP(E36,Product!A36:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D37" s="22" t="str">
+        <f>VLOOKUP(Product!A36,Product!A36:B92,1,TRUE)</f>
+        <v>flashlight</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>32</v>
@@ -2501,9 +2501,9 @@
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="22" t="e">
-        <f>VLOOKUP(E37,Product!A37:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D38" s="22" t="str">
+        <f>VLOOKUP(Product!A37,Product!A37:B93,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>25</v>
@@ -2534,9 +2534,9 @@
       <c r="C39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="22" t="e">
-        <f>VLOOKUP(E38,Product!A38:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D39" s="22" t="str">
+        <f>VLOOKUP(Product!A38,Product!A38:B94,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>11</v>
@@ -2567,9 +2567,9 @@
       <c r="C40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="22" t="e">
-        <f>VLOOKUP(E39,Product!A39:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D40" s="22" t="str">
+        <f>VLOOKUP(Product!A39,Product!A39:B95,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>24</v>
@@ -2601,8 +2601,8 @@
         <v>0</v>
       </c>
       <c r="D41" s="22" t="str">
-        <f>VLOOKUP(E40,Product!A40:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A40,Product!A40:B96,1,TRUE)</f>
+        <v>flashlight</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>81</v>
@@ -2634,8 +2634,8 @@
         <v>0</v>
       </c>
       <c r="D42" s="22" t="str">
-        <f>VLOOKUP(E41,Product!A41:B$58,1)</f>
-        <v>Emergency lights</v>
+        <f>VLOOKUP(Product!A41,Product!A41:B97,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>75</v>
@@ -2667,8 +2667,8 @@
         <v>0</v>
       </c>
       <c r="D43" s="22" t="str">
-        <f>VLOOKUP(E42,Product!A42:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A42,Product!A42:B98,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>36</v>
@@ -2700,8 +2700,8 @@
         <v>0</v>
       </c>
       <c r="D44" s="22" t="str">
-        <f>VLOOKUP(E43,Product!A43:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A43,Product!A43:B99,1,TRUE)</f>
+        <v>FAN</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>33</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="22" t="str">
-        <f>VLOOKUP(E44,Product!A44:B$58,1)</f>
+        <f>VLOOKUP(Product!A44,Product!A44:B100,1,TRUE)</f>
         <v>Emergency lights</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2765,9 +2765,9 @@
       <c r="C46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="22" t="e">
-        <f>VLOOKUP(E45,Product!A45:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D46" s="22" t="str">
+        <f>VLOOKUP(Product!A45,Product!A45:B101,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>69</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="22" t="str">
-        <f>VLOOKUP(E46,Product!A46:B$58,1)</f>
+        <f>VLOOKUP(Product!A46,Product!A46:B102,1,TRUE)</f>
         <v>Camping lanterns</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2831,9 +2831,9 @@
       <c r="C48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="22" t="e">
-        <f>VLOOKUP(E47,Product!A47:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D48" s="22" t="str">
+        <f>VLOOKUP(Product!A47,Product!A47:B103,1,TRUE)</f>
+        <v>Camping lanterns</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>73</v>
@@ -2865,8 +2865,8 @@
         <v>0</v>
       </c>
       <c r="D49" s="22" t="str">
-        <f>VLOOKUP(E48,Product!A48:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A48,Product!A48:B104,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>51</v>
@@ -2898,8 +2898,8 @@
         <v>0</v>
       </c>
       <c r="D50" s="22" t="str">
-        <f>VLOOKUP(E49,Product!A49:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A49,Product!A49:B105,1,TRUE)</f>
+        <v>flashlight</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>33</v>
@@ -2931,8 +2931,8 @@
         <v>173</v>
       </c>
       <c r="D51" s="22" t="str">
-        <f>VLOOKUP(E50,Product!A50:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A50,Product!A50:B106,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>75</v>
@@ -2964,8 +2964,8 @@
         <v>173</v>
       </c>
       <c r="D52" s="22" t="str">
-        <f>VLOOKUP(E51,Product!A51:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A51,Product!A51:B107,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
@@ -2997,8 +2997,8 @@
         <v>173</v>
       </c>
       <c r="D53" s="22" t="str">
-        <f>VLOOKUP(E52,Product!A52:B$58,1)</f>
-        <v>Camping lanterns</v>
+        <f>VLOOKUP(Product!A52,Product!A52:B108,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>25</v>
@@ -3030,7 +3030,7 @@
         <v>173</v>
       </c>
       <c r="D54" s="22" t="str">
-        <f>VLOOKUP(E53,Product!A53:B$58,1)</f>
+        <f>VLOOKUP(Product!A53,Product!A53:B109,1,TRUE)</f>
         <v>Camping lanterns</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -3063,8 +3063,8 @@
         <v>173</v>
       </c>
       <c r="D55" s="22" t="str">
-        <f>VLOOKUP(E54,Product!A54:B$58,1)</f>
-        <v>LED bulbs</v>
+        <f>VLOOKUP(Product!A54,Product!A54:B110,1,TRUE)</f>
+        <v>flashlight</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>54</v>
@@ -3095,9 +3095,9 @@
       <c r="C56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="22" t="e">
-        <f>VLOOKUP(E55,Product!A55:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D56" s="22" t="str">
+        <f>VLOOKUP(Product!A55,Product!A55:B111,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
@@ -3128,9 +3128,9 @@
       <c r="C57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="22" t="e">
-        <f>VLOOKUP(E56,Product!A56:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D57" s="22" t="str">
+        <f>VLOOKUP(Product!A56,Product!A56:B112,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
@@ -3161,9 +3161,9 @@
       <c r="C58" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="22" t="e">
-        <f>VLOOKUP(E57,Product!A57:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D58" s="22" t="str">
+        <f>VLOOKUP(Product!A57,Product!A57:B113,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>22</v>
@@ -3194,9 +3194,9 @@
       <c r="C59" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="22" t="e">
-        <f>VLOOKUP(E58,Product!A58:B$58,1)</f>
-        <v>#N/A</v>
+      <c r="D59" s="22" t="str">
+        <f>VLOOKUP(Product!A58,Product!A58:B114,1,TRUE)</f>
+        <v>Emergency lights</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>40</v>
@@ -3227,9 +3227,9 @@
       <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="22" t="str">
-        <f>VLOOKUP(E59,Product!A$58:B59,1)</f>
-        <v>Emergency lights</v>
+      <c r="D60" s="22" t="e">
+        <f>VLOOKUP(Product!A59,Product!A59:B115,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
@@ -3261,7 +3261,7 @@
         <v>174</v>
       </c>
       <c r="D61" s="22" t="e">
-        <f>VLOOKUP(E60,Product!A$58:B60,1)</f>
+        <f>VLOOKUP(Product!A60,Product!A60:B116,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -3294,7 +3294,7 @@
         <v>98</v>
       </c>
       <c r="D62" s="22" t="e">
-        <f>VLOOKUP(E61,Product!A$58:B61,1)</f>
+        <f>VLOOKUP(Product!A61,Product!A61:B117,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -3327,7 +3327,7 @@
         <v>98</v>
       </c>
       <c r="D63" s="22" t="e">
-        <f>VLOOKUP(E62,Product!A$58:B62,1)</f>
+        <f>VLOOKUP(Product!A62,Product!A62:B118,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -3360,7 +3360,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="22" t="e">
-        <f>VLOOKUP(E63,Product!A$58:B63,1)</f>
+        <f>VLOOKUP(Product!A63,Product!A63:B119,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -3392,9 +3392,9 @@
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="22" t="str">
-        <f>VLOOKUP(E64,Product!A$58:B64,1)</f>
-        <v>Emergency lights</v>
+      <c r="D65" s="22" t="e">
+        <f>VLOOKUP(Product!A64,Product!A64:B120,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>32</v>
@@ -3426,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="22" t="e">
-        <f>VLOOKUP(E65,Product!A$58:B65,1)</f>
+        <f>VLOOKUP(Product!A65,Product!A65:B121,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -3458,9 +3458,9 @@
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="22" t="str">
-        <f>VLOOKUP(E66,Product!A$58:B66,1)</f>
-        <v>Emergency lights</v>
+      <c r="D67" s="22" t="e">
+        <f>VLOOKUP(Product!A66,Product!A66:B122,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>25</v>
@@ -3492,7 +3492,7 @@
         <v>175</v>
       </c>
       <c r="D68" s="22" t="e">
-        <f>VLOOKUP(E67,Product!A$58:B67,1)</f>
+        <f>VLOOKUP(Product!A67,Product!A67:B123,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -3525,7 +3525,7 @@
         <v>175</v>
       </c>
       <c r="D69" s="22" t="e">
-        <f>VLOOKUP(E68,Product!A$58:B68,1)</f>
+        <f>VLOOKUP(Product!A68,Product!A68:B124,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -3557,9 +3557,9 @@
       <c r="C70" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="22" t="str">
-        <f>VLOOKUP(E69,Product!A$58:B69,1)</f>
-        <v>Emergency lights</v>
+      <c r="D70" s="22" t="e">
+        <f>VLOOKUP(Product!A69,Product!A69:B125,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
@@ -3591,7 +3591,7 @@
         <v>97</v>
       </c>
       <c r="D71" s="22" t="e">
-        <f>VLOOKUP(E70,Product!A$58:B70,1)</f>
+        <f>VLOOKUP(Product!A70,Product!A70:B126,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -3624,7 +3624,7 @@
         <v>176</v>
       </c>
       <c r="D72" s="22" t="e">
-        <f>VLOOKUP(E71,Product!A$58:B71,1)</f>
+        <f>VLOOKUP(Product!A71,Product!A71:B127,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -3657,7 +3657,7 @@
         <v>176</v>
       </c>
       <c r="D73" s="22" t="e">
-        <f>VLOOKUP(E72,Product!A$58:B72,1)</f>
+        <f>VLOOKUP(Product!A72,Product!A72:B128,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -3689,9 +3689,9 @@
       <c r="C74" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D74" s="22" t="str">
-        <f>VLOOKUP(E73,Product!A$58:B73,1)</f>
-        <v>Emergency lights</v>
+      <c r="D74" s="22" t="e">
+        <f>VLOOKUP(Product!A73,Product!A73:B129,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>43</v>
@@ -3722,9 +3722,9 @@
       <c r="C75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D75" s="22" t="str">
-        <f>VLOOKUP(E74,Product!A$58:B74,1)</f>
-        <v>Emergency lights</v>
+      <c r="D75" s="22" t="e">
+        <f>VLOOKUP(Product!A74,Product!A74:B130,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>33</v>
@@ -3755,9 +3755,9 @@
       <c r="C76" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="22" t="str">
-        <f>VLOOKUP(E75,Product!A$58:B75,1)</f>
-        <v>Emergency lights</v>
+      <c r="D76" s="22" t="e">
+        <f>VLOOKUP(Product!A75,Product!A75:B131,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>27</v>
@@ -3788,9 +3788,9 @@
       <c r="C77" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="22" t="str">
-        <f>VLOOKUP(E76,Product!A$58:B76,1)</f>
-        <v>Emergency lights</v>
+      <c r="D77" s="22" t="e">
+        <f>VLOOKUP(Product!A76,Product!A76:B132,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>83</v>
@@ -3822,7 +3822,7 @@
         <v>172</v>
       </c>
       <c r="D78" s="22" t="e">
-        <f>VLOOKUP(E77,Product!A$58:B77,1)</f>
+        <f>VLOOKUP(Product!A77,Product!A77:B133,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -3855,7 +3855,7 @@
         <v>172</v>
       </c>
       <c r="D79" s="22" t="e">
-        <f>VLOOKUP(E78,Product!A$58:B78,1)</f>
+        <f>VLOOKUP(Product!A78,Product!A78:B134,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -3887,9 +3887,9 @@
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="22" t="str">
-        <f>VLOOKUP(E79,Product!A$58:B79,1)</f>
-        <v>Emergency lights</v>
+      <c r="D80" s="22" t="e">
+        <f>VLOOKUP(Product!A79,Product!A79:B135,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>9</v>
@@ -3921,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="22" t="e">
-        <f>VLOOKUP(E80,Product!A$58:B80,1)</f>
+        <f>VLOOKUP(Product!A80,Product!A80:B136,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -3954,7 +3954,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="22" t="e">
-        <f>VLOOKUP(E81,Product!A$58:B81,1)</f>
+        <f>VLOOKUP(Product!A81,Product!A81:B137,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -3987,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="22" t="e">
-        <f>VLOOKUP(E82,Product!A$58:B82,1)</f>
+        <f>VLOOKUP(Product!A82,Product!A82:B138,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -4019,9 +4019,9 @@
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="22" t="str">
-        <f>VLOOKUP(E83,Product!A$58:B83,1)</f>
-        <v>Emergency lights</v>
+      <c r="D84" s="22" t="e">
+        <f>VLOOKUP(Product!A83,Product!A83:B139,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>33</v>
@@ -4052,9 +4052,9 @@
       <c r="C85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="22" t="str">
-        <f>VLOOKUP(E84,Product!A$58:B84,1)</f>
-        <v>Emergency lights</v>
+      <c r="D85" s="22" t="e">
+        <f>VLOOKUP(Product!A84,Product!A84:B140,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>43</v>
@@ -4085,9 +4085,9 @@
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="22" t="str">
-        <f>VLOOKUP(E85,Product!A$58:B85,1)</f>
-        <v>Emergency lights</v>
+      <c r="D86" s="22" t="e">
+        <f>VLOOKUP(Product!A85,Product!A85:B141,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>75</v>
@@ -4118,9 +4118,9 @@
       <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="22" t="str">
-        <f>VLOOKUP(E86,Product!A$58:B86,1)</f>
-        <v>Emergency lights</v>
+      <c r="D87" s="22" t="e">
+        <f>VLOOKUP(Product!A86,Product!A86:B142,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>25</v>
@@ -4152,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="22" t="e">
-        <f>VLOOKUP(E87,Product!A$58:B87,1)</f>
+        <f>VLOOKUP(Product!A87,Product!A87:B143,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -4184,9 +4184,9 @@
       <c r="C89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="22" t="str">
-        <f>VLOOKUP(E88,Product!A$58:B88,1)</f>
-        <v>Emergency lights</v>
+      <c r="D89" s="22" t="e">
+        <f>VLOOKUP(Product!A88,Product!A88:B144,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>27</v>
@@ -4217,9 +4217,9 @@
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="22" t="str">
-        <f>VLOOKUP(E89,Product!A$58:B89,1)</f>
-        <v>Emergency lights</v>
+      <c r="D90" s="22" t="e">
+        <f>VLOOKUP(Product!A89,Product!A89:B145,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>60</v>
@@ -4250,9 +4250,9 @@
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="22" t="str">
-        <f>VLOOKUP(E90,Product!A$58:B90,1)</f>
-        <v>Emergency lights</v>
+      <c r="D91" s="22" t="e">
+        <f>VLOOKUP(Product!A90,Product!A90:B146,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>81</v>
@@ -4283,9 +4283,9 @@
       <c r="C92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="22" t="str">
-        <f>VLOOKUP(E91,Product!A$58:B91,1)</f>
-        <v>Emergency lights</v>
+      <c r="D92" s="22" t="e">
+        <f>VLOOKUP(Product!A91,Product!A91:B147,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>28</v>
@@ -4317,7 +4317,7 @@
         <v>178</v>
       </c>
       <c r="D93" s="22" t="e">
-        <f>VLOOKUP(E92,Product!A$58:B92,1)</f>
+        <f>VLOOKUP(Product!A92,Product!A92:B148,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -4350,7 +4350,7 @@
         <v>178</v>
       </c>
       <c r="D94" s="22" t="e">
-        <f>VLOOKUP(E93,Product!A$58:B93,1)</f>
+        <f>VLOOKUP(Product!A93,Product!A93:B149,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -4383,7 +4383,7 @@
         <v>178</v>
       </c>
       <c r="D95" s="22" t="e">
-        <f>VLOOKUP(E94,Product!A$58:B94,1)</f>
+        <f>VLOOKUP(Product!A94,Product!A94:B150,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4416,7 +4416,7 @@
         <v>178</v>
       </c>
       <c r="D96" s="22" t="e">
-        <f>VLOOKUP(E95,Product!A$58:B95,1)</f>
+        <f>VLOOKUP(Product!A95,Product!A95:B151,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -4448,9 +4448,9 @@
       <c r="C97" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D97" s="22" t="str">
-        <f>VLOOKUP(E96,Product!A$58:B96,1)</f>
-        <v>Emergency lights</v>
+      <c r="D97" s="22" t="e">
+        <f>VLOOKUP(Product!A96,Product!A96:B152,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>29</v>
@@ -4481,9 +4481,9 @@
       <c r="C98" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="22" t="str">
-        <f>VLOOKUP(E97,Product!A$58:B97,1)</f>
-        <v>Emergency lights</v>
+      <c r="D98" s="22" t="e">
+        <f>VLOOKUP(Product!A97,Product!A97:B153,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>16</v>
@@ -4514,9 +4514,9 @@
       <c r="C99" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="22" t="str">
-        <f>VLOOKUP(E98,Product!A$58:B98,1)</f>
-        <v>Emergency lights</v>
+      <c r="D99" s="22" t="e">
+        <f>VLOOKUP(Product!A98,Product!A98:B154,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>30</v>
@@ -4548,7 +4548,7 @@
         <v>178</v>
       </c>
       <c r="D100" s="22" t="e">
-        <f>VLOOKUP(E99,Product!A$58:B99,1)</f>
+        <f>VLOOKUP(Product!A99,Product!A99:B155,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -4581,7 +4581,7 @@
         <v>178</v>
       </c>
       <c r="D101" s="22" t="e">
-        <f>VLOOKUP(E100,Product!A$58:B100,1)</f>
+        <f>VLOOKUP(Product!A100,Product!A100:B156,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -4613,9 +4613,9 @@
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="22" t="str">
-        <f>VLOOKUP(E101,Product!A$58:B101,1)</f>
-        <v>Emergency lights</v>
+      <c r="D102" s="22" t="e">
+        <f>VLOOKUP(Product!A101,Product!A101:B157,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>58</v>
@@ -4647,7 +4647,7 @@
         <v>177</v>
       </c>
       <c r="D103" s="22" t="e">
-        <f>VLOOKUP(E102,Product!A$58:B102,1)</f>
+        <f>VLOOKUP(Product!A102,Product!A102:B158,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -4679,9 +4679,9 @@
       <c r="C104" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D104" s="22" t="str">
-        <f>VLOOKUP(E103,Product!A$58:B103,1)</f>
-        <v>Emergency lights</v>
+      <c r="D104" s="22" t="e">
+        <f>VLOOKUP(Product!A103,Product!A103:B159,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>22</v>
@@ -4713,7 +4713,7 @@
         <v>99</v>
       </c>
       <c r="D105" s="22" t="e">
-        <f>VLOOKUP(E104,Product!A$58:B104,1)</f>
+        <f>VLOOKUP(Product!A104,Product!A104:B160,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -4746,7 +4746,7 @@
         <v>99</v>
       </c>
       <c r="D106" s="22" t="e">
-        <f>VLOOKUP(E105,Product!A$58:B105,1)</f>
+        <f>VLOOKUP(Product!A105,Product!A105:B161,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -4779,7 +4779,7 @@
         <v>99</v>
       </c>
       <c r="D107" s="22" t="e">
-        <f>VLOOKUP(E106,Product!A$58:B106,1)</f>
+        <f>VLOOKUP(Product!A106,Product!A106:B162,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -4812,7 +4812,7 @@
         <v>99</v>
       </c>
       <c r="D108" s="22" t="e">
-        <f>VLOOKUP(E107,Product!A$58:B107,1)</f>
+        <f>VLOOKUP(Product!A107,Product!A107:B163,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -4845,7 +4845,7 @@
         <v>99</v>
       </c>
       <c r="D109" s="22" t="e">
-        <f>VLOOKUP(E108,Product!A$58:B108,1)</f>
+        <f>VLOOKUP(Product!A108,Product!A108:B164,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -4877,9 +4877,9 @@
       <c r="C110" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D110" s="22" t="str">
-        <f>VLOOKUP(E109,Product!A$58:B109,1)</f>
-        <v>Emergency lights</v>
+      <c r="D110" s="22" t="e">
+        <f>VLOOKUP(Product!A109,Product!A109:B165,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>75</v>
@@ -4910,9 +4910,9 @@
       <c r="C111" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D111" s="22" t="str">
-        <f>VLOOKUP(E110,Product!A$58:B110,1)</f>
-        <v>Emergency lights</v>
+      <c r="D111" s="22" t="e">
+        <f>VLOOKUP(Product!A110,Product!A110:B166,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>33</v>
@@ -4943,9 +4943,9 @@
       <c r="C112" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D112" s="22" t="str">
-        <f>VLOOKUP(E111,Product!A$58:B111,1)</f>
-        <v>Emergency lights</v>
+      <c r="D112" s="22" t="e">
+        <f>VLOOKUP(Product!A111,Product!A111:B167,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>60</v>
@@ -4976,9 +4976,9 @@
       <c r="C113" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D113" s="22" t="str">
-        <f>VLOOKUP(E112,Product!A$58:B112,1)</f>
-        <v>Emergency lights</v>
+      <c r="D113" s="22" t="e">
+        <f>VLOOKUP(Product!A112,Product!A112:B168,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>27</v>
@@ -5009,9 +5009,9 @@
       <c r="C114" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D114" s="22" t="str">
-        <f>VLOOKUP(E113,Product!A$58:B113,1)</f>
-        <v>Emergency lights</v>
+      <c r="D114" s="22" t="e">
+        <f>VLOOKUP(Product!A113,Product!A113:B169,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>27</v>
@@ -5042,9 +5042,9 @@
       <c r="C115" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D115" s="22" t="str">
-        <f>VLOOKUP(E114,Product!A$58:B114,1)</f>
-        <v>Emergency lights</v>
+      <c r="D115" s="22" t="e">
+        <f>VLOOKUP(Product!A114,Product!A114:B170,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>30</v>
@@ -5076,7 +5076,7 @@
         <v>99</v>
       </c>
       <c r="D116" s="22" t="e">
-        <f>VLOOKUP(E115,Product!A$58:B115,1)</f>
+        <f>VLOOKUP(Product!A115,Product!A115:B171,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -5108,9 +5108,9 @@
       <c r="C117" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D117" s="22" t="str">
-        <f>VLOOKUP(E116,Product!A$58:B116,1)</f>
-        <v>Emergency lights</v>
+      <c r="D117" s="22" t="e">
+        <f>VLOOKUP(Product!A116,Product!A116:B172,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>24</v>
@@ -5141,9 +5141,9 @@
       <c r="C118" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D118" s="22" t="str">
-        <f>VLOOKUP(E117,Product!A$58:B117,1)</f>
-        <v>Emergency lights</v>
+      <c r="D118" s="22" t="e">
+        <f>VLOOKUP(Product!A117,Product!A117:B173,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>43</v>
@@ -5174,9 +5174,9 @@
       <c r="C119" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D119" s="22" t="str">
-        <f>VLOOKUP(E118,Product!A$58:B118,1)</f>
-        <v>Emergency lights</v>
+      <c r="D119" s="22" t="e">
+        <f>VLOOKUP(Product!A118,Product!A118:B174,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>66</v>
@@ -5208,7 +5208,7 @@
         <v>172</v>
       </c>
       <c r="D120" s="22" t="e">
-        <f>VLOOKUP(E119,Product!A$58:B119,1)</f>
+        <f>VLOOKUP(Product!A119,Product!A119:B175,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -5241,7 +5241,7 @@
         <v>179</v>
       </c>
       <c r="D121" s="22" t="e">
-        <f>VLOOKUP(E120,Product!A$58:B120,1)</f>
+        <f>VLOOKUP(Product!A120,Product!A120:B176,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -5274,7 +5274,7 @@
         <v>179</v>
       </c>
       <c r="D122" s="22" t="e">
-        <f>VLOOKUP(E121,Product!A$58:B121,1)</f>
+        <f>VLOOKUP(Product!A121,Product!A121:B177,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -5307,7 +5307,7 @@
         <v>179</v>
       </c>
       <c r="D123" s="22" t="e">
-        <f>VLOOKUP(E122,Product!A$58:B122,1)</f>
+        <f>VLOOKUP(Product!A122,Product!A122:B178,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -5339,9 +5339,9 @@
       <c r="C124" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D124" s="22" t="str">
-        <f>VLOOKUP(E123,Product!A$58:B123,1)</f>
-        <v>Emergency lights</v>
+      <c r="D124" s="22" t="e">
+        <f>VLOOKUP(Product!A123,Product!A123:B179,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>34</v>
@@ -5372,9 +5372,9 @@
       <c r="C125" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D125" s="22" t="str">
-        <f>VLOOKUP(E124,Product!A$58:B124,1)</f>
-        <v>Emergency lights</v>
+      <c r="D125" s="22" t="e">
+        <f>VLOOKUP(Product!A124,Product!A124:B180,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>6</v>
@@ -5406,7 +5406,7 @@
         <v>179</v>
       </c>
       <c r="D126" s="22" t="e">
-        <f>VLOOKUP(E125,Product!A$58:B125,1)</f>
+        <f>VLOOKUP(Product!A125,Product!A125:B181,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -5439,7 +5439,7 @@
         <v>179</v>
       </c>
       <c r="D127" s="22" t="e">
-        <f>VLOOKUP(E126,Product!A$58:B126,1)</f>
+        <f>VLOOKUP(Product!A126,Product!A126:B182,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -5472,7 +5472,7 @@
         <v>179</v>
       </c>
       <c r="D128" s="22" t="e">
-        <f>VLOOKUP(E127,Product!A$58:B127,1)</f>
+        <f>VLOOKUP(Product!A127,Product!A127:B183,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -5505,7 +5505,7 @@
         <v>179</v>
       </c>
       <c r="D129" s="22" t="e">
-        <f>VLOOKUP(E128,Product!A$58:B128,1)</f>
+        <f>VLOOKUP(Product!A128,Product!A128:B184,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -5538,7 +5538,7 @@
         <v>179</v>
       </c>
       <c r="D130" s="22" t="e">
-        <f>VLOOKUP(E129,Product!A$58:B129,1)</f>
+        <f>VLOOKUP(Product!A129,Product!A129:B185,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -5570,9 +5570,9 @@
       <c r="C131" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D131" s="22" t="str">
-        <f>VLOOKUP(E130,Product!A$58:B130,1)</f>
-        <v>Emergency lights</v>
+      <c r="D131" s="22" t="e">
+        <f>VLOOKUP(Product!A130,Product!A130:B186,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>77</v>
@@ -5603,9 +5603,9 @@
       <c r="C132" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D132" s="22" t="str">
-        <f>VLOOKUP(E131,Product!A$58:B131,1)</f>
-        <v>Emergency lights</v>
+      <c r="D132" s="22" t="e">
+        <f>VLOOKUP(Product!A131,Product!A131:B187,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>21</v>
@@ -5636,9 +5636,9 @@
       <c r="C133" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D133" s="22" t="str">
-        <f>VLOOKUP(E132,Product!A$58:B132,1)</f>
-        <v>Emergency lights</v>
+      <c r="D133" s="22" t="e">
+        <f>VLOOKUP(Product!A132,Product!A132:B188,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>21</v>
@@ -5669,9 +5669,9 @@
       <c r="C134" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D134" s="22" t="str">
-        <f>VLOOKUP(E133,Product!A$58:B133,1)</f>
-        <v>Emergency lights</v>
+      <c r="D134" s="22" t="e">
+        <f>VLOOKUP(Product!A133,Product!A133:B189,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>32</v>
@@ -5703,7 +5703,7 @@
         <v>162</v>
       </c>
       <c r="D135" s="22" t="e">
-        <f>VLOOKUP(E134,Product!A$58:B134,1)</f>
+        <f>VLOOKUP(Product!A134,Product!A134:B190,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -5735,9 +5735,9 @@
       <c r="C136" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D136" s="22" t="str">
-        <f>VLOOKUP(E135,Product!A$58:B135,1)</f>
-        <v>Emergency lights</v>
+      <c r="D136" s="22" t="e">
+        <f>VLOOKUP(Product!A135,Product!A135:B191,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>76</v>
@@ -5768,9 +5768,9 @@
       <c r="C137" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D137" s="22" t="str">
-        <f>VLOOKUP(E136,Product!A$58:B136,1)</f>
-        <v>Emergency lights</v>
+      <c r="D137" s="22" t="e">
+        <f>VLOOKUP(Product!A136,Product!A136:B192,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>35</v>
@@ -5802,7 +5802,7 @@
         <v>162</v>
       </c>
       <c r="D138" s="22" t="e">
-        <f>VLOOKUP(E137,Product!A$58:B137,1)</f>
+        <f>VLOOKUP(Product!A137,Product!A137:B193,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -5835,7 +5835,7 @@
         <v>162</v>
       </c>
       <c r="D139" s="22" t="e">
-        <f>VLOOKUP(E138,Product!A$58:B138,1)</f>
+        <f>VLOOKUP(Product!A138,Product!A138:B194,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -5867,9 +5867,9 @@
       <c r="C140" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D140" s="22" t="str">
-        <f>VLOOKUP(E139,Product!A$58:B139,1)</f>
-        <v>Emergency lights</v>
+      <c r="D140" s="22" t="e">
+        <f>VLOOKUP(Product!A139,Product!A139:B195,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>14</v>
@@ -5901,7 +5901,7 @@
         <v>162</v>
       </c>
       <c r="D141" s="22" t="e">
-        <f>VLOOKUP(E140,Product!A$58:B140,1)</f>
+        <f>VLOOKUP(Product!A140,Product!A140:B196,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -5934,7 +5934,7 @@
         <v>162</v>
       </c>
       <c r="D142" s="22" t="e">
-        <f>VLOOKUP(E141,Product!A$58:B141,1)</f>
+        <f>VLOOKUP(Product!A141,Product!A141:B197,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -5967,7 +5967,7 @@
         <v>100</v>
       </c>
       <c r="D143" s="22" t="e">
-        <f>VLOOKUP(E142,Product!A$58:B142,1)</f>
+        <f>VLOOKUP(Product!A142,Product!A142:B198,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -6000,7 +6000,7 @@
         <v>100</v>
       </c>
       <c r="D144" s="22" t="e">
-        <f>VLOOKUP(E143,Product!A$58:B143,1)</f>
+        <f>VLOOKUP(Product!A143,Product!A143:B199,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -6032,9 +6032,9 @@
       <c r="C145" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D145" s="22" t="str">
-        <f>VLOOKUP(E144,Product!A$58:B144,1)</f>
-        <v>Emergency lights</v>
+      <c r="D145" s="22" t="e">
+        <f>VLOOKUP(Product!A144,Product!A144:B200,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>24</v>
@@ -6065,9 +6065,9 @@
       <c r="C146" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D146" s="22" t="str">
-        <f>VLOOKUP(E145,Product!A$58:B145,1)</f>
-        <v>Emergency lights</v>
+      <c r="D146" s="22" t="e">
+        <f>VLOOKUP(Product!A145,Product!A145:B201,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>6</v>
@@ -6099,7 +6099,7 @@
         <v>180</v>
       </c>
       <c r="D147" s="22" t="e">
-        <f>VLOOKUP(E146,Product!A$58:B146,1)</f>
+        <f>VLOOKUP(Product!A146,Product!A146:B202,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -6132,7 +6132,7 @@
         <v>173</v>
       </c>
       <c r="D148" s="22" t="e">
-        <f>VLOOKUP(E147,Product!A$58:B147,1)</f>
+        <f>VLOOKUP(Product!A147,Product!A147:B203,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -6165,7 +6165,7 @@
         <v>102</v>
       </c>
       <c r="D149" s="22" t="e">
-        <f>VLOOKUP(E148,Product!A$58:B148,1)</f>
+        <f>VLOOKUP(Product!A148,Product!A148:B204,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -6198,7 +6198,7 @@
         <v>102</v>
       </c>
       <c r="D150" s="22" t="e">
-        <f>VLOOKUP(E149,Product!A$58:B149,1)</f>
+        <f>VLOOKUP(Product!A149,Product!A149:B205,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -6231,7 +6231,7 @@
         <v>181</v>
       </c>
       <c r="D151" s="22" t="e">
-        <f>VLOOKUP(E150,Product!A$58:B150,1)</f>
+        <f>VLOOKUP(Product!A150,Product!A150:B206,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -6263,9 +6263,9 @@
       <c r="C152" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D152" s="22" t="str">
-        <f>VLOOKUP(E151,Product!A$58:B151,1)</f>
-        <v>Emergency lights</v>
+      <c r="D152" s="22" t="e">
+        <f>VLOOKUP(Product!A151,Product!A151:B207,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>11</v>
@@ -6297,7 +6297,7 @@
         <v>181</v>
       </c>
       <c r="D153" s="22" t="e">
-        <f>VLOOKUP(E152,Product!A$58:B152,1)</f>
+        <f>VLOOKUP(Product!A152,Product!A152:B208,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -6329,9 +6329,9 @@
       <c r="C154" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D154" s="22" t="str">
-        <f>VLOOKUP(E153,Product!A$58:B153,1)</f>
-        <v>Emergency lights</v>
+      <c r="D154" s="22" t="e">
+        <f>VLOOKUP(Product!A153,Product!A153:B209,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>60</v>
@@ -6362,9 +6362,9 @@
       <c r="C155" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D155" s="22" t="str">
-        <f>VLOOKUP(E154,Product!A$58:B154,1)</f>
-        <v>Emergency lights</v>
+      <c r="D155" s="22" t="e">
+        <f>VLOOKUP(Product!A154,Product!A154:B210,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>67</v>
@@ -6396,7 +6396,7 @@
         <v>177</v>
       </c>
       <c r="D156" s="22" t="e">
-        <f>VLOOKUP(E155,Product!A$58:B155,1)</f>
+        <f>VLOOKUP(Product!A155,Product!A155:B211,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -6429,7 +6429,7 @@
         <v>101</v>
       </c>
       <c r="D157" s="22" t="e">
-        <f>VLOOKUP(E156,Product!A$58:B156,1)</f>
+        <f>VLOOKUP(Product!A156,Product!A156:B212,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -6461,9 +6461,9 @@
       <c r="C158" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D158" s="22" t="str">
-        <f>VLOOKUP(E157,Product!A$58:B157,1)</f>
-        <v>Emergency lights</v>
+      <c r="D158" s="22" t="e">
+        <f>VLOOKUP(Product!A157,Product!A157:B213,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>59</v>
@@ -6495,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="D159" s="22" t="e">
-        <f>VLOOKUP(E158,Product!A$58:B158,1)</f>
+        <f>VLOOKUP(Product!A158,Product!A158:B214,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -6528,7 +6528,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="22" t="e">
-        <f>VLOOKUP(E159,Product!A$58:B159,1)</f>
+        <f>VLOOKUP(Product!A159,Product!A159:B215,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="22" t="e">
-        <f>VLOOKUP(E160,Product!A$58:B160,1)</f>
+        <f>VLOOKUP(Product!A160,Product!A160:B216,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -6593,9 +6593,9 @@
       <c r="C162" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D162" s="22" t="str">
-        <f>VLOOKUP(E161,Product!A$58:B161,1)</f>
-        <v>Emergency lights</v>
+      <c r="D162" s="22" t="e">
+        <f>VLOOKUP(Product!A161,Product!A161:B217,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>60</v>
@@ -6626,9 +6626,9 @@
       <c r="C163" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D163" s="22" t="str">
-        <f>VLOOKUP(E162,Product!A$58:B162,1)</f>
-        <v>Emergency lights</v>
+      <c r="D163" s="22" t="e">
+        <f>VLOOKUP(Product!A162,Product!A162:B218,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>24</v>
@@ -6659,9 +6659,9 @@
       <c r="C164" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D164" s="22" t="str">
-        <f>VLOOKUP(E163,Product!A$58:B163,1)</f>
-        <v>Emergency lights</v>
+      <c r="D164" s="22" t="e">
+        <f>VLOOKUP(Product!A163,Product!A163:B219,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>8</v>
@@ -6692,9 +6692,9 @@
       <c r="C165" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D165" s="22" t="str">
-        <f>VLOOKUP(E164,Product!A$58:B164,1)</f>
-        <v>Emergency lights</v>
+      <c r="D165" s="22" t="e">
+        <f>VLOOKUP(Product!A164,Product!A164:B220,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>7</v>
@@ -6726,7 +6726,7 @@
         <v>162</v>
       </c>
       <c r="D166" s="22" t="e">
-        <f>VLOOKUP(E165,Product!A$58:B165,1)</f>
+        <f>VLOOKUP(Product!A165,Product!A165:B221,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E166" s="1" t="s">
@@ -6759,7 +6759,7 @@
         <v>162</v>
       </c>
       <c r="D167" s="22" t="e">
-        <f>VLOOKUP(E166,Product!A$58:B166,1)</f>
+        <f>VLOOKUP(Product!A166,Product!A166:B222,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -6791,9 +6791,9 @@
       <c r="C168" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D168" s="22" t="str">
-        <f>VLOOKUP(E167,Product!A$58:B167,1)</f>
-        <v>Emergency lights</v>
+      <c r="D168" s="22" t="e">
+        <f>VLOOKUP(Product!A167,Product!A167:B223,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>77</v>
@@ -6824,9 +6824,9 @@
       <c r="C169" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D169" s="22" t="str">
-        <f>VLOOKUP(E168,Product!A$58:B168,1)</f>
-        <v>Emergency lights</v>
+      <c r="D169" s="22" t="e">
+        <f>VLOOKUP(Product!A168,Product!A168:B224,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>33</v>
@@ -6857,9 +6857,9 @@
       <c r="C170" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D170" s="22" t="str">
-        <f>VLOOKUP(E169,Product!A$58:B169,1)</f>
-        <v>Emergency lights</v>
+      <c r="D170" s="22" t="e">
+        <f>VLOOKUP(Product!A169,Product!A169:B225,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>32</v>
@@ -6891,7 +6891,7 @@
         <v>182</v>
       </c>
       <c r="D171" s="22" t="e">
-        <f>VLOOKUP(E170,Product!A$58:B170,1)</f>
+        <f>VLOOKUP(Product!A170,Product!A170:B226,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -6923,9 +6923,9 @@
       <c r="C172" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="22" t="str">
-        <f>VLOOKUP(E171,Product!A$58:B171,1)</f>
-        <v>Emergency lights</v>
+      <c r="D172" s="22" t="e">
+        <f>VLOOKUP(Product!A171,Product!A171:B227,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>6</v>
@@ -6957,7 +6957,7 @@
         <v>98</v>
       </c>
       <c r="D173" s="22" t="e">
-        <f>VLOOKUP(E172,Product!A$58:B172,1)</f>
+        <f>VLOOKUP(Product!A172,Product!A172:B228,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -6990,7 +6990,7 @@
         <v>98</v>
       </c>
       <c r="D174" s="22" t="e">
-        <f>VLOOKUP(E173,Product!A$58:B173,1)</f>
+        <f>VLOOKUP(Product!A173,Product!A173:B229,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -7023,7 +7023,7 @@
         <v>98</v>
       </c>
       <c r="D175" s="22" t="e">
-        <f>VLOOKUP(E174,Product!A$58:B174,1)</f>
+        <f>VLOOKUP(Product!A174,Product!A174:B230,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -7056,7 +7056,7 @@
         <v>98</v>
       </c>
       <c r="D176" s="22" t="e">
-        <f>VLOOKUP(E175,Product!A$58:B175,1)</f>
+        <f>VLOOKUP(Product!A175,Product!A175:B231,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E176" s="1" t="s">
@@ -7088,9 +7088,9 @@
       <c r="C177" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D177" s="22" t="str">
-        <f>VLOOKUP(E176,Product!A$58:B176,1)</f>
-        <v>Emergency lights</v>
+      <c r="D177" s="22" t="e">
+        <f>VLOOKUP(Product!A176,Product!A176:B232,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>40</v>
@@ -7121,9 +7121,9 @@
       <c r="C178" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D178" s="22" t="str">
-        <f>VLOOKUP(E177,Product!A$58:B177,1)</f>
-        <v>Emergency lights</v>
+      <c r="D178" s="22" t="e">
+        <f>VLOOKUP(Product!A177,Product!A177:B233,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>59</v>
@@ -7155,7 +7155,7 @@
         <v>184</v>
       </c>
       <c r="D179" s="22" t="e">
-        <f>VLOOKUP(E178,Product!A$58:B178,1)</f>
+        <f>VLOOKUP(Product!A178,Product!A178:B234,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -7188,7 +7188,7 @@
         <v>184</v>
       </c>
       <c r="D180" s="22" t="e">
-        <f>VLOOKUP(E179,Product!A$58:B179,1)</f>
+        <f>VLOOKUP(Product!A179,Product!A179:B235,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -7221,7 +7221,7 @@
         <v>184</v>
       </c>
       <c r="D181" s="22" t="e">
-        <f>VLOOKUP(E180,Product!A$58:B180,1)</f>
+        <f>VLOOKUP(Product!A180,Product!A180:B236,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E181" s="1" t="s">
@@ -7254,7 +7254,7 @@
         <v>184</v>
       </c>
       <c r="D182" s="22" t="e">
-        <f>VLOOKUP(E181,Product!A$58:B181,1)</f>
+        <f>VLOOKUP(Product!A181,Product!A181:B237,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -7287,7 +7287,7 @@
         <v>184</v>
       </c>
       <c r="D183" s="22" t="e">
-        <f>VLOOKUP(E182,Product!A$58:B182,1)</f>
+        <f>VLOOKUP(Product!A182,Product!A182:B238,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -7319,9 +7319,9 @@
       <c r="C184" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D184" s="22" t="str">
-        <f>VLOOKUP(E183,Product!A$58:B183,1)</f>
-        <v>Emergency lights</v>
+      <c r="D184" s="22" t="e">
+        <f>VLOOKUP(Product!A183,Product!A183:B239,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>24</v>
@@ -7352,9 +7352,9 @@
       <c r="C185" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D185" s="22" t="str">
-        <f>VLOOKUP(E184,Product!A$58:B184,1)</f>
-        <v>Emergency lights</v>
+      <c r="D185" s="22" t="e">
+        <f>VLOOKUP(Product!A184,Product!A184:B240,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>57</v>
@@ -7386,7 +7386,7 @@
         <v>185</v>
       </c>
       <c r="D186" s="22" t="e">
-        <f>VLOOKUP(E185,Product!A$58:B185,1)</f>
+        <f>VLOOKUP(Product!A185,Product!A185:B241,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E186" s="1" t="s">
@@ -7419,7 +7419,7 @@
         <v>185</v>
       </c>
       <c r="D187" s="22" t="e">
-        <f>VLOOKUP(E186,Product!A$58:B186,1)</f>
+        <f>VLOOKUP(Product!A186,Product!A186:B242,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -7452,7 +7452,7 @@
         <v>185</v>
       </c>
       <c r="D188" s="22" t="e">
-        <f>VLOOKUP(E187,Product!A$58:B187,1)</f>
+        <f>VLOOKUP(Product!A187,Product!A187:B243,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -7484,9 +7484,9 @@
       <c r="C189" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D189" s="22" t="str">
-        <f>VLOOKUP(E188,Product!A$58:B188,1)</f>
-        <v>Emergency lights</v>
+      <c r="D189" s="22" t="e">
+        <f>VLOOKUP(Product!A188,Product!A188:B244,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>37</v>
@@ -7517,9 +7517,9 @@
       <c r="C190" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D190" s="22" t="str">
-        <f>VLOOKUP(E189,Product!A$58:B189,1)</f>
-        <v>Emergency lights</v>
+      <c r="D190" s="22" t="e">
+        <f>VLOOKUP(Product!A189,Product!A189:B245,1,TRUE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>55</v>
@@ -7551,7 +7551,7 @@
         <v>173</v>
       </c>
       <c r="D191" s="22" t="e">
-        <f>VLOOKUP(E190,Product!A$58:B190,1)</f>
+        <f>VLOOKUP(Product!A190,Product!A190:B246,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -7584,7 +7584,7 @@
         <v>172</v>
       </c>
       <c r="D192" s="22" t="e">
-        <f>VLOOKUP(E191,Product!A$58:B191,1)</f>
+        <f>VLOOKUP(Product!A191,Product!A191:B247,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E192" s="1" t="s">
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="D193" s="22" t="e">
-        <f>VLOOKUP(E192,Product!A$58:B192,1)</f>
+        <f>VLOOKUP(Product!A192,Product!A192:B248,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -7650,7 +7650,7 @@
         <v>2</v>
       </c>
       <c r="D194" s="22" t="e">
-        <f>VLOOKUP(E193,Product!A$58:B193,1)</f>
+        <f>VLOOKUP(Product!A193,Product!A193:B249,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E194" s="1" t="s">
@@ -7683,7 +7683,7 @@
         <v>101</v>
       </c>
       <c r="D195" s="22" t="e">
-        <f>VLOOKUP(E194,Product!A$58:B194,1)</f>
+        <f>VLOOKUP(Product!A194,Product!A194:B250,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="D196" s="22" t="e">
-        <f>VLOOKUP(E195,Product!A$58:B195,1)</f>
+        <f>VLOOKUP(Product!A195,Product!A195:B251,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -7749,7 +7749,7 @@
         <v>99</v>
       </c>
       <c r="D197" s="22" t="e">
-        <f>VLOOKUP(E196,Product!A$58:B196,1)</f>
+        <f>VLOOKUP(Product!A196,Product!A196:B252,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E197" s="1" t="s">
@@ -7782,7 +7782,7 @@
         <v>181</v>
       </c>
       <c r="D198" s="22" t="e">
-        <f>VLOOKUP(E197,Product!A$58:B197,1)</f>
+        <f>VLOOKUP(Product!A197,Product!A197:B253,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -7815,7 +7815,7 @@
         <v>101</v>
       </c>
       <c r="D199" s="22" t="e">
-        <f>VLOOKUP(E198,Product!A$58:B198,1)</f>
+        <f>VLOOKUP(Product!A198,Product!A198:B254,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -7848,7 +7848,7 @@
         <v>173</v>
       </c>
       <c r="D200" s="22" t="e">
-        <f>VLOOKUP(E199,Product!A$58:B199,1)</f>
+        <f>VLOOKUP(Product!A199,Product!A199:B255,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -7881,7 +7881,7 @@
         <v>173</v>
       </c>
       <c r="D201" s="22" t="e">
-        <f>VLOOKUP(E200,Product!A$58:B200,1)</f>
+        <f>VLOOKUP(Product!A200,Product!A200:B256,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="D202" s="22" t="e">
-        <f>VLOOKUP(E201,Product!A$58:B201,1)</f>
+        <f>VLOOKUP(Product!A201,Product!A201:B257,1,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E202" s="1" t="s">
@@ -7937,6 +7937,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D3:D202" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777801" right="0.39305555555555599" top="0.43263888888888902" bottom="0.55000000000000004" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -8004,8 +8005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E86A9D-9857-4BBF-88C2-89172DCB0BBC}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -8644,8 +8645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -8674,7 +8675,10 @@
       <c r="B2" s="18">
         <v>3106</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="24">
+        <f>SUM(Sales!F3:F202)</f>
+        <v>65926</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
@@ -8683,7 +8687,10 @@
       <c r="B3" s="18">
         <v>2417</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="24">
+        <f>SUM(Sales!F4:F203)</f>
+        <v>65876</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="9" t="s">
@@ -8692,7 +8699,10 @@
       <c r="B4" s="18">
         <v>1128</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="24">
+        <f>SUM(Sales!F5:F204)</f>
+        <v>65776</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="9" t="s">
@@ -8701,7 +8711,10 @@
       <c r="B5" s="18">
         <v>638</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="24">
+        <f>SUM(Sales!F6:F205)</f>
+        <v>65726</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
@@ -8710,7 +8723,10 @@
       <c r="B6" s="18">
         <v>6173</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="24">
+        <f>SUM(Sales!F7:F206)</f>
+        <v>65706</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="9" t="s">
@@ -8719,7 +8735,10 @@
       <c r="B7" s="18">
         <v>114</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="24">
+        <f>SUM(Sales!F8:F207)</f>
+        <v>65206</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
@@ -8728,7 +8747,10 @@
       <c r="B8" s="18">
         <v>282</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="24">
+        <f>SUM(Sales!F9:F208)</f>
+        <v>64706</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
@@ -8737,7 +8759,10 @@
       <c r="B9" s="18">
         <v>207</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="24">
+        <f>SUM(Sales!F10:F209)</f>
+        <v>63206</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
@@ -8746,7 +8771,10 @@
       <c r="B10" s="18">
         <v>2112</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="24">
+        <f>SUM(Sales!F11:F210)</f>
+        <v>62206</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
@@ -8755,7 +8783,10 @@
       <c r="B11" s="18">
         <v>905</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="24">
+        <f>SUM(Sales!F12:F211)</f>
+        <v>58606</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
@@ -8764,7 +8795,10 @@
       <c r="B12" s="18">
         <v>8414</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="24">
+        <f>SUM(Sales!F13:F212)</f>
+        <v>57256</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
@@ -8773,7 +8807,10 @@
       <c r="B13" s="18">
         <v>2045</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="24">
+        <f>SUM(Sales!F14:F213)</f>
+        <v>56356</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
@@ -8782,7 +8819,10 @@
       <c r="B14" s="18">
         <v>180</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="24">
+        <f>SUM(Sales!F15:F214)</f>
+        <v>55606</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
@@ -8791,7 +8831,10 @@
       <c r="B15" s="18">
         <v>81</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="24">
+        <f>SUM(Sales!F16:F215)</f>
+        <v>55106</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
@@ -8800,7 +8843,10 @@
       <c r="B16" s="18">
         <v>96</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="24">
+        <f>SUM(Sales!F17:F216)</f>
+        <v>53106</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
@@ -8809,7 +8855,10 @@
       <c r="B17" s="18">
         <v>13765</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="24">
+        <f>SUM(Sales!F18:F217)</f>
+        <v>52626</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
@@ -8818,7 +8867,10 @@
       <c r="B18" s="18">
         <v>6</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="24">
+        <f>SUM(Sales!F19:F218)</f>
+        <v>52526</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
@@ -8827,7 +8879,10 @@
       <c r="B19" s="18">
         <v>1481</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="24">
+        <f>SUM(Sales!F20:F219)</f>
+        <v>52226</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
@@ -8836,7 +8891,10 @@
       <c r="B20" s="18">
         <v>3277</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="24">
+        <f>SUM(Sales!F21:F220)</f>
+        <v>48926</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
@@ -8845,7 +8903,10 @@
       <c r="B21" s="18">
         <v>6867</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="24">
+        <f>SUM(Sales!F22:F221)</f>
+        <v>48326</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
@@ -8854,7 +8915,10 @@
       <c r="B22" s="18">
         <v>1041</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="24">
+        <f>SUM(Sales!F23:F222)</f>
+        <v>44726</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="9" t="s">
@@ -8863,7 +8927,10 @@
       <c r="B23" s="18">
         <v>281</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="24">
+        <f>SUM(Sales!F24:F223)</f>
+        <v>44546</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
@@ -8872,7 +8939,10 @@
       <c r="B24" s="18">
         <v>106</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="24">
+        <f>SUM(Sales!F25:F224)</f>
+        <v>44446</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="9" t="s">
@@ -8881,7 +8951,10 @@
       <c r="B25" s="18">
         <v>29827</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="24">
+        <f>SUM(Sales!F26:F225)</f>
+        <v>44444</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
@@ -8890,7 +8963,10 @@
       <c r="B26" s="18">
         <v>2751</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="24">
+        <f>SUM(Sales!F27:F226)</f>
+        <v>44441</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
@@ -8899,7 +8975,10 @@
       <c r="B27" s="18">
         <v>1106</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="24">
+        <f>SUM(Sales!F28:F227)</f>
+        <v>43241</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9" t="s">
@@ -8908,7 +8987,10 @@
       <c r="B28" s="18">
         <v>1972</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="24">
+        <f>SUM(Sales!F29:F228)</f>
+        <v>42241</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
@@ -8917,7 +8999,10 @@
       <c r="B29" s="18">
         <v>4479</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="24">
+        <f>SUM(Sales!F30:F229)</f>
+        <v>39241</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
@@ -8926,7 +9011,10 @@
       <c r="B30" s="18">
         <v>238949</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="24">
+        <f>SUM(Sales!F31:F230)</f>
+        <v>39141</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
@@ -8935,7 +9023,10 @@
       <c r="B31" s="18">
         <v>7132</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="24">
+        <f>SUM(Sales!F32:F231)</f>
+        <v>39126</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="9" t="s">
@@ -8944,7 +9035,10 @@
       <c r="B32" s="18">
         <v>4344</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="24">
+        <f>SUM(Sales!F33:F232)</f>
+        <v>39121</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="9" t="s">
@@ -8953,7 +9047,10 @@
       <c r="B33" s="18">
         <v>21769</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="24">
+        <f>SUM(Sales!F34:F233)</f>
+        <v>39116</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="9" t="s">
@@ -8962,7 +9059,10 @@
       <c r="B34" s="18">
         <v>67829</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="24">
+        <f>SUM(Sales!F35:F234)</f>
+        <v>39101</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
@@ -8971,7 +9071,10 @@
       <c r="B35" s="18">
         <v>5950</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="24">
+        <f>SUM(Sales!F36:F235)</f>
+        <v>39095</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="9" t="s">
@@ -8980,7 +9083,10 @@
       <c r="B36" s="18">
         <v>3007</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="24">
+        <f>SUM(Sales!F37:F236)</f>
+        <v>39089</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
@@ -8989,7 +9095,10 @@
       <c r="B37" s="18">
         <v>16885</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="24">
+        <f>SUM(Sales!F38:F237)</f>
+        <v>39074</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
@@ -8998,7 +9107,10 @@
       <c r="B38" s="18">
         <v>100</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="24">
+        <f>SUM(Sales!F39:F238)</f>
+        <v>39059</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
@@ -9007,7 +9119,10 @@
       <c r="B39" s="18">
         <v>40</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="24">
+        <f>SUM(Sales!F40:F239)</f>
+        <v>39044</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
@@ -9016,7 +9131,10 @@
       <c r="B40" s="18">
         <v>32</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="24">
+        <f>SUM(Sales!F41:F240)</f>
+        <v>39042</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="9" t="s">
@@ -9025,7 +9143,10 @@
       <c r="B41" s="18">
         <v>1386</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="24">
+        <f>SUM(Sales!F42:F241)</f>
+        <v>39040</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
@@ -9034,7 +9155,10 @@
       <c r="B42" s="18">
         <v>10157</v>
       </c>
-      <c r="C42" s="24"/>
+      <c r="C42" s="24">
+        <f>SUM(Sales!F43:F242)</f>
+        <v>39038</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="9" t="s">
@@ -9043,7 +9167,10 @@
       <c r="B43" s="18">
         <v>5845</v>
       </c>
-      <c r="C43" s="24"/>
+      <c r="C43" s="24">
+        <f>SUM(Sales!F44:F243)</f>
+        <v>39036</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
@@ -9052,7 +9179,10 @@
       <c r="B44" s="18">
         <v>75</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="24">
+        <f>SUM(Sales!F45:F244)</f>
+        <v>39034</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="9" t="s">
@@ -9061,7 +9191,10 @@
       <c r="B45" s="18">
         <v>2627</v>
       </c>
-      <c r="C45" s="24"/>
+      <c r="C45" s="24">
+        <f>SUM(Sales!F46:F245)</f>
+        <v>39032</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9" t="s">
@@ -9070,7 +9203,10 @@
       <c r="B46" s="18">
         <v>162</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="24">
+        <f>SUM(Sales!F47:F246)</f>
+        <v>38932</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="9" t="s">
@@ -9079,7 +9215,10 @@
       <c r="B47" s="18">
         <v>17359</v>
       </c>
-      <c r="C47" s="24"/>
+      <c r="C47" s="24">
+        <f>SUM(Sales!F48:F247)</f>
+        <v>38917</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="9" t="s">
@@ -9088,7 +9227,10 @@
       <c r="B48" s="18">
         <v>68223</v>
       </c>
-      <c r="C48" s="24"/>
+      <c r="C48" s="24">
+        <f>SUM(Sales!F49:F248)</f>
+        <v>38902</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
@@ -9097,7 +9239,10 @@
       <c r="B49" s="18">
         <v>10435</v>
       </c>
-      <c r="C49" s="24"/>
+      <c r="C49" s="24">
+        <f>SUM(Sales!F50:F249)</f>
+        <v>38887</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="9" t="s">
@@ -9106,7 +9251,10 @@
       <c r="B50" s="18">
         <v>5249</v>
       </c>
-      <c r="C50" s="24"/>
+      <c r="C50" s="24">
+        <f>SUM(Sales!F51:F250)</f>
+        <v>38877</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
@@ -9115,7 +9263,10 @@
       <c r="B51" s="18">
         <v>5671</v>
       </c>
-      <c r="C51" s="24"/>
+      <c r="C51" s="24">
+        <f>SUM(Sales!F52:F251)</f>
+        <v>38867</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="9" t="s">
@@ -9124,7 +9275,10 @@
       <c r="B52" s="18">
         <v>2779</v>
       </c>
-      <c r="C52" s="24"/>
+      <c r="C52" s="24">
+        <f>SUM(Sales!F53:F252)</f>
+        <v>38857</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
@@ -9133,7 +9287,10 @@
       <c r="B53" s="18">
         <v>16479</v>
       </c>
-      <c r="C53" s="24"/>
+      <c r="C53" s="24">
+        <f>SUM(Sales!F54:F253)</f>
+        <v>38854</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
@@ -9142,7 +9299,10 @@
       <c r="B54" s="18">
         <v>5542</v>
       </c>
-      <c r="C54" s="24"/>
+      <c r="C54" s="24">
+        <f>SUM(Sales!F55:F254)</f>
+        <v>38844</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
@@ -9151,7 +9311,10 @@
       <c r="B55" s="18">
         <v>4045</v>
       </c>
-      <c r="C55" s="24"/>
+      <c r="C55" s="24">
+        <f>SUM(Sales!F56:F255)</f>
+        <v>38841</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
@@ -9160,7 +9323,10 @@
       <c r="B56" s="18">
         <v>4373</v>
       </c>
-      <c r="C56" s="24"/>
+      <c r="C56" s="24">
+        <f>SUM(Sales!F57:F256)</f>
+        <v>38838</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
@@ -9169,7 +9335,10 @@
       <c r="B57" s="18">
         <v>12394</v>
       </c>
-      <c r="C57" s="24"/>
+      <c r="C57" s="24">
+        <f>SUM(Sales!F58:F257)</f>
+        <v>38828</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
@@ -9178,7 +9347,10 @@
       <c r="B58" s="18">
         <v>9272</v>
       </c>
-      <c r="C58" s="24"/>
+      <c r="C58" s="24">
+        <f>SUM(Sales!F59:F258)</f>
+        <v>38818</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
@@ -9187,7 +9359,10 @@
       <c r="B59" s="18">
         <v>55</v>
       </c>
-      <c r="C59" s="24"/>
+      <c r="C59" s="24">
+        <f>SUM(Sales!F60:F259)</f>
+        <v>38816</v>
+      </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
@@ -9196,7 +9371,10 @@
       <c r="B60" s="18">
         <v>20191</v>
       </c>
-      <c r="C60" s="24"/>
+      <c r="C60" s="24">
+        <f>SUM(Sales!F61:F260)</f>
+        <v>38814</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
@@ -9205,7 +9383,10 @@
       <c r="B61" s="18">
         <v>40</v>
       </c>
-      <c r="C61" s="24"/>
+      <c r="C61" s="24">
+        <f>SUM(Sales!F62:F261)</f>
+        <v>38812</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="9" t="s">
@@ -9214,7 +9395,10 @@
       <c r="B62" s="18">
         <v>2940</v>
       </c>
-      <c r="C62" s="24"/>
+      <c r="C62" s="24">
+        <f>SUM(Sales!F63:F262)</f>
+        <v>38810</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="9" t="s">
@@ -9223,7 +9407,10 @@
       <c r="B63" s="18">
         <v>139</v>
       </c>
-      <c r="C63" s="24"/>
+      <c r="C63" s="24">
+        <f>SUM(Sales!F64:F263)</f>
+        <v>38808</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
@@ -9232,7 +9419,10 @@
       <c r="B64" s="18">
         <v>4953</v>
       </c>
-      <c r="C64" s="24"/>
+      <c r="C64" s="24">
+        <f>SUM(Sales!F65:F264)</f>
+        <v>38806</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="9" t="s">
@@ -9241,7 +9431,10 @@
       <c r="B65" s="18">
         <v>248</v>
       </c>
-      <c r="C65" s="24"/>
+      <c r="C65" s="24">
+        <f>SUM(Sales!F66:F265)</f>
+        <v>37906</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="9" t="s">
@@ -9250,7 +9443,10 @@
       <c r="B66" s="18">
         <v>21</v>
       </c>
-      <c r="C66" s="24"/>
+      <c r="C66" s="24">
+        <f>SUM(Sales!F67:F266)</f>
+        <v>37656</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="9" t="s">
@@ -9259,7 +9455,10 @@
       <c r="B67" s="18">
         <v>2134</v>
       </c>
-      <c r="C67" s="24"/>
+      <c r="C67" s="24">
+        <f>SUM(Sales!F68:F267)</f>
+        <v>37506</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
@@ -9268,7 +9467,10 @@
       <c r="B68" s="18">
         <v>12053</v>
       </c>
-      <c r="C68" s="24"/>
+      <c r="C68" s="24">
+        <f>SUM(Sales!F69:F268)</f>
+        <v>36306</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="9" t="s">
@@ -9277,7 +9479,10 @@
       <c r="B69" s="18">
         <v>7918</v>
       </c>
-      <c r="C69" s="24"/>
+      <c r="C69" s="24">
+        <f>SUM(Sales!F70:F269)</f>
+        <v>35006</v>
+      </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="9" t="s">
@@ -9286,7 +9491,10 @@
       <c r="B70" s="18">
         <v>9494</v>
       </c>
-      <c r="C70" s="24"/>
+      <c r="C70" s="24">
+        <f>SUM(Sales!F71:F270)</f>
+        <v>34906</v>
+      </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="9" t="s">
@@ -9295,7 +9503,10 @@
       <c r="B71" s="18">
         <v>77057</v>
       </c>
-      <c r="C71" s="24"/>
+      <c r="C71" s="24">
+        <f>SUM(Sales!F72:F271)</f>
+        <v>34866</v>
+      </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="9" t="s">
@@ -9304,7 +9515,10 @@
       <c r="B72" s="18">
         <v>5988</v>
       </c>
-      <c r="C72" s="24"/>
+      <c r="C72" s="24">
+        <f>SUM(Sales!F73:F272)</f>
+        <v>34366</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="9" t="s">
@@ -9313,7 +9527,10 @@
       <c r="B73" s="18">
         <v>1004</v>
       </c>
-      <c r="C73" s="24"/>
+      <c r="C73" s="24">
+        <f>SUM(Sales!F74:F273)</f>
+        <v>34126</v>
+      </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="9" t="s">
@@ -9322,7 +9539,10 @@
       <c r="B74" s="18">
         <v>1098</v>
       </c>
-      <c r="C74" s="24"/>
+      <c r="C74" s="24">
+        <f>SUM(Sales!F75:F274)</f>
+        <v>32626</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="9" t="s">
@@ -9331,7 +9551,10 @@
       <c r="B75" s="18">
         <v>5507</v>
       </c>
-      <c r="C75" s="24"/>
+      <c r="C75" s="24">
+        <f>SUM(Sales!F76:F275)</f>
+        <v>31626</v>
+      </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="9" t="s">
@@ -9340,7 +9563,10 @@
       <c r="B76" s="18">
         <v>3495</v>
       </c>
-      <c r="C76" s="24"/>
+      <c r="C76" s="24">
+        <f>SUM(Sales!F77:F276)</f>
+        <v>31326</v>
+      </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="9" t="s">
@@ -9349,7 +9575,10 @@
       <c r="B77" s="18">
         <v>33436</v>
       </c>
-      <c r="C77" s="24"/>
+      <c r="C77" s="24">
+        <f>SUM(Sales!F78:F277)</f>
+        <v>30366</v>
+      </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="9" t="s">
@@ -9358,7 +9587,10 @@
       <c r="B78" s="18">
         <v>7807</v>
       </c>
-      <c r="C78" s="24"/>
+      <c r="C78" s="24">
+        <f>SUM(Sales!F79:F278)</f>
+        <v>30266</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="9" t="s">
@@ -9367,7 +9599,10 @@
       <c r="B79" s="18">
         <v>1794</v>
       </c>
-      <c r="C79" s="24"/>
+      <c r="C79" s="24">
+        <f>SUM(Sales!F80:F279)</f>
+        <v>30116</v>
+      </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="9" t="s">
@@ -9376,7 +9611,10 @@
       <c r="B80" s="18">
         <v>1926</v>
       </c>
-      <c r="C80" s="24"/>
+      <c r="C80" s="24">
+        <f>SUM(Sales!F81:F280)</f>
+        <v>29616</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="9" t="s">
@@ -9385,7 +9623,10 @@
       <c r="B81" s="18">
         <v>2241</v>
       </c>
-      <c r="C81" s="24"/>
+      <c r="C81" s="24">
+        <f>SUM(Sales!F82:F281)</f>
+        <v>23616</v>
+      </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="9" t="s">
@@ -9394,7 +9635,10 @@
       <c r="B82" s="18">
         <v>27519</v>
       </c>
-      <c r="C82" s="24"/>
+      <c r="C82" s="24">
+        <f>SUM(Sales!F83:F282)</f>
+        <v>22616</v>
+      </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="9" t="s">
@@ -9403,7 +9647,10 @@
       <c r="B83" s="18">
         <v>7528</v>
       </c>
-      <c r="C83" s="24"/>
+      <c r="C83" s="24">
+        <f>SUM(Sales!F84:F283)</f>
+        <v>22466</v>
+      </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="9" t="s">
@@ -9412,7 +9659,10 @@
       <c r="B84" s="18">
         <v>57782</v>
       </c>
-      <c r="C84" s="24"/>
+      <c r="C84" s="24">
+        <f>SUM(Sales!F85:F284)</f>
+        <v>22464</v>
+      </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="9" t="s">
@@ -9421,7 +9671,10 @@
       <c r="B85" s="18">
         <v>6217</v>
       </c>
-      <c r="C85" s="24"/>
+      <c r="C85" s="24">
+        <f>SUM(Sales!F86:F285)</f>
+        <v>22460</v>
+      </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="9" t="s">
@@ -9430,7 +9683,10 @@
       <c r="B86" s="18">
         <v>10</v>
       </c>
-      <c r="C86" s="24"/>
+      <c r="C86" s="24">
+        <f>SUM(Sales!F87:F286)</f>
+        <v>22360</v>
+      </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="9" t="s">
@@ -9439,7 +9695,10 @@
       <c r="B87" s="18">
         <v>3566</v>
       </c>
-      <c r="C87" s="24"/>
+      <c r="C87" s="24">
+        <f>SUM(Sales!F88:F287)</f>
+        <v>22240</v>
+      </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="9" t="s">
@@ -9448,7 +9707,10 @@
       <c r="B88" s="18">
         <v>989</v>
       </c>
-      <c r="C88" s="24"/>
+      <c r="C88" s="24">
+        <f>SUM(Sales!F89:F288)</f>
+        <v>22096</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="9" t="s">
@@ -9457,7 +9719,10 @@
       <c r="B89" s="18">
         <v>2262</v>
       </c>
-      <c r="C89" s="24"/>
+      <c r="C89" s="24">
+        <f>SUM(Sales!F90:F289)</f>
+        <v>21976</v>
+      </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="9" t="s">
@@ -9466,7 +9731,10 @@
       <c r="B90" s="18">
         <v>1996</v>
       </c>
-      <c r="C90" s="24"/>
+      <c r="C90" s="24">
+        <f>SUM(Sales!F91:F290)</f>
+        <v>21776</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="9" t="s">
@@ -9475,7 +9743,10 @@
       <c r="B91" s="18">
         <v>6500</v>
       </c>
-      <c r="C91" s="24"/>
+      <c r="C91" s="24">
+        <f>SUM(Sales!F92:F291)</f>
+        <v>21716</v>
+      </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="9" t="s">
@@ -9484,7 +9755,10 @@
       <c r="B92" s="18">
         <v>6000</v>
       </c>
-      <c r="C92" s="24"/>
+      <c r="C92" s="24">
+        <f>SUM(Sales!F93:F292)</f>
+        <v>21644</v>
+      </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="9" t="s">
@@ -9493,7 +9767,10 @@
       <c r="B93" s="18">
         <v>1320</v>
       </c>
-      <c r="C93" s="24"/>
+      <c r="C93" s="24">
+        <f>SUM(Sales!F94:F293)</f>
+        <v>21642</v>
+      </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="9" t="s">
@@ -9502,7 +9779,10 @@
       <c r="B94" s="18">
         <v>7375</v>
       </c>
-      <c r="C94" s="24"/>
+      <c r="C94" s="24">
+        <f>SUM(Sales!F95:F294)</f>
+        <v>21482</v>
+      </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="9" t="s">
@@ -9511,7 +9791,10 @@
       <c r="B95" s="18">
         <v>2030</v>
       </c>
-      <c r="C95" s="24"/>
+      <c r="C95" s="24">
+        <f>SUM(Sales!F96:F295)</f>
+        <v>21442</v>
+      </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="9" t="s">
@@ -9520,7 +9803,10 @@
       <c r="B96" s="18">
         <v>1321</v>
       </c>
-      <c r="C96" s="24"/>
+      <c r="C96" s="24">
+        <f>SUM(Sales!F97:F296)</f>
+        <v>21410</v>
+      </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="9" t="s">
@@ -9529,7 +9815,10 @@
       <c r="B97" s="18">
         <v>848</v>
       </c>
-      <c r="C97" s="24"/>
+      <c r="C97" s="24">
+        <f>SUM(Sales!F98:F297)</f>
+        <v>21365</v>
+      </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="9" t="s">
@@ -9538,7 +9827,10 @@
       <c r="B98" s="18">
         <v>7349</v>
       </c>
-      <c r="C98" s="24"/>
+      <c r="C98" s="24">
+        <f>SUM(Sales!F99:F298)</f>
+        <v>21325</v>
+      </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="9" t="s">
@@ -9547,7 +9839,10 @@
       <c r="B99" s="18">
         <v>5183</v>
       </c>
-      <c r="C99" s="24"/>
+      <c r="C99" s="24">
+        <f>SUM(Sales!F100:F299)</f>
+        <v>21225</v>
+      </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="9" t="s">
@@ -9556,7 +9851,10 @@
       <c r="B100" s="18">
         <v>1780</v>
       </c>
-      <c r="C100" s="24"/>
+      <c r="C100" s="24">
+        <f>SUM(Sales!F101:F300)</f>
+        <v>21189</v>
+      </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="9" t="s">
@@ -9565,7 +9863,10 @@
       <c r="B101" s="18">
         <v>6608</v>
       </c>
-      <c r="C101" s="24"/>
+      <c r="C101" s="24">
+        <f>SUM(Sales!F102:F301)</f>
+        <v>21164</v>
+      </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="9" t="s">
@@ -9574,7 +9875,10 @@
       <c r="B102" s="18">
         <v>3460</v>
       </c>
-      <c r="C102" s="24"/>
+      <c r="C102" s="24">
+        <f>SUM(Sales!F103:F302)</f>
+        <v>21154</v>
+      </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="9" t="s">
@@ -9583,7 +9887,10 @@
       <c r="B103" s="18">
         <v>3981</v>
       </c>
-      <c r="C103" s="24"/>
+      <c r="C103" s="24">
+        <f>SUM(Sales!F104:F303)</f>
+        <v>21149</v>
+      </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="9" t="s">
@@ -9592,7 +9899,10 @@
       <c r="B104" s="18">
         <v>265</v>
       </c>
-      <c r="C104" s="24"/>
+      <c r="C104" s="24">
+        <f>SUM(Sales!F105:F304)</f>
+        <v>21144</v>
+      </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="9" t="s">
@@ -9601,7 +9911,10 @@
       <c r="B105" s="18">
         <v>4335</v>
       </c>
-      <c r="C105" s="24"/>
+      <c r="C105" s="24">
+        <f>SUM(Sales!F106:F305)</f>
+        <v>21134</v>
+      </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="9" t="s">
@@ -9610,7 +9923,10 @@
       <c r="B106" s="18">
         <v>80</v>
       </c>
-      <c r="C106" s="24"/>
+      <c r="C106" s="24">
+        <f>SUM(Sales!F107:F306)</f>
+        <v>21129</v>
+      </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="9" t="s">
@@ -9619,7 +9935,10 @@
       <c r="B107" s="18">
         <v>1778</v>
       </c>
-      <c r="C107" s="24"/>
+      <c r="C107" s="24">
+        <f>SUM(Sales!F108:F307)</f>
+        <v>21124</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="19"/>
